--- a/FAST_BACKEND/device_report.xlsx
+++ b/FAST_BACKEND/device_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,132 +440,137 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>device_name</t>
+          <t>Device Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>manufacturer</t>
+          <t>Manufacturer</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>serial_number</t>
+          <t>Serial Number</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>software_version</t>
+          <t>Software Version</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>pn_code</t>
+          <t>Product Number (PN)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>hw_eol_ad</t>
+          <t>HW End-of-Life (EoL)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>hw_eos</t>
+          <t>HW End-of-Support (EoS)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>sw_EoSWM</t>
+          <t>SW Maintenance EoL</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>hw_EoRFA</t>
+          <t>HW Last Date of RFA</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>sw_EoVSS</t>
+          <t>SW Vulnerability Support EoS</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>hw_EoSCR</t>
+          <t>HW Security Support EoS</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>hw_ldos</t>
+          <t>HW Last Day of Support</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>rack_name</t>
+          <t>Rack</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>site_name</t>
+          <t>Site</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>ip_address</t>
+          <t>device_ip</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>device_type</t>
+          <t>Device Type</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Energy Efficiency</t>
+          <t>power_utilization</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>pue</t>
+          <t>Power Usage Effectiveness (PUE)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>power_input</t>
+          <t>Power Input (W)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>power_output</t>
+          <t>Power Output (W)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>datatraffic</t>
+          <t>bandwidth_gbps</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>bandwidth_utilization</t>
+          <t>Data Traffic (GB)</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>carbon_emission</t>
+          <t>Bandwidth Utilization (%)</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>pcr</t>
+          <t>Carbon Emission (kgCO₂)</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>performance_score</t>
+          <t>Power Consumption Ratio (W/Gbps)</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>performance_description</t>
+          <t>Performance Score</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Performance Description</t>
         </is>
       </c>
     </row>
@@ -619,33 +624,36 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>88.48</v>
+        <v>87.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.1302</v>
+        <v>1.1396</v>
       </c>
       <c r="S2" t="n">
-        <v>9228</v>
+        <v>4621.5</v>
       </c>
       <c r="T2" t="n">
-        <v>8165</v>
+        <v>4055.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2726.18</v>
+        <v>119.18</v>
       </c>
       <c r="V2" t="n">
-        <v>2.04</v>
+        <v>2572.39</v>
       </c>
       <c r="W2" t="n">
-        <v>3.73</v>
+        <v>2158.34</v>
       </c>
       <c r="X2" t="n">
-        <v>3384.9562</v>
+        <v>1.87</v>
       </c>
       <c r="Y2" t="n">
+        <v>1.7966</v>
+      </c>
+      <c r="Z2" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -701,33 +709,36 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>87.18000000000001</v>
+        <v>87.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.147</v>
+        <v>1.1379</v>
       </c>
       <c r="S3" t="n">
-        <v>9283</v>
+        <v>4638</v>
       </c>
       <c r="T3" t="n">
-        <v>8093</v>
+        <v>4076</v>
       </c>
       <c r="U3" t="n">
-        <v>2697.54</v>
+        <v>132.4</v>
       </c>
       <c r="V3" t="n">
-        <v>2.34</v>
+        <v>2428.87</v>
       </c>
       <c r="W3" t="n">
-        <v>3.75</v>
+        <v>1834.45</v>
       </c>
       <c r="X3" t="n">
-        <v>3441.2835</v>
+        <v>1.87</v>
       </c>
       <c r="Y3" t="n">
+        <v>1.9095</v>
+      </c>
+      <c r="Z3" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -783,33 +794,36 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>87.42</v>
+        <v>88.19</v>
       </c>
       <c r="R4" t="n">
-        <v>1.1439</v>
+        <v>1.1339</v>
       </c>
       <c r="S4" t="n">
-        <v>9284</v>
+        <v>4650.5</v>
       </c>
       <c r="T4" t="n">
-        <v>8116</v>
+        <v>4101.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2396.12</v>
+        <v>137.22</v>
       </c>
       <c r="V4" t="n">
-        <v>1.74</v>
+        <v>2769.48</v>
       </c>
       <c r="W4" t="n">
-        <v>3.75</v>
+        <v>2018.24</v>
       </c>
       <c r="X4" t="n">
-        <v>3874.5973</v>
+        <v>1.88</v>
       </c>
       <c r="Y4" t="n">
+        <v>1.6792</v>
+      </c>
+      <c r="Z4" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -865,33 +879,36 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>88.17</v>
+        <v>87.92</v>
       </c>
       <c r="R5" t="n">
-        <v>1.1342</v>
+        <v>1.1374</v>
       </c>
       <c r="S5" t="n">
-        <v>9220</v>
+        <v>4680.5</v>
       </c>
       <c r="T5" t="n">
-        <v>8129</v>
+        <v>4115</v>
       </c>
       <c r="U5" t="n">
-        <v>2567.77</v>
+        <v>140.41</v>
       </c>
       <c r="V5" t="n">
-        <v>1.88</v>
+        <v>2823.82</v>
       </c>
       <c r="W5" t="n">
-        <v>3.73</v>
+        <v>2011.18</v>
       </c>
       <c r="X5" t="n">
-        <v>3590.6643</v>
+        <v>1.89</v>
       </c>
       <c r="Y5" t="n">
+        <v>1.6575</v>
+      </c>
+      <c r="Z5" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -965,33 +982,36 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>87.78</v>
+        <v>88.94</v>
       </c>
       <c r="R6" t="n">
-        <v>1.1393</v>
+        <v>1.1244</v>
       </c>
       <c r="S6" t="n">
-        <v>9261</v>
+        <v>4582.5</v>
       </c>
       <c r="T6" t="n">
-        <v>8129</v>
+        <v>4075.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2236.93</v>
+        <v>130.89</v>
       </c>
       <c r="V6" t="n">
-        <v>1.82</v>
+        <v>2685.01</v>
       </c>
       <c r="W6" t="n">
-        <v>3.74</v>
+        <v>2051.29</v>
       </c>
       <c r="X6" t="n">
-        <v>4140.0491</v>
+        <v>1.85</v>
       </c>
       <c r="Y6" t="n">
+        <v>1.7067</v>
+      </c>
+      <c r="Z6" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -1057,33 +1077,36 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>88.23999999999999</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="R7" t="n">
-        <v>1.1332</v>
+        <v>1.1362</v>
       </c>
       <c r="S7" t="n">
-        <v>9245</v>
+        <v>4613.5</v>
       </c>
       <c r="T7" t="n">
-        <v>8158</v>
+        <v>4060.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2727.69</v>
+        <v>119.01</v>
       </c>
       <c r="V7" t="n">
-        <v>2.07</v>
+        <v>2996.33</v>
       </c>
       <c r="W7" t="n">
-        <v>3.74</v>
+        <v>2517.69</v>
       </c>
       <c r="X7" t="n">
-        <v>3389.3148</v>
+        <v>1.86</v>
       </c>
       <c r="Y7" t="n">
+        <v>1.5397</v>
+      </c>
+      <c r="Z7" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -1149,33 +1172,36 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>87.77</v>
+        <v>86.94</v>
       </c>
       <c r="R8" t="n">
-        <v>1.1393</v>
+        <v>1.1502</v>
       </c>
       <c r="S8" t="n">
-        <v>9258</v>
+        <v>4678</v>
       </c>
       <c r="T8" t="n">
-        <v>8126</v>
+        <v>4067</v>
       </c>
       <c r="U8" t="n">
-        <v>2669.76</v>
+        <v>129.49</v>
       </c>
       <c r="V8" t="n">
-        <v>2.33</v>
+        <v>2785.36</v>
       </c>
       <c r="W8" t="n">
-        <v>3.74</v>
+        <v>2151</v>
       </c>
       <c r="X8" t="n">
-        <v>3467.7274</v>
+        <v>1.89</v>
       </c>
       <c r="Y8" t="n">
+        <v>1.6795</v>
+      </c>
+      <c r="Z8" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -1241,33 +1267,36 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>87.62</v>
+        <v>87.72</v>
       </c>
       <c r="R9" t="n">
-        <v>1.1413</v>
+        <v>1.14</v>
       </c>
       <c r="S9" t="n">
-        <v>9275</v>
+        <v>4610</v>
       </c>
       <c r="T9" t="n">
-        <v>8127</v>
+        <v>4044</v>
       </c>
       <c r="U9" t="n">
-        <v>2642.44</v>
+        <v>130.46</v>
       </c>
       <c r="V9" t="n">
-        <v>1.89</v>
+        <v>2717.31</v>
       </c>
       <c r="W9" t="n">
-        <v>3.75</v>
+        <v>2082.88</v>
       </c>
       <c r="X9" t="n">
-        <v>3510.0135</v>
+        <v>1.86</v>
       </c>
       <c r="Y9" t="n">
+        <v>1.6965</v>
+      </c>
+      <c r="Z9" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -1333,33 +1362,36 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>88.17</v>
+        <v>88.36</v>
       </c>
       <c r="R10" t="n">
-        <v>1.1342</v>
+        <v>1.1317</v>
       </c>
       <c r="S10" t="n">
-        <v>9273</v>
+        <v>4575.5</v>
       </c>
       <c r="T10" t="n">
-        <v>8176</v>
+        <v>4043</v>
       </c>
       <c r="U10" t="n">
-        <v>2386.28</v>
+        <v>117.99</v>
       </c>
       <c r="V10" t="n">
-        <v>2.01</v>
+        <v>2451.3</v>
       </c>
       <c r="W10" t="n">
-        <v>3.75</v>
+        <v>2077.47</v>
       </c>
       <c r="X10" t="n">
-        <v>3885.9648</v>
+        <v>1.85</v>
       </c>
       <c r="Y10" t="n">
+        <v>1.8666</v>
+      </c>
+      <c r="Z10" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -1425,33 +1457,36 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>88.98</v>
+        <v>87.38</v>
       </c>
       <c r="R11" t="n">
-        <v>1.1239</v>
+        <v>1.1444</v>
       </c>
       <c r="S11" t="n">
-        <v>9218</v>
+        <v>4627</v>
       </c>
       <c r="T11" t="n">
-        <v>8202</v>
+        <v>4043</v>
       </c>
       <c r="U11" t="n">
-        <v>2275.38</v>
+        <v>119.47</v>
       </c>
       <c r="V11" t="n">
-        <v>1.8</v>
+        <v>2632.89</v>
       </c>
       <c r="W11" t="n">
-        <v>3.72</v>
+        <v>2203.89</v>
       </c>
       <c r="X11" t="n">
-        <v>4051.1914</v>
+        <v>1.87</v>
       </c>
       <c r="Y11" t="n">
+        <v>1.7574</v>
+      </c>
+      <c r="Z11" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -1517,33 +1552,36 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>88.98999999999999</v>
+        <v>87.02</v>
       </c>
       <c r="R12" t="n">
-        <v>1.1237</v>
+        <v>1.1492</v>
       </c>
       <c r="S12" t="n">
-        <v>9183</v>
+        <v>4645.5</v>
       </c>
       <c r="T12" t="n">
-        <v>8172</v>
+        <v>4042.5</v>
       </c>
       <c r="U12" t="n">
-        <v>2420.83</v>
+        <v>109.64</v>
       </c>
       <c r="V12" t="n">
-        <v>2.3</v>
+        <v>2629.89</v>
       </c>
       <c r="W12" t="n">
-        <v>3.71</v>
+        <v>2398.71</v>
       </c>
       <c r="X12" t="n">
-        <v>3793.3271</v>
+        <v>1.88</v>
       </c>
       <c r="Y12" t="n">
+        <v>1.7664</v>
+      </c>
+      <c r="Z12" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -1609,33 +1647,36 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>88.22</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="R13" t="n">
-        <v>1.1336</v>
+        <v>1.1442</v>
       </c>
       <c r="S13" t="n">
-        <v>9209</v>
+        <v>4653.5</v>
       </c>
       <c r="T13" t="n">
-        <v>8124</v>
+        <v>4067</v>
       </c>
       <c r="U13" t="n">
-        <v>2305.32</v>
+        <v>123.93</v>
       </c>
       <c r="V13" t="n">
-        <v>1.87</v>
+        <v>2587.19</v>
       </c>
       <c r="W13" t="n">
-        <v>3.72</v>
+        <v>2087.69</v>
       </c>
       <c r="X13" t="n">
-        <v>3994.6732</v>
+        <v>1.88</v>
       </c>
       <c r="Y13" t="n">
+        <v>1.7987</v>
+      </c>
+      <c r="Z13" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -1701,33 +1742,36 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>88.09999999999999</v>
+        <v>88.37</v>
       </c>
       <c r="R14" t="n">
-        <v>1.1351</v>
+        <v>1.1316</v>
       </c>
       <c r="S14" t="n">
-        <v>9235</v>
+        <v>4618</v>
       </c>
       <c r="T14" t="n">
-        <v>8136</v>
+        <v>4081</v>
       </c>
       <c r="U14" t="n">
-        <v>2672.49</v>
+        <v>152.15</v>
       </c>
       <c r="V14" t="n">
-        <v>2.27</v>
+        <v>2555.14</v>
       </c>
       <c r="W14" t="n">
-        <v>3.73</v>
+        <v>1679.37</v>
       </c>
       <c r="X14" t="n">
-        <v>3455.5789</v>
+        <v>1.87</v>
       </c>
       <c r="Y14" t="n">
+        <v>1.8073</v>
+      </c>
+      <c r="Z14" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -1793,33 +1837,36 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>88.18000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="R15" t="n">
-        <v>1.134</v>
+        <v>1.1274</v>
       </c>
       <c r="S15" t="n">
-        <v>9217</v>
+        <v>4567.5</v>
       </c>
       <c r="T15" t="n">
-        <v>8128</v>
+        <v>4051.5</v>
       </c>
       <c r="U15" t="n">
-        <v>2827.43</v>
+        <v>126.63</v>
       </c>
       <c r="V15" t="n">
-        <v>2.18</v>
+        <v>2644.59</v>
       </c>
       <c r="W15" t="n">
-        <v>3.72</v>
+        <v>2088.41</v>
       </c>
       <c r="X15" t="n">
-        <v>3259.8508</v>
+        <v>1.85</v>
       </c>
       <c r="Y15" t="n">
+        <v>1.7271</v>
+      </c>
+      <c r="Z15" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -1885,33 +1932,36 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>88.45999999999999</v>
+        <v>88.41</v>
       </c>
       <c r="R16" t="n">
-        <v>1.1304</v>
+        <v>1.131</v>
       </c>
       <c r="S16" t="n">
-        <v>9223</v>
+        <v>4639</v>
       </c>
       <c r="T16" t="n">
-        <v>8159</v>
+        <v>4101.5</v>
       </c>
       <c r="U16" t="n">
-        <v>2608.21</v>
+        <v>160.38</v>
       </c>
       <c r="V16" t="n">
-        <v>2.03</v>
+        <v>2756.27</v>
       </c>
       <c r="W16" t="n">
-        <v>3.73</v>
+        <v>1718.63</v>
       </c>
       <c r="X16" t="n">
-        <v>3536.1416</v>
+        <v>1.87</v>
       </c>
       <c r="Y16" t="n">
+        <v>1.6831</v>
+      </c>
+      <c r="Z16" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -1971,33 +2021,36 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>88.05</v>
+        <v>87.94</v>
       </c>
       <c r="R17" t="n">
-        <v>1.1357</v>
+        <v>1.1371</v>
       </c>
       <c r="S17" t="n">
-        <v>9248</v>
+        <v>4620</v>
       </c>
       <c r="T17" t="n">
-        <v>8143</v>
+        <v>4063</v>
       </c>
       <c r="U17" t="n">
-        <v>2691.45</v>
+        <v>108.13</v>
       </c>
       <c r="V17" t="n">
-        <v>2.56</v>
+        <v>2814.89</v>
       </c>
       <c r="W17" t="n">
-        <v>3.74</v>
+        <v>2603.13</v>
       </c>
       <c r="X17" t="n">
-        <v>3436.0661</v>
+        <v>1.87</v>
       </c>
       <c r="Y17" t="n">
+        <v>1.6413</v>
+      </c>
+      <c r="Z17" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -2063,33 +2116,36 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>88.76000000000001</v>
+        <v>88.28</v>
       </c>
       <c r="R18" t="n">
-        <v>1.1267</v>
+        <v>1.1327</v>
       </c>
       <c r="S18" t="n">
-        <v>9169</v>
+        <v>4625</v>
       </c>
       <c r="T18" t="n">
-        <v>8138</v>
+        <v>4083</v>
       </c>
       <c r="U18" t="n">
-        <v>2844.97</v>
+        <v>126.38</v>
       </c>
       <c r="V18" t="n">
-        <v>2.18</v>
+        <v>2646.2</v>
       </c>
       <c r="W18" t="n">
-        <v>3.71</v>
+        <v>2093.78</v>
       </c>
       <c r="X18" t="n">
-        <v>3222.8811</v>
+        <v>1.87</v>
       </c>
       <c r="Y18" t="n">
+        <v>1.7478</v>
+      </c>
+      <c r="Z18" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z18" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -2155,33 +2211,36 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>87.68000000000001</v>
+        <v>88.18000000000001</v>
       </c>
       <c r="R19" t="n">
-        <v>1.1405</v>
+        <v>1.1341</v>
       </c>
       <c r="S19" t="n">
-        <v>9245</v>
+        <v>4588.5</v>
       </c>
       <c r="T19" t="n">
-        <v>8106</v>
+        <v>4046</v>
       </c>
       <c r="U19" t="n">
-        <v>1652.82</v>
+        <v>114.88</v>
       </c>
       <c r="V19" t="n">
-        <v>2.18</v>
+        <v>2865.75</v>
       </c>
       <c r="W19" t="n">
-        <v>3.74</v>
+        <v>2494.59</v>
       </c>
       <c r="X19" t="n">
-        <v>5593.4706</v>
+        <v>1.85</v>
       </c>
       <c r="Y19" t="n">
+        <v>1.6012</v>
+      </c>
+      <c r="Z19" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -2255,33 +2314,36 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>88.15000000000001</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="R20" t="n">
-        <v>1.1345</v>
+        <v>1.1237</v>
       </c>
       <c r="S20" t="n">
-        <v>9213</v>
+        <v>4629</v>
       </c>
       <c r="T20" t="n">
-        <v>8121</v>
+        <v>4119.5</v>
       </c>
       <c r="U20" t="n">
-        <v>2604.4</v>
+        <v>148.42</v>
       </c>
       <c r="V20" t="n">
-        <v>1.79</v>
+        <v>3352.01</v>
       </c>
       <c r="W20" t="n">
-        <v>3.72</v>
+        <v>2258.46</v>
       </c>
       <c r="X20" t="n">
-        <v>3537.475</v>
+        <v>1.87</v>
       </c>
       <c r="Y20" t="n">
+        <v>1.381</v>
+      </c>
+      <c r="Z20" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z20" t="inlineStr">
+      <c r="AA20" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -2347,33 +2409,38 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>87.40000000000001</v>
+        <v>88.78</v>
       </c>
       <c r="R21" t="n">
-        <v>1.1441</v>
+        <v>1.1264</v>
       </c>
       <c r="S21" t="n">
-        <v>9319</v>
+        <v>4617</v>
       </c>
       <c r="T21" t="n">
-        <v>8145</v>
+        <v>4099</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>127.57</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>2327.47</v>
       </c>
       <c r="W21" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="X21" t="inlineStr"/>
+        <v>1824.44</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.87</v>
+      </c>
       <c r="Y21" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>Low efficiency device that may require significant optimization.</t>
+        <v>1.9837</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
       </c>
     </row>
@@ -2437,33 +2504,38 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>88.43000000000001</v>
+        <v>88.68000000000001</v>
       </c>
       <c r="R22" t="n">
-        <v>1.1309</v>
+        <v>1.1276</v>
       </c>
       <c r="S22" t="n">
-        <v>9227</v>
+        <v>4559.5</v>
       </c>
       <c r="T22" t="n">
-        <v>8159</v>
+        <v>4043.5</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>115.99</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>2365.77</v>
       </c>
       <c r="W22" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
+        <v>2039.59</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.84</v>
+      </c>
       <c r="Y22" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>Low efficiency device that may require significant optimization.</t>
+        <v>1.9273</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
       </c>
     </row>
@@ -2527,33 +2599,36 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>87.05</v>
+        <v>88.48</v>
       </c>
       <c r="R23" t="n">
-        <v>1.1488</v>
+        <v>1.1302</v>
       </c>
       <c r="S23" t="n">
-        <v>9264</v>
+        <v>4635.5</v>
       </c>
       <c r="T23" t="n">
-        <v>8064</v>
+        <v>4101.5</v>
       </c>
       <c r="U23" t="n">
-        <v>2908.13</v>
+        <v>127.94</v>
       </c>
       <c r="V23" t="n">
-        <v>2.61</v>
+        <v>2628.77</v>
       </c>
       <c r="W23" t="n">
-        <v>3.74</v>
+        <v>2054.73</v>
       </c>
       <c r="X23" t="n">
-        <v>3185.5522</v>
+        <v>1.87</v>
       </c>
       <c r="Y23" t="n">
+        <v>1.7634</v>
+      </c>
+      <c r="Z23" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -2619,33 +2694,36 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>87.97</v>
+        <v>88.59</v>
       </c>
       <c r="R24" t="n">
-        <v>1.1367</v>
+        <v>1.1288</v>
       </c>
       <c r="S24" t="n">
-        <v>9271</v>
+        <v>4605.5</v>
       </c>
       <c r="T24" t="n">
-        <v>8156</v>
+        <v>4080</v>
       </c>
       <c r="U24" t="n">
-        <v>2745.71</v>
+        <v>109.66</v>
       </c>
       <c r="V24" t="n">
-        <v>2.22</v>
+        <v>2937.87</v>
       </c>
       <c r="W24" t="n">
-        <v>3.75</v>
+        <v>2678.99</v>
       </c>
       <c r="X24" t="n">
-        <v>3376.5401</v>
+        <v>1.86</v>
       </c>
       <c r="Y24" t="n">
+        <v>1.5676</v>
+      </c>
+      <c r="Z24" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z24" t="inlineStr">
+      <c r="AA24" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -2711,33 +2789,38 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>86.90000000000001</v>
+        <v>88.83</v>
       </c>
       <c r="R25" t="n">
-        <v>1.1507</v>
+        <v>1.1258</v>
       </c>
       <c r="S25" t="n">
-        <v>9324</v>
+        <v>4595.5</v>
       </c>
       <c r="T25" t="n">
-        <v>8103</v>
+        <v>4082</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>148.58</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>2544.37</v>
       </c>
       <c r="W25" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="X25" t="inlineStr"/>
+        <v>1712.44</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.86</v>
+      </c>
       <c r="Y25" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>Low efficiency device that may require significant optimization.</t>
+        <v>1.8061</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
       </c>
     </row>
@@ -2795,33 +2878,36 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>87.83</v>
+        <v>88.56</v>
       </c>
       <c r="R26" t="n">
-        <v>1.1385</v>
+        <v>1.1292</v>
       </c>
       <c r="S26" t="n">
-        <v>9272</v>
+        <v>4607.5</v>
       </c>
       <c r="T26" t="n">
-        <v>8144</v>
+        <v>4080.5</v>
       </c>
       <c r="U26" t="n">
-        <v>2323.45</v>
+        <v>152.41</v>
       </c>
       <c r="V26" t="n">
-        <v>1.79</v>
+        <v>2256.25</v>
       </c>
       <c r="W26" t="n">
-        <v>3.75</v>
+        <v>1480.42</v>
       </c>
       <c r="X26" t="n">
-        <v>3990.6174</v>
+        <v>1.86</v>
       </c>
       <c r="Y26" t="n">
+        <v>2.0421</v>
+      </c>
+      <c r="Z26" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z26" t="inlineStr">
+      <c r="AA26" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -2895,33 +2981,36 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>89.81</v>
+        <v>89.52</v>
       </c>
       <c r="R27" t="n">
-        <v>1.1135</v>
+        <v>1.1171</v>
       </c>
       <c r="S27" t="n">
-        <v>9186</v>
+        <v>4604</v>
       </c>
       <c r="T27" t="n">
-        <v>8250</v>
+        <v>4121.5</v>
       </c>
       <c r="U27" t="n">
-        <v>2569.38</v>
+        <v>129.11</v>
       </c>
       <c r="V27" t="n">
-        <v>2.19</v>
+        <v>2899.48</v>
       </c>
       <c r="W27" t="n">
-        <v>3.71</v>
+        <v>2245.7</v>
       </c>
       <c r="X27" t="n">
-        <v>3575.1816</v>
+        <v>1.86</v>
       </c>
       <c r="Y27" t="n">
+        <v>1.5879</v>
+      </c>
+      <c r="Z27" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z27" t="inlineStr">
+      <c r="AA27" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -2987,33 +3076,36 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>87.7</v>
+        <v>89.25</v>
       </c>
       <c r="R28" t="n">
-        <v>1.1403</v>
+        <v>1.1204</v>
       </c>
       <c r="S28" t="n">
-        <v>9322</v>
+        <v>4581.5</v>
       </c>
       <c r="T28" t="n">
-        <v>8175</v>
+        <v>4089</v>
       </c>
       <c r="U28" t="n">
-        <v>2585.64</v>
+        <v>125.49</v>
       </c>
       <c r="V28" t="n">
-        <v>2.17</v>
+        <v>2898.94</v>
       </c>
       <c r="W28" t="n">
-        <v>3.77</v>
+        <v>2310.12</v>
       </c>
       <c r="X28" t="n">
-        <v>3605.2969</v>
+        <v>1.85</v>
       </c>
       <c r="Y28" t="n">
+        <v>1.5804</v>
+      </c>
+      <c r="Z28" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z28" t="inlineStr">
+      <c r="AA28" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -3079,33 +3171,38 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>89.11</v>
+        <v>88.28</v>
       </c>
       <c r="R29" t="n">
-        <v>1.1223</v>
+        <v>1.1328</v>
       </c>
       <c r="S29" t="n">
-        <v>9142</v>
+        <v>4636</v>
       </c>
       <c r="T29" t="n">
-        <v>8146</v>
+        <v>4092.5</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>110.03</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>2201.73</v>
       </c>
       <c r="W29" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="X29" t="inlineStr"/>
+        <v>2001.04</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.87</v>
+      </c>
       <c r="Y29" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>Low efficiency device that may require significant optimization.</t>
+        <v>2.1056</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
       </c>
     </row>
@@ -3169,33 +3266,36 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>87.73</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="R30" t="n">
-        <v>1.1398</v>
+        <v>1.1235</v>
       </c>
       <c r="S30" t="n">
-        <v>9374</v>
+        <v>4622</v>
       </c>
       <c r="T30" t="n">
-        <v>8224</v>
+        <v>4114</v>
       </c>
       <c r="U30" t="n">
-        <v>2135.18</v>
+        <v>123.76</v>
       </c>
       <c r="V30" t="n">
-        <v>1.67</v>
+        <v>2643.97</v>
       </c>
       <c r="W30" t="n">
-        <v>3.79</v>
+        <v>2136.44</v>
       </c>
       <c r="X30" t="n">
-        <v>4390.2622</v>
+        <v>1.87</v>
       </c>
       <c r="Y30" t="n">
+        <v>1.7481</v>
+      </c>
+      <c r="Z30" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z30" t="inlineStr">
+      <c r="AA30" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -3261,33 +3361,36 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>88.84999999999999</v>
+        <v>88.62</v>
       </c>
       <c r="R31" t="n">
-        <v>1.1254</v>
+        <v>1.1284</v>
       </c>
       <c r="S31" t="n">
-        <v>9179</v>
+        <v>4632</v>
       </c>
       <c r="T31" t="n">
-        <v>8156</v>
+        <v>4105</v>
       </c>
       <c r="U31" t="n">
-        <v>2264.02</v>
+        <v>146.32</v>
       </c>
       <c r="V31" t="n">
-        <v>1.99</v>
+        <v>2282.71</v>
       </c>
       <c r="W31" t="n">
-        <v>3.71</v>
+        <v>1560.12</v>
       </c>
       <c r="X31" t="n">
-        <v>4054.2928</v>
+        <v>1.87</v>
       </c>
       <c r="Y31" t="n">
+        <v>2.0292</v>
+      </c>
+      <c r="Z31" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z31" t="inlineStr">
+      <c r="AA31" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -3353,33 +3456,36 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>87.8</v>
+        <v>87.70999999999999</v>
       </c>
       <c r="R32" t="n">
-        <v>1.139</v>
+        <v>1.1401</v>
       </c>
       <c r="S32" t="n">
-        <v>9229</v>
+        <v>4643.5</v>
       </c>
       <c r="T32" t="n">
-        <v>8103</v>
+        <v>4073</v>
       </c>
       <c r="U32" t="n">
-        <v>2751</v>
+        <v>138.75</v>
       </c>
       <c r="V32" t="n">
-        <v>2.46</v>
+        <v>2786.31</v>
       </c>
       <c r="W32" t="n">
-        <v>3.73</v>
+        <v>2008.16</v>
       </c>
       <c r="X32" t="n">
-        <v>3354.7801</v>
+        <v>1.88</v>
       </c>
       <c r="Y32" t="n">
+        <v>1.6665</v>
+      </c>
+      <c r="Z32" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z32" t="inlineStr">
+      <c r="AA32" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -3445,33 +3551,36 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>88.36</v>
+        <v>88.59</v>
       </c>
       <c r="R33" t="n">
-        <v>1.1318</v>
+        <v>1.1287</v>
       </c>
       <c r="S33" t="n">
-        <v>9206</v>
+        <v>4620.5</v>
       </c>
       <c r="T33" t="n">
-        <v>8134</v>
+        <v>4093.5</v>
       </c>
       <c r="U33" t="n">
-        <v>2275.54</v>
+        <v>133.78</v>
       </c>
       <c r="V33" t="n">
-        <v>1.91</v>
+        <v>2798.66</v>
       </c>
       <c r="W33" t="n">
-        <v>3.72</v>
+        <v>2092.03</v>
       </c>
       <c r="X33" t="n">
-        <v>4045.6331</v>
+        <v>1.87</v>
       </c>
       <c r="Y33" t="n">
+        <v>1.651</v>
+      </c>
+      <c r="Z33" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z33" t="inlineStr">
+      <c r="AA33" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -3537,33 +3646,38 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>87.84999999999999</v>
+        <v>88.45</v>
       </c>
       <c r="R34" t="n">
-        <v>1.1382</v>
+        <v>1.1305</v>
       </c>
       <c r="S34" t="n">
-        <v>9230</v>
+        <v>4594.5</v>
       </c>
       <c r="T34" t="n">
-        <v>8109</v>
+        <v>4064</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>116.74</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2591.64</v>
       </c>
       <c r="W34" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="X34" t="inlineStr"/>
+        <v>2219.97</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.86</v>
+      </c>
       <c r="Y34" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>Low efficiency device that may require significant optimization.</t>
+        <v>1.7728</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
       </c>
     </row>
@@ -3627,33 +3741,36 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>88.04000000000001</v>
+        <v>88.44</v>
       </c>
       <c r="R35" t="n">
-        <v>1.1359</v>
+        <v>1.1308</v>
       </c>
       <c r="S35" t="n">
-        <v>9155</v>
+        <v>4626.5</v>
       </c>
       <c r="T35" t="n">
-        <v>8060</v>
+        <v>4091.5</v>
       </c>
       <c r="U35" t="n">
-        <v>2531.52</v>
+        <v>117.48</v>
       </c>
       <c r="V35" t="n">
-        <v>2.09</v>
+        <v>2529.76</v>
       </c>
       <c r="W35" t="n">
-        <v>3.7</v>
+        <v>2153.39</v>
       </c>
       <c r="X35" t="n">
-        <v>3616.4044</v>
+        <v>1.87</v>
       </c>
       <c r="Y35" t="n">
+        <v>1.8288</v>
+      </c>
+      <c r="Z35" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z35" t="inlineStr">
+      <c r="AA35" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -3719,33 +3836,38 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>88.69</v>
+        <v>87.54000000000001</v>
       </c>
       <c r="R36" t="n">
-        <v>1.1275</v>
+        <v>1.1423</v>
       </c>
       <c r="S36" t="n">
-        <v>9226</v>
+        <v>4647</v>
       </c>
       <c r="T36" t="n">
-        <v>8183</v>
+        <v>4068</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>131.69</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>2567.32</v>
       </c>
       <c r="W36" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="X36" t="inlineStr"/>
+        <v>1949.57</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.88</v>
+      </c>
       <c r="Y36" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>Low efficiency device that may require significant optimization.</t>
+        <v>1.8101</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
       </c>
     </row>
@@ -3809,33 +3931,36 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>89.81</v>
+        <v>88.64</v>
       </c>
       <c r="R37" t="n">
-        <v>1.1135</v>
+        <v>1.1282</v>
       </c>
       <c r="S37" t="n">
-        <v>9235</v>
+        <v>4608</v>
       </c>
       <c r="T37" t="n">
-        <v>8294</v>
+        <v>4084.5</v>
       </c>
       <c r="U37" t="n">
-        <v>2626.12</v>
+        <v>144.96</v>
       </c>
       <c r="V37" t="n">
-        <v>2.1</v>
+        <v>2865.49</v>
       </c>
       <c r="W37" t="n">
-        <v>3.73</v>
+        <v>1976.77</v>
       </c>
       <c r="X37" t="n">
-        <v>3516.5948</v>
+        <v>1.86</v>
       </c>
       <c r="Y37" t="n">
+        <v>1.6081</v>
+      </c>
+      <c r="Z37" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z37" t="inlineStr">
+      <c r="AA37" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -3901,33 +4026,36 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>88.19</v>
+        <v>87.11</v>
       </c>
       <c r="R38" t="n">
-        <v>1.1339</v>
+        <v>1.148</v>
       </c>
       <c r="S38" t="n">
-        <v>9298</v>
+        <v>4663</v>
       </c>
       <c r="T38" t="n">
-        <v>8200</v>
+        <v>4062</v>
       </c>
       <c r="U38" t="n">
-        <v>2622.14</v>
+        <v>128.54</v>
       </c>
       <c r="V38" t="n">
-        <v>2.25</v>
+        <v>2388.16</v>
       </c>
       <c r="W38" t="n">
-        <v>3.76</v>
+        <v>1857.98</v>
       </c>
       <c r="X38" t="n">
-        <v>3545.9586</v>
+        <v>1.88</v>
       </c>
       <c r="Y38" t="n">
+        <v>1.9525</v>
+      </c>
+      <c r="Z38" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z38" t="inlineStr">
+      <c r="AA38" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -3993,33 +4121,36 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>87.98999999999999</v>
+        <v>88.73</v>
       </c>
       <c r="R39" t="n">
-        <v>1.1366</v>
+        <v>1.1271</v>
       </c>
       <c r="S39" t="n">
-        <v>9272</v>
+        <v>4621</v>
       </c>
       <c r="T39" t="n">
-        <v>8158</v>
+        <v>4100</v>
       </c>
       <c r="U39" t="n">
-        <v>2515.1</v>
+        <v>132.27</v>
       </c>
       <c r="V39" t="n">
-        <v>1.92</v>
+        <v>2775.8</v>
       </c>
       <c r="W39" t="n">
-        <v>3.75</v>
+        <v>2098.57</v>
       </c>
       <c r="X39" t="n">
-        <v>3686.5333</v>
+        <v>1.87</v>
       </c>
       <c r="Y39" t="n">
+        <v>1.6647</v>
+      </c>
+      <c r="Z39" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z39" t="inlineStr">
+      <c r="AA39" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -4085,33 +4216,36 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>88.01000000000001</v>
+        <v>88.36</v>
       </c>
       <c r="R40" t="n">
-        <v>1.1362</v>
+        <v>1.1317</v>
       </c>
       <c r="S40" t="n">
-        <v>9244</v>
+        <v>4593</v>
       </c>
       <c r="T40" t="n">
-        <v>8136</v>
+        <v>4058.5</v>
       </c>
       <c r="U40" t="n">
-        <v>2595.48</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="V40" t="n">
-        <v>2.51</v>
+        <v>2604.15</v>
       </c>
       <c r="W40" t="n">
-        <v>3.74</v>
+        <v>2654.52</v>
       </c>
       <c r="X40" t="n">
-        <v>3561.5763</v>
+        <v>1.86</v>
       </c>
       <c r="Y40" t="n">
+        <v>1.7637</v>
+      </c>
+      <c r="Z40" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z40" t="inlineStr">
+      <c r="AA40" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -4177,33 +4311,36 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>88.8</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="R41" t="n">
-        <v>1.1261</v>
+        <v>1.1337</v>
       </c>
       <c r="S41" t="n">
-        <v>9225</v>
+        <v>4617.5</v>
       </c>
       <c r="T41" t="n">
-        <v>8192</v>
+        <v>4073</v>
       </c>
       <c r="U41" t="n">
-        <v>2809.75</v>
+        <v>126.19</v>
       </c>
       <c r="V41" t="n">
-        <v>1.97</v>
+        <v>2911.79</v>
       </c>
       <c r="W41" t="n">
-        <v>3.73</v>
+        <v>2307.5</v>
       </c>
       <c r="X41" t="n">
-        <v>3283.2103</v>
+        <v>1.87</v>
       </c>
       <c r="Y41" t="n">
+        <v>1.5858</v>
+      </c>
+      <c r="Z41" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z41" t="inlineStr">
+      <c r="AA41" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -4263,33 +4400,36 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>87.84</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="R42" t="n">
-        <v>1.1385</v>
+        <v>1.1362</v>
       </c>
       <c r="S42" t="n">
-        <v>9225</v>
+        <v>4638</v>
       </c>
       <c r="T42" t="n">
-        <v>8103</v>
+        <v>4082</v>
       </c>
       <c r="U42" t="n">
-        <v>2032.66</v>
+        <v>111.25</v>
       </c>
       <c r="V42" t="n">
-        <v>1.46</v>
+        <v>2426.43</v>
       </c>
       <c r="W42" t="n">
-        <v>3.73</v>
+        <v>2180.98</v>
       </c>
       <c r="X42" t="n">
-        <v>4538.3881</v>
+        <v>1.87</v>
       </c>
       <c r="Y42" t="n">
+        <v>1.9115</v>
+      </c>
+      <c r="Z42" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z42" t="inlineStr">
+      <c r="AA42" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -4355,33 +4495,36 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>88.15000000000001</v>
+        <v>88.04000000000001</v>
       </c>
       <c r="R43" t="n">
-        <v>1.1345</v>
+        <v>1.1359</v>
       </c>
       <c r="S43" t="n">
-        <v>9279</v>
+        <v>4614.5</v>
       </c>
       <c r="T43" t="n">
-        <v>8179</v>
+        <v>4062.5</v>
       </c>
       <c r="U43" t="n">
-        <v>2719.8</v>
+        <v>129.87</v>
       </c>
       <c r="V43" t="n">
-        <v>1.98</v>
+        <v>2550.76</v>
       </c>
       <c r="W43" t="n">
-        <v>3.75</v>
+        <v>1964.03</v>
       </c>
       <c r="X43" t="n">
-        <v>3411.6479</v>
+        <v>1.86</v>
       </c>
       <c r="Y43" t="n">
+        <v>1.8091</v>
+      </c>
+      <c r="Z43" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z43" t="inlineStr">
+      <c r="AA43" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -4447,33 +4590,36 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>88.62</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="R44" t="n">
-        <v>1.1284</v>
+        <v>1.1223</v>
       </c>
       <c r="S44" t="n">
-        <v>9260</v>
+        <v>4606.5</v>
       </c>
       <c r="T44" t="n">
-        <v>8206</v>
+        <v>4104.5</v>
       </c>
       <c r="U44" t="n">
-        <v>2695.55</v>
+        <v>127.62</v>
       </c>
       <c r="V44" t="n">
-        <v>1.99</v>
+        <v>2548.6</v>
       </c>
       <c r="W44" t="n">
-        <v>3.74</v>
+        <v>1996.97</v>
       </c>
       <c r="X44" t="n">
-        <v>3435.2915</v>
+        <v>1.86</v>
       </c>
       <c r="Y44" t="n">
+        <v>1.8075</v>
+      </c>
+      <c r="Z44" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z44" t="inlineStr">
+      <c r="AA44" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -4539,33 +4685,38 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>87.55</v>
+        <v>88.97</v>
       </c>
       <c r="R45" t="n">
-        <v>1.1422</v>
+        <v>1.124</v>
       </c>
       <c r="S45" t="n">
-        <v>9205</v>
+        <v>4586.5</v>
       </c>
       <c r="T45" t="n">
-        <v>8059</v>
+        <v>4080.5</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>134.88</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>2522.78</v>
       </c>
       <c r="W45" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="X45" t="inlineStr"/>
+        <v>1870.36</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.85</v>
+      </c>
       <c r="Y45" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>Low efficiency device that may require significant optimization.</t>
+        <v>1.818</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
       </c>
     </row>
@@ -4629,33 +4780,36 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>88.01000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="R46" t="n">
-        <v>1.1362</v>
+        <v>1.1223</v>
       </c>
       <c r="S46" t="n">
-        <v>9257</v>
+        <v>4583.5</v>
       </c>
       <c r="T46" t="n">
-        <v>8147</v>
+        <v>4084</v>
       </c>
       <c r="U46" t="n">
-        <v>2819.19</v>
+        <v>109.23</v>
       </c>
       <c r="V46" t="n">
-        <v>2.55</v>
+        <v>2141.23</v>
       </c>
       <c r="W46" t="n">
-        <v>3.74</v>
+        <v>1960.38</v>
       </c>
       <c r="X46" t="n">
-        <v>3283.5673</v>
+        <v>1.85</v>
       </c>
       <c r="Y46" t="n">
+        <v>2.1406</v>
+      </c>
+      <c r="Z46" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z46" t="inlineStr">
+      <c r="AA46" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -4721,33 +4875,36 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>87.86</v>
+        <v>86.98999999999999</v>
       </c>
       <c r="R47" t="n">
-        <v>1.1381</v>
+        <v>1.1496</v>
       </c>
       <c r="S47" t="n">
-        <v>9285</v>
+        <v>4653.5</v>
       </c>
       <c r="T47" t="n">
-        <v>8158</v>
+        <v>4048</v>
       </c>
       <c r="U47" t="n">
-        <v>2581.87</v>
+        <v>127.05</v>
       </c>
       <c r="V47" t="n">
-        <v>1.97</v>
+        <v>2639.76</v>
       </c>
       <c r="W47" t="n">
-        <v>3.75</v>
+        <v>2077.7</v>
       </c>
       <c r="X47" t="n">
-        <v>3596.2306</v>
+        <v>1.88</v>
       </c>
       <c r="Y47" t="n">
+        <v>1.7628</v>
+      </c>
+      <c r="Z47" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z47" t="inlineStr">
+      <c r="AA47" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -4813,33 +4970,36 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>88.22</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="R48" t="n">
-        <v>1.1335</v>
+        <v>1.1333</v>
       </c>
       <c r="S48" t="n">
-        <v>9239</v>
+        <v>4651</v>
       </c>
       <c r="T48" t="n">
-        <v>8151</v>
+        <v>4104</v>
       </c>
       <c r="U48" t="n">
-        <v>2672.86</v>
+        <v>127.49</v>
       </c>
       <c r="V48" t="n">
+        <v>2462.94</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1931.87</v>
+      </c>
+      <c r="X48" t="n">
         <v>1.88</v>
       </c>
-      <c r="W48" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="X48" t="n">
-        <v>3456.5971</v>
-      </c>
       <c r="Y48" t="n">
+        <v>1.8884</v>
+      </c>
+      <c r="Z48" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z48" t="inlineStr">
+      <c r="AA48" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>
@@ -4905,33 +5065,36 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>89.12</v>
+        <v>89.5</v>
       </c>
       <c r="R49" t="n">
-        <v>1.122</v>
+        <v>1.1173</v>
       </c>
       <c r="S49" t="n">
-        <v>9203</v>
+        <v>4581</v>
       </c>
       <c r="T49" t="n">
-        <v>8202</v>
+        <v>4100</v>
       </c>
       <c r="U49" t="n">
-        <v>2695.42</v>
+        <v>138.7</v>
       </c>
       <c r="V49" t="n">
-        <v>1.98</v>
+        <v>2746.9</v>
       </c>
       <c r="W49" t="n">
-        <v>3.72</v>
+        <v>1980.52</v>
       </c>
       <c r="X49" t="n">
-        <v>3414.3102</v>
+        <v>1.85</v>
       </c>
       <c r="Y49" t="n">
+        <v>1.6677</v>
+      </c>
+      <c r="Z49" t="n">
         <v>0.6</v>
       </c>
-      <c r="Z49" t="inlineStr">
+      <c r="AA49" t="inlineStr">
         <is>
           <t>Moderate efficiency device with some areas for improvement.</t>
         </is>

--- a/FAST_BACKEND/device_report.xlsx
+++ b/FAST_BACKEND/device_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,23 +552,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R_384</t>
+          <t>R_167_SW_02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HuaweiOS</t>
+          <t>ExtremeXOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>S5335-L24T4X-D1</t>
+          <t>X450a-24tdc</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>169.254.2.2</t>
+          <t>10.200.97.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -580,13 +580,13 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>198.5</v>
+        <v>203</v>
       </c>
       <c r="K2" t="n">
-        <v>169</v>
+        <v>174.5</v>
       </c>
       <c r="L2" t="n">
-        <v>85.14</v>
+        <v>85.95999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R_167_SW_02</t>
+          <t>R_167_SW_01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.200.97.71</t>
+          <t>10.200.97.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -636,13 +636,13 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>196.5</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>176.5</v>
+        <v>172</v>
       </c>
       <c r="L3" t="n">
-        <v>89.81999999999999</v>
+        <v>86</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -664,23 +664,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R_383</t>
+          <t>SULY-EAPC-CI-COM-003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HuaweiOS</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>apic</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FCH2052V2HM</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>S5335-L24T4X-D1</t>
+          <t>APIC-SERVER-L2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>169.254.2.1</t>
+          <t>172.8.0.3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -692,13 +696,13 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>199.5</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>166.5</v>
+        <v>169.5</v>
       </c>
       <c r="L4" t="n">
-        <v>83.45999999999999</v>
+        <v>84.75</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -709,34 +713,52 @@
       <c r="O4" t="n">
         <v>0.08</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="P4" s="2" t="n">
+        <v>43545</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>44001</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>44366</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>44731</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R_167_SW_01</t>
+          <t>SULY-ELEF-CI-COM-402</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ExtremeXOS</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>apic</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>FDO205209PH</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>X450a-24tdc</t>
+          <t>N9K-C93180YC-EX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.200.97.72</t>
+          <t>172.8.144.79</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -748,13 +770,13 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>196</v>
+        <v>198.5</v>
       </c>
       <c r="K5" t="n">
-        <v>174</v>
+        <v>172.5</v>
       </c>
       <c r="L5" t="n">
-        <v>88.78</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -765,18 +787,32 @@
       <c r="O5" t="n">
         <v>0.08</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="P5" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>46630</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>45792</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SULY-EAPC-CI-COM-003</t>
+          <t>SULY-ELEF-CI-COM-431</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -786,17 +822,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FCH2052V2HM</t>
+          <t>FDO204813YQ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>APIC-SERVER-L2</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>172.8.0.3</t>
+          <t>172.8.16.77</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -808,13 +844,13 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K6" t="n">
-        <v>173.5</v>
+        <v>177.5</v>
       </c>
       <c r="L6" t="n">
-        <v>90.84</v>
+        <v>91.97</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -826,31 +862,23 @@
         <v>0.08</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>43545</v>
+        <v>44417</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>45708</v>
+        <v>44782</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>45473</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>44001</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>45184</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>44366</v>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>44731</v>
-      </c>
+        <v>46630</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-402</t>
+          <t>SULY-ELEF-CI-COM-314</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -860,17 +888,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FDO205209PH</t>
+          <t>FDO21142F3D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N9K-C93180YC-EX</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>172.8.144.79</t>
+          <t>172.8.144.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -882,13 +910,13 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>194.5</v>
+        <v>198.5</v>
       </c>
       <c r="K7" t="n">
-        <v>168.5</v>
+        <v>166.5</v>
       </c>
       <c r="L7" t="n">
-        <v>86.63</v>
+        <v>83.88</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -900,31 +928,23 @@
         <v>0.08</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>45793</v>
+        <v>44417</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>45788</v>
+        <v>44782</v>
       </c>
       <c r="R7" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S7" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>45785</v>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>45792</v>
-      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-431</t>
+          <t>SULY-ELEF-CI-COM-426</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -934,17 +954,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FDO204813YQ</t>
+          <t>FDO21150F8Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C93180YC-EX</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>172.8.16.77</t>
+          <t>172.8.144.71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -956,13 +976,13 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>199.5</v>
+        <v>188.5</v>
       </c>
       <c r="K8" t="n">
-        <v>177.5</v>
+        <v>172</v>
       </c>
       <c r="L8" t="n">
-        <v>88.97</v>
+        <v>91.25</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -974,23 +994,31 @@
         <v>0.08</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>44417</v>
+        <v>45793</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>44782</v>
+        <v>45788</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="S8" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>45792</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-314</t>
+          <t>SULY-ELEF-CI-COM-309</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1000,7 +1028,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FDO21142F3D</t>
+          <t>FDO21142F2K</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1010,7 +1038,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>172.8.144.91</t>
+          <t>172.8.16.69</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1022,13 +1050,13 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K9" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L9" t="n">
-        <v>86.91</v>
+        <v>84.77</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1056,7 +1084,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-426</t>
+          <t>SULY-ELEF-CI-COM-311</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1066,17 +1094,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FDO21150F8Z</t>
+          <t>FDO21141MXL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N9K-C93180YC-EX</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>172.8.144.71</t>
+          <t>172.8.16.70</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1088,13 +1116,13 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>197.5</v>
+        <v>196</v>
       </c>
       <c r="K10" t="n">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="L10" t="n">
-        <v>82.53</v>
+        <v>88.78</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1106,31 +1134,23 @@
         <v>0.08</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>45793</v>
+        <v>44417</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>45788</v>
+        <v>44782</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S10" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="U10" s="2" t="n">
-        <v>45785</v>
-      </c>
-      <c r="V10" s="2" t="n">
-        <v>45792</v>
-      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-309</t>
+          <t>SULY-ELEF-CI-COM-429</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1140,7 +1160,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FDO21142F2K</t>
+          <t>FDO204813ZF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1150,7 +1170,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>172.8.16.69</t>
+          <t>172.8.16.66</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1162,13 +1182,13 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>185.5</v>
+        <v>194.5</v>
       </c>
       <c r="K11" t="n">
-        <v>168.5</v>
+        <v>160.5</v>
       </c>
       <c r="L11" t="n">
-        <v>90.84</v>
+        <v>82.52</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1177,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="P11" s="2" t="n">
         <v>44417</v>
@@ -1196,7 +1216,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-311</t>
+          <t>SULY-ELEF-CI-COM-307</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1206,7 +1226,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FDO21141MXL</t>
+          <t>FDO21140B30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1216,7 +1236,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>172.8.16.70</t>
+          <t>172.8.16.67</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1228,13 +1248,13 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>185.5</v>
+        <v>199</v>
       </c>
       <c r="K12" t="n">
-        <v>170.5</v>
+        <v>174</v>
       </c>
       <c r="L12" t="n">
-        <v>91.91</v>
+        <v>87.44</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1243,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>44417</v>
@@ -1262,7 +1282,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-429</t>
+          <t>SULY-ELEF-CI-COM-423</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1272,7 +1292,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FDO204813ZF</t>
+          <t>FDO21142F55</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1282,12 +1302,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>172.8.16.66</t>
+          <t>172.8.144.75</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>SULAY</t>
+          <t>Jebal Ali</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -1297,10 +1317,10 @@
         <v>194</v>
       </c>
       <c r="K13" t="n">
-        <v>169</v>
+        <v>168.5</v>
       </c>
       <c r="L13" t="n">
-        <v>87.11</v>
+        <v>86.86</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1328,7 +1348,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-307</t>
+          <t>SULY-ELEF-CI-COM-447</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1338,35 +1358,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FDO21140B30</t>
+          <t>FDO264407ZZ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C93360YC-FX2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>172.8.16.67</t>
+          <t>172.8.16.80</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SULAY</t>
+          <t>Jebal Ali</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>189</v>
+        <v>194.5</v>
       </c>
       <c r="K14" t="n">
-        <v>173.5</v>
+        <v>173</v>
       </c>
       <c r="L14" t="n">
-        <v>91.8</v>
+        <v>88.95</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1378,13 +1398,13 @@
         <v>0.08</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>44417</v>
+        <v>43718</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>44782</v>
+        <v>44083</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>46630</v>
+        <v>45930</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -1394,7 +1414,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-423</t>
+          <t>SULY-ESPN-CI-COM-104</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1404,17 +1424,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FDO21142F55</t>
+          <t>FOX2049GGYK</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C9504</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>172.8.144.75</t>
+          <t>172.8.144.68</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1426,10 +1446,10 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>191</v>
+        <v>199.5</v>
       </c>
       <c r="K15" t="n">
-        <v>168.5</v>
+        <v>176</v>
       </c>
       <c r="L15" t="n">
         <v>88.22</v>
@@ -1443,15 +1463,9 @@
       <c r="O15" t="n">
         <v>0.08</v>
       </c>
-      <c r="P15" s="2" t="n">
-        <v>44417</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>44782</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>46630</v>
-      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
@@ -1460,7 +1474,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-447</t>
+          <t>SULY-ELEF-CI-COM-418</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1470,17 +1484,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FDO264407ZZ</t>
+          <t>FDO21140JUT</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N9K-C93360YC-FX2</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>172.8.16.80</t>
+          <t>172.8.144.88</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1492,13 +1506,13 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>198</v>
+        <v>193.5</v>
       </c>
       <c r="K16" t="n">
-        <v>166</v>
+        <v>176.5</v>
       </c>
       <c r="L16" t="n">
-        <v>83.84</v>
+        <v>91.20999999999999</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1510,13 +1524,13 @@
         <v>0.08</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>43718</v>
+        <v>44417</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>44083</v>
+        <v>44782</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>45930</v>
+        <v>46630</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
@@ -1526,7 +1540,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SULY-ESPN-CI-COM-104</t>
+          <t>SULY-ELEF-CI-COM-301</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1536,17 +1550,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FOX2049GGYK</t>
+          <t>FDO20531JSF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N9K-C9504</t>
+          <t>N9K-C93180YC-EX</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>172.8.144.68</t>
+          <t>172.8.160.69</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1558,13 +1572,13 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>186.5</v>
+        <v>194.5</v>
       </c>
       <c r="K17" t="n">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L17" t="n">
-        <v>89.54000000000001</v>
+        <v>89.45999999999999</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1575,38 +1589,52 @@
       <c r="O17" t="n">
         <v>0.08</v>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
+      <c r="P17" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="Q17" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="R17" s="2" t="n">
+        <v>46630</v>
+      </c>
+      <c r="S17" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="T17" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="U17" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="V17" s="2" t="n">
+        <v>45792</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-418</t>
+          <t>SULY-EAPC-CI-COM-002</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>apic</t>
+          <t>cisco_ios</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FDO21140JUT</t>
+          <t>FCH2052V2FU</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>APIC-SERVER-L2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>172.8.144.88</t>
+          <t>172.8.0.2</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1618,13 +1646,13 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="K18" t="n">
-        <v>169.5</v>
+        <v>166.5</v>
       </c>
       <c r="L18" t="n">
-        <v>83.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1636,23 +1664,31 @@
         <v>0.08</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>44417</v>
+        <v>43545</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>44782</v>
+        <v>45708</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>46630</v>
-      </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+        <v>45473</v>
+      </c>
+      <c r="S18" s="2" t="n">
+        <v>44001</v>
+      </c>
+      <c r="T18" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="U18" s="2" t="n">
+        <v>44366</v>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>44731</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-301</t>
+          <t>SULY-ELEF-CI-COM-432</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1662,35 +1698,35 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FDO20531JSF</t>
+          <t>FDO21190NND</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>N9K-C93180YC-EX</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>172.8.160.69</t>
+          <t>172.8.160.75</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Jebal Ali</t>
+          <t>SULAY</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>193.5</v>
+        <v>185.5</v>
       </c>
       <c r="K19" t="n">
-        <v>175</v>
+        <v>165.5</v>
       </c>
       <c r="L19" t="n">
-        <v>90.44</v>
+        <v>89.22</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1699,72 +1735,64 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>45793</v>
+        <v>44417</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>45788</v>
+        <v>44782</v>
       </c>
       <c r="R19" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S19" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="T19" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="U19" s="2" t="n">
-        <v>45785</v>
-      </c>
-      <c r="V19" s="2" t="n">
-        <v>45792</v>
-      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SULY-EAPC-CI-COM-002</t>
+          <t>SULY-ELEF-CI-COM-315</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cisco_ios</t>
+          <t>apic</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FCH2052V2FU</t>
+          <t>FDO21190NLC</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>APIC-SERVER-L2</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>172.8.0.2</t>
+          <t>172.8.160.76</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Jebal Ali</t>
+          <t>SULAY</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>192</v>
+        <v>194.5</v>
       </c>
       <c r="K20" t="n">
-        <v>172</v>
+        <v>164.5</v>
       </c>
       <c r="L20" t="n">
-        <v>89.58</v>
+        <v>84.58</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1776,31 +1804,23 @@
         <v>0.08</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>43545</v>
+        <v>44417</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>45708</v>
+        <v>44782</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>45473</v>
-      </c>
-      <c r="S20" s="2" t="n">
-        <v>44001</v>
-      </c>
-      <c r="T20" s="2" t="n">
-        <v>45184</v>
-      </c>
-      <c r="U20" s="2" t="n">
-        <v>44366</v>
-      </c>
-      <c r="V20" s="2" t="n">
-        <v>44731</v>
-      </c>
+        <v>46630</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-432</t>
+          <t>SULY-ELEF-CI-COM-403</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1810,7 +1830,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FDO21190NND</t>
+          <t>FDO204813ZE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1820,7 +1840,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>172.8.160.75</t>
+          <t>172.8.144.77</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1832,13 +1852,13 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>189.5</v>
+        <v>195</v>
       </c>
       <c r="K21" t="n">
-        <v>173.5</v>
+        <v>169</v>
       </c>
       <c r="L21" t="n">
-        <v>91.56</v>
+        <v>86.67</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1866,7 +1886,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-315</t>
+          <t>SULY-ELEF-CI-COM-304</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1876,7 +1896,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FDO21190NLC</t>
+          <t>FDO2043157K</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1886,7 +1906,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>172.8.160.76</t>
+          <t>172.8.144.81</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1898,13 +1918,13 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="K22" t="n">
-        <v>177</v>
+        <v>163.5</v>
       </c>
       <c r="L22" t="n">
-        <v>91.23999999999999</v>
+        <v>89.34</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1913,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>44417</v>
@@ -1932,27 +1952,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-403</t>
+          <t>SULY-ELEF-CI-COM-415</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>apic</t>
+          <t>cisco_ios</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FDO204813ZE</t>
+          <t>FDO21153153</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C93180YC-EX</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>172.8.144.77</t>
+          <t>172.8.160.70</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1964,13 +1984,13 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>190.5</v>
+        <v>192</v>
       </c>
       <c r="K23" t="n">
-        <v>164</v>
+        <v>170.5</v>
       </c>
       <c r="L23" t="n">
-        <v>86.09</v>
+        <v>88.8</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1982,23 +2002,31 @@
         <v>0.08</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>44417</v>
+        <v>45793</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>44782</v>
+        <v>45788</v>
       </c>
       <c r="R23" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="S23" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="T23" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="U23" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="V23" s="2" t="n">
+        <v>45792</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-304</t>
+          <t>SULY-ESPN-CI-COM-102</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2008,35 +2036,35 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FDO2043157K</t>
+          <t>FOX2049GGYF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C9504</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>172.8.144.81</t>
+          <t>172.8.144.67</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SULAY</t>
+          <t>Jebal Ali</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>182.5</v>
+        <v>188.5</v>
       </c>
       <c r="K24" t="n">
-        <v>174</v>
+        <v>175.5</v>
       </c>
       <c r="L24" t="n">
-        <v>95.34</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2045,17 +2073,11 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="P24" s="2" t="n">
-        <v>44417</v>
-      </c>
-      <c r="Q24" s="2" t="n">
-        <v>44782</v>
-      </c>
-      <c r="R24" s="2" t="n">
-        <v>46630</v>
-      </c>
+        <v>0.08</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
@@ -2064,45 +2086,45 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-415</t>
+          <t>SULY-ELEF-CI-COM-444</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cisco_ios</t>
+          <t>apic</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FDO21153153</t>
+          <t>FDO25300JFD</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>N9K-C93180YC-EX</t>
+          <t>N9K-C93108TC-FX</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>172.8.160.70</t>
+          <t>172.8.160.68</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>SULAY</t>
+          <t>Jebal Ali</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>197</v>
+        <v>188.5</v>
       </c>
       <c r="K25" t="n">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L25" t="n">
-        <v>89.84999999999999</v>
+        <v>92.84</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2114,31 +2136,31 @@
         <v>0.08</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>45793</v>
+        <v>45139</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>45788</v>
+        <v>45703</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>46630</v>
+        <v>47330</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>45793</v>
+        <v>45869</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>45794</v>
+        <v>47055</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>45785</v>
+        <v>46599</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>45792</v>
+        <v>47330</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SULY-ESPN-CI-COM-102</t>
+          <t>SULY-ELEF-CI-COM-303</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2148,17 +2170,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FOX2049GGYF</t>
+          <t>FDO20460EKD</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>N9K-C9504</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>172.8.144.67</t>
+          <t>172.8.144.69</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2170,13 +2192,13 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K26" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L26" t="n">
-        <v>85.64</v>
+        <v>85.94</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2187,9 +2209,15 @@
       <c r="O26" t="n">
         <v>0.08</v>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="P26" s="2" t="n">
+        <v>44417</v>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="R26" s="2" t="n">
+        <v>46630</v>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
@@ -2198,7 +2226,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-444</t>
+          <t>SULY-ELEF-CI-COM-420</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2208,17 +2236,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FDO25300JFD</t>
+          <t>FDO21141MUY</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-FX</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>172.8.160.68</t>
+          <t>172.8.160.73</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2230,13 +2258,13 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="K27" t="n">
-        <v>167</v>
+        <v>172.5</v>
       </c>
       <c r="L27" t="n">
-        <v>88.36</v>
+        <v>86.25</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2248,31 +2276,23 @@
         <v>0.08</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>45139</v>
+        <v>44417</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>45703</v>
+        <v>44782</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>47330</v>
-      </c>
-      <c r="S27" s="2" t="n">
-        <v>45869</v>
-      </c>
-      <c r="T27" s="2" t="n">
-        <v>47055</v>
-      </c>
-      <c r="U27" s="2" t="n">
-        <v>46599</v>
-      </c>
-      <c r="V27" s="2" t="n">
-        <v>47330</v>
-      </c>
+        <v>46630</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-303</t>
+          <t>SULY-ELEF-CI-COM-430</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2282,7 +2302,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FDO20460EKD</t>
+          <t>FDO211325Q9</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2292,7 +2312,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>172.8.144.69</t>
+          <t>172.8.144.86</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2304,13 +2324,13 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>201.5</v>
+        <v>190.5</v>
       </c>
       <c r="K28" t="n">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L28" t="n">
-        <v>86.34999999999999</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2338,7 +2358,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-420</t>
+          <t>SULY-ELEF-CI-COM-312</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2348,7 +2368,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FDO21141MUY</t>
+          <t>FDO211311DA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2358,7 +2378,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>172.8.160.73</t>
+          <t>172.8.16.72</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2370,13 +2390,13 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>189.5</v>
+        <v>194</v>
       </c>
       <c r="K29" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L29" t="n">
-        <v>87.06999999999999</v>
+        <v>87.63</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2404,7 +2424,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-430</t>
+          <t>SULY-ELEF-CI-COM-412</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2414,7 +2434,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FDO211325Q9</t>
+          <t>FDO21142F5G</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2424,7 +2444,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>172.8.144.86</t>
+          <t>172.8.16.74</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2436,13 +2456,13 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>196</v>
+        <v>194.5</v>
       </c>
       <c r="K30" t="n">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L30" t="n">
-        <v>88.27</v>
+        <v>86.38</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2470,7 +2490,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-312</t>
+          <t>SULY-ELEF-CI-COM-446</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2480,17 +2500,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>FDO211311DA</t>
+          <t>FDO264407XL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C93360YC-FX2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>172.8.16.72</t>
+          <t>172.8.144.80</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2505,10 +2525,10 @@
         <v>196</v>
       </c>
       <c r="K31" t="n">
-        <v>168</v>
+        <v>169.5</v>
       </c>
       <c r="L31" t="n">
-        <v>85.70999999999999</v>
+        <v>86.48</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2520,13 +2540,13 @@
         <v>0.08</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>44417</v>
+        <v>43718</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>44782</v>
+        <v>44083</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>46630</v>
+        <v>45930</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -2536,7 +2556,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-412</t>
+          <t>SULY-ELEF-CI-COM-417</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2546,7 +2566,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FDO21142F5G</t>
+          <t>FDO21140JXA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2556,7 +2576,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>172.8.16.74</t>
+          <t>172.8.160.71</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2568,13 +2588,13 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>190</v>
+        <v>193.5</v>
       </c>
       <c r="K32" t="n">
-        <v>174.5</v>
+        <v>171</v>
       </c>
       <c r="L32" t="n">
-        <v>91.84</v>
+        <v>88.37</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2602,7 +2622,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-446</t>
+          <t>SULY-ELEF-CI-COM-308</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2612,17 +2632,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FDO264407XL</t>
+          <t>FDO21142F0S</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>N9K-C93360YC-FX2</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>172.8.144.80</t>
+          <t>172.8.16.68</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2634,13 +2654,13 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>197</v>
+        <v>193.5</v>
       </c>
       <c r="K33" t="n">
-        <v>163.5</v>
+        <v>177.5</v>
       </c>
       <c r="L33" t="n">
-        <v>82.98999999999999</v>
+        <v>91.73</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2652,13 +2672,13 @@
         <v>0.08</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>43718</v>
+        <v>44417</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>44083</v>
+        <v>44782</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>45930</v>
+        <v>46630</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -2668,7 +2688,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-417</t>
+          <t>SULY-ELEF-CI-COM-424</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2678,7 +2698,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>FDO21140JXA</t>
+          <t>FDO21142F2V</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2688,25 +2708,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>172.8.160.71</t>
+          <t>172.8.160.74</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Jebal Ali</t>
+          <t>Duha</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="K34" t="n">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L34" t="n">
-        <v>89.45</v>
+        <v>88.3</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2734,7 +2754,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-308</t>
+          <t>SULY-ELEF-CI-COM-427</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2744,17 +2764,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FDO21142F0S</t>
+          <t>FDO21160ZYT</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C93180YC-EX</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>172.8.16.68</t>
+          <t>172.8.144.73</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2766,13 +2786,13 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="K35" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L35" t="n">
-        <v>91.58</v>
+        <v>86.43000000000001</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -2784,23 +2804,31 @@
         <v>0.08</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>44417</v>
+        <v>45793</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>44782</v>
+        <v>45788</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="S35" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="T35" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="U35" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="V35" s="2" t="n">
+        <v>45792</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-424</t>
+          <t>SULY-ESLR-CI-COM-201</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2810,35 +2838,35 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FDO21142F2V</t>
+          <t>FDO21160ZVE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C93180YC-EX</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>172.8.160.74</t>
+          <t>172.8.144.72</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Duha</t>
+          <t>Jebal Ali</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>189.5</v>
+        <v>198.5</v>
       </c>
       <c r="K36" t="n">
-        <v>172.5</v>
+        <v>176</v>
       </c>
       <c r="L36" t="n">
-        <v>91.03</v>
+        <v>88.66</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2850,23 +2878,31 @@
         <v>0.08</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>44417</v>
+        <v>45793</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>44782</v>
+        <v>45788</v>
       </c>
       <c r="R36" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="S36" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="T36" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="U36" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="V36" s="2" t="n">
+        <v>45792</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-427</t>
+          <t>SULY-ELEF-CI-COM-409</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2876,7 +2912,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>FDO21160ZYT</t>
+          <t>FDO211531A3</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2886,7 +2922,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>172.8.144.73</t>
+          <t>172.8.160.64</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2898,13 +2934,13 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K37" t="n">
-        <v>176.5</v>
+        <v>171</v>
       </c>
       <c r="L37" t="n">
-        <v>93.39</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2940,7 +2976,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SULY-ESLR-CI-COM-201</t>
+          <t>SULY-ELEF-CI-COM-438</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2950,17 +2986,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FDO21160ZVE</t>
+          <t>FDO20481405</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>N9K-C93180YC-EX</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>172.8.144.72</t>
+          <t>172.8.16.87</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2972,13 +3008,13 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>197</v>
+        <v>195.5</v>
       </c>
       <c r="K38" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L38" t="n">
-        <v>86.8</v>
+        <v>87.98</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -2990,31 +3026,23 @@
         <v>0.08</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>45793</v>
+        <v>44417</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>45788</v>
+        <v>44782</v>
       </c>
       <c r="R38" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S38" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="T38" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="U38" s="2" t="n">
-        <v>45785</v>
-      </c>
-      <c r="V38" s="2" t="n">
-        <v>45792</v>
-      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-409</t>
+          <t>SULY-ELEF-CI-COM-443</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3024,17 +3052,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FDO211531A3</t>
+          <t>FDO21140JVX</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>N9K-C93180YC-EX</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>172.8.160.64</t>
+          <t>172.8.16.88</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3046,13 +3074,13 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>182.5</v>
+        <v>199</v>
       </c>
       <c r="K39" t="n">
-        <v>168</v>
+        <v>169.5</v>
       </c>
       <c r="L39" t="n">
-        <v>92.05</v>
+        <v>85.18000000000001</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3061,34 +3089,26 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>45793</v>
+        <v>44417</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>45788</v>
+        <v>44782</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S39" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="T39" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="U39" s="2" t="n">
-        <v>45785</v>
-      </c>
-      <c r="V39" s="2" t="n">
-        <v>45792</v>
-      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-438</t>
+          <t>SULY-ESPN-CI-COM-101</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3098,17 +3118,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>FDO20481405</t>
+          <t>FOX2049G2YX</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C9504</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>172.8.16.87</t>
+          <t>172.8.144.65</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3120,13 +3140,13 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>195.5</v>
+        <v>190</v>
       </c>
       <c r="K40" t="n">
-        <v>166</v>
+        <v>168.5</v>
       </c>
       <c r="L40" t="n">
-        <v>84.91</v>
+        <v>88.68000000000001</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3137,15 +3157,9 @@
       <c r="O40" t="n">
         <v>0.08</v>
       </c>
-      <c r="P40" s="2" t="n">
-        <v>44417</v>
-      </c>
-      <c r="Q40" s="2" t="n">
-        <v>44782</v>
-      </c>
-      <c r="R40" s="2" t="n">
-        <v>46630</v>
-      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -3154,7 +3168,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-443</t>
+          <t>SULY-ELEF-CI-COM-411</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3164,7 +3178,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FDO21140JVX</t>
+          <t>FDO21142F5K</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3174,7 +3188,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>172.8.16.88</t>
+          <t>172.8.16.73</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3186,13 +3200,13 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>189.5</v>
+        <v>195</v>
       </c>
       <c r="K41" t="n">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="L41" t="n">
-        <v>86.54000000000001</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3220,7 +3234,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SULY-ESPN-CI-COM-101</t>
+          <t>SULY-ELEF-CI-COM-319</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3230,35 +3244,35 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FOX2049G2YX</t>
+          <t>FDO21162J2G</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>N9K-C9504</t>
+          <t>N9K-C93180YC-EX</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>172.8.144.65</t>
+          <t>172.8.16.65</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Jebal Ali</t>
+          <t>Duha</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>181</v>
+        <v>194.5</v>
       </c>
       <c r="K42" t="n">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L42" t="n">
-        <v>93.37</v>
+        <v>88.43000000000001</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -3267,20 +3281,34 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+        <v>0.08</v>
+      </c>
+      <c r="P42" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="Q42" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="R42" s="2" t="n">
+        <v>46630</v>
+      </c>
+      <c r="S42" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="T42" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="U42" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="V42" s="2" t="n">
+        <v>45792</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-411</t>
+          <t>SULY-ELEF-CI-COM-305</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3290,7 +3318,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>FDO21142F5K</t>
+          <t>FDO21140JYA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3300,25 +3328,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>172.8.16.73</t>
+          <t>172.8.160.72</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Jebal Ali</t>
+          <t>Duha</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>187</v>
+        <v>192.5</v>
       </c>
       <c r="K43" t="n">
-        <v>168</v>
+        <v>163.5</v>
       </c>
       <c r="L43" t="n">
-        <v>89.84</v>
+        <v>84.94</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3346,27 +3374,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-319</t>
+          <t>SULY-ELEF-CI-COM-448</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>apic</t>
+          <t>cisco_nxos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FDO21162J2G</t>
+          <t>FDO26250DWB</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>N9K-C93180YC-EX</t>
+          <t>N9K-C9336C-FX2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>172.8.16.65</t>
+          <t>172.8.144.78</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3378,13 +3406,13 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>192.5</v>
+        <v>190</v>
       </c>
       <c r="K44" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L44" t="n">
-        <v>88.31</v>
+        <v>90.53</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -3396,51 +3424,43 @@
         <v>0.08</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>45793</v>
+        <v>44252</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>45788</v>
+        <v>44617</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>46630</v>
-      </c>
-      <c r="S44" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="T44" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="U44" s="2" t="n">
-        <v>45785</v>
-      </c>
-      <c r="V44" s="2" t="n">
-        <v>45792</v>
-      </c>
+        <v>46446</v>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-305</t>
+          <t>SULY-ELEF-CI-COM-302</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>apic</t>
+          <t>cisco_nxos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>FDO21140JYA</t>
+          <t>FDO2053179K</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C93180YC-EX</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>172.8.160.72</t>
+          <t>172.8.144.83</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3452,13 +3472,13 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>190.5</v>
+        <v>188</v>
       </c>
       <c r="K45" t="n">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="L45" t="n">
-        <v>91.86</v>
+        <v>86.7</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -3470,23 +3490,31 @@
         <v>0.08</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>44417</v>
+        <v>45793</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>44782</v>
+        <v>45788</v>
       </c>
       <c r="R45" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+      <c r="S45" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="T45" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="U45" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="V45" s="2" t="n">
+        <v>45792</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-448</t>
+          <t>SULY-ELEF-CI-COM-419</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3496,17 +3524,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>FDO26250DWB</t>
+          <t>FDO211325NQ</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>N9K-C9336C-FX2</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>172.8.144.78</t>
+          <t>172.8.144.74</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3518,13 +3546,13 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>196.5</v>
+        <v>191.5</v>
       </c>
       <c r="K46" t="n">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="L46" t="n">
-        <v>84.48</v>
+        <v>92.43000000000001</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -3536,13 +3564,13 @@
         <v>0.08</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>44252</v>
+        <v>44417</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>44617</v>
+        <v>44782</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>46446</v>
+        <v>46630</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -3552,17 +3580,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-302</t>
+          <t>SULY-ELEF-CI-COM-405</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>cisco_nxos</t>
+          <t>apic</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>FDO2053179K</t>
+          <t>FDO2052228W</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3572,25 +3600,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>172.8.144.83</t>
+          <t>172.8.144.82</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Duha</t>
+          <t>Jebal Ali</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K47" t="n">
-        <v>162.5</v>
+        <v>168</v>
       </c>
       <c r="L47" t="n">
-        <v>87.37</v>
+        <v>91.3</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -3599,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P47" s="2" t="n">
         <v>45793</v>
@@ -3626,17 +3654,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-419</t>
+          <t>SULY-ELEF-CI-COM-318</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>cisco_nxos</t>
+          <t>apic</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>FDO211325NQ</t>
+          <t>FDO21132JU9</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3646,25 +3674,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>172.8.144.74</t>
+          <t>172.8.16.75</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Duha</t>
+          <t>Jebal Ali</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>188</v>
+        <v>183.5</v>
       </c>
       <c r="K48" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L48" t="n">
-        <v>89.36</v>
+        <v>94.28</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -3673,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P48" s="2" t="n">
         <v>44417</v>
@@ -3689,146 +3717,6 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>SULY-ELEF-CI-COM-405</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>apic</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>FDO2052228W</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>N9K-C93180YC-EX</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>172.8.144.82</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Jebal Ali</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>199.5</v>
-      </c>
-      <c r="K49" t="n">
-        <v>164.5</v>
-      </c>
-      <c r="L49" t="n">
-        <v>82.45999999999999</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P49" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="Q49" s="2" t="n">
-        <v>45788</v>
-      </c>
-      <c r="R49" s="2" t="n">
-        <v>46630</v>
-      </c>
-      <c r="S49" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="T49" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="U49" s="2" t="n">
-        <v>45785</v>
-      </c>
-      <c r="V49" s="2" t="n">
-        <v>45792</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>SULY-ELEF-CI-COM-318</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>apic</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>FDO21132JU9</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>N9K-C93108TC-EX</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>172.8.16.75</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Jebal Ali</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>193.5</v>
-      </c>
-      <c r="K50" t="n">
-        <v>171</v>
-      </c>
-      <c r="L50" t="n">
-        <v>88.37</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P50" s="2" t="n">
-        <v>44417</v>
-      </c>
-      <c r="Q50" s="2" t="n">
-        <v>44782</v>
-      </c>
-      <c r="R50" s="2" t="n">
-        <v>46630</v>
-      </c>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FAST_BACKEND/device_report.xlsx
+++ b/FAST_BACKEND/device_report.xlsx
@@ -580,13 +580,13 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>203</v>
+        <v>388</v>
       </c>
       <c r="K2" t="n">
-        <v>174.5</v>
+        <v>345</v>
       </c>
       <c r="L2" t="n">
-        <v>85.95999999999999</v>
+        <v>88.92</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -636,13 +636,13 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>386</v>
       </c>
       <c r="K3" t="n">
-        <v>172</v>
+        <v>353</v>
       </c>
       <c r="L3" t="n">
-        <v>86</v>
+        <v>91.45</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -696,13 +696,13 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>387</v>
       </c>
       <c r="K4" t="n">
-        <v>169.5</v>
+        <v>359</v>
       </c>
       <c r="L4" t="n">
-        <v>84.75</v>
+        <v>92.76000000000001</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P4" s="2" t="n">
         <v>43545</v>
@@ -770,13 +770,13 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>198.5</v>
+        <v>391</v>
       </c>
       <c r="K5" t="n">
-        <v>172.5</v>
+        <v>331</v>
       </c>
       <c r="L5" t="n">
-        <v>86.90000000000001</v>
+        <v>84.65000000000001</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P5" s="2" t="n">
         <v>45793</v>
@@ -844,13 +844,13 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>193</v>
+        <v>373</v>
       </c>
       <c r="K6" t="n">
-        <v>177.5</v>
+        <v>351</v>
       </c>
       <c r="L6" t="n">
-        <v>91.97</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P6" s="2" t="n">
         <v>44417</v>
@@ -910,13 +910,13 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>198.5</v>
+        <v>376</v>
       </c>
       <c r="K7" t="n">
-        <v>166.5</v>
+        <v>351</v>
       </c>
       <c r="L7" t="n">
-        <v>83.88</v>
+        <v>93.34999999999999</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P7" s="2" t="n">
         <v>44417</v>
@@ -976,13 +976,13 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>188.5</v>
+        <v>389</v>
       </c>
       <c r="K8" t="n">
-        <v>172</v>
+        <v>327</v>
       </c>
       <c r="L8" t="n">
-        <v>91.25</v>
+        <v>84.06</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>45793</v>
@@ -1050,13 +1050,13 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>197</v>
+        <v>389</v>
       </c>
       <c r="K9" t="n">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="L9" t="n">
-        <v>84.77</v>
+        <v>87.92</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P9" s="2" t="n">
         <v>44417</v>
@@ -1116,13 +1116,13 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>196</v>
+        <v>387</v>
       </c>
       <c r="K10" t="n">
-        <v>174</v>
+        <v>339</v>
       </c>
       <c r="L10" t="n">
-        <v>88.78</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>44417</v>
@@ -1182,13 +1182,13 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>194.5</v>
+        <v>381</v>
       </c>
       <c r="K11" t="n">
-        <v>160.5</v>
+        <v>333</v>
       </c>
       <c r="L11" t="n">
-        <v>82.52</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P11" s="2" t="n">
         <v>44417</v>
@@ -1248,13 +1248,13 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="K12" t="n">
-        <v>174</v>
+        <v>338</v>
       </c>
       <c r="L12" t="n">
-        <v>87.44</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>44417</v>
@@ -1314,13 +1314,13 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>194</v>
+        <v>396</v>
       </c>
       <c r="K13" t="n">
-        <v>168.5</v>
+        <v>336</v>
       </c>
       <c r="L13" t="n">
-        <v>86.86</v>
+        <v>84.84999999999999</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P13" s="2" t="n">
         <v>44417</v>
@@ -1380,13 +1380,13 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>194.5</v>
+        <v>391</v>
       </c>
       <c r="K14" t="n">
-        <v>173</v>
+        <v>330</v>
       </c>
       <c r="L14" t="n">
-        <v>88.95</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>43718</v>
@@ -1446,13 +1446,13 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>199.5</v>
+        <v>390</v>
       </c>
       <c r="K15" t="n">
-        <v>176</v>
+        <v>346</v>
       </c>
       <c r="L15" t="n">
-        <v>88.22</v>
+        <v>88.72</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -1506,13 +1506,13 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>193.5</v>
+        <v>398</v>
       </c>
       <c r="K16" t="n">
-        <v>176.5</v>
+        <v>339</v>
       </c>
       <c r="L16" t="n">
-        <v>91.20999999999999</v>
+        <v>85.18000000000001</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>44417</v>
@@ -1572,13 +1572,13 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>194.5</v>
+        <v>391</v>
       </c>
       <c r="K17" t="n">
-        <v>174</v>
+        <v>348</v>
       </c>
       <c r="L17" t="n">
-        <v>89.45999999999999</v>
+        <v>89</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P17" s="2" t="n">
         <v>45793</v>
@@ -1646,13 +1646,13 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>166.5</v>
+        <v>335</v>
       </c>
       <c r="L18" t="n">
-        <v>88.09999999999999</v>
+        <v>83.75</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>43545</v>
@@ -1720,13 +1720,13 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>185.5</v>
+        <v>397</v>
       </c>
       <c r="K19" t="n">
-        <v>165.5</v>
+        <v>350</v>
       </c>
       <c r="L19" t="n">
-        <v>89.22</v>
+        <v>88.16</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="P19" s="2" t="n">
         <v>44417</v>
@@ -1786,13 +1786,13 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>194.5</v>
+        <v>372</v>
       </c>
       <c r="K20" t="n">
-        <v>164.5</v>
+        <v>344</v>
       </c>
       <c r="L20" t="n">
-        <v>84.58</v>
+        <v>92.47</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>44417</v>
@@ -1852,13 +1852,13 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>195</v>
+        <v>383</v>
       </c>
       <c r="K21" t="n">
-        <v>169</v>
+        <v>337</v>
       </c>
       <c r="L21" t="n">
-        <v>86.67</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P21" s="2" t="n">
         <v>44417</v>
@@ -1918,13 +1918,13 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>183</v>
+        <v>399</v>
       </c>
       <c r="K22" t="n">
-        <v>163.5</v>
+        <v>348</v>
       </c>
       <c r="L22" t="n">
-        <v>89.34</v>
+        <v>87.22</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>44417</v>
@@ -1984,13 +1984,13 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>192</v>
+        <v>389</v>
       </c>
       <c r="K23" t="n">
-        <v>170.5</v>
+        <v>331</v>
       </c>
       <c r="L23" t="n">
-        <v>88.8</v>
+        <v>85.09</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P23" s="2" t="n">
         <v>45793</v>
@@ -2058,13 +2058,13 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>188.5</v>
+        <v>379</v>
       </c>
       <c r="K24" t="n">
-        <v>175.5</v>
+        <v>340</v>
       </c>
       <c r="L24" t="n">
-        <v>93.09999999999999</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
@@ -2118,13 +2118,13 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>188.5</v>
+        <v>396</v>
       </c>
       <c r="K25" t="n">
-        <v>175</v>
+        <v>332</v>
       </c>
       <c r="L25" t="n">
-        <v>92.84</v>
+        <v>83.84</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P25" s="2" t="n">
         <v>45139</v>
@@ -2192,13 +2192,13 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>192</v>
+        <v>373</v>
       </c>
       <c r="K26" t="n">
-        <v>165</v>
+        <v>343</v>
       </c>
       <c r="L26" t="n">
-        <v>85.94</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>44417</v>
@@ -2258,13 +2258,13 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>200</v>
+        <v>384</v>
       </c>
       <c r="K27" t="n">
-        <v>172.5</v>
+        <v>343</v>
       </c>
       <c r="L27" t="n">
-        <v>86.25</v>
+        <v>89.31999999999999</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P27" s="2" t="n">
         <v>44417</v>
@@ -2324,13 +2324,13 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>190.5</v>
+        <v>385</v>
       </c>
       <c r="K28" t="n">
-        <v>170</v>
+        <v>334</v>
       </c>
       <c r="L28" t="n">
-        <v>89.23999999999999</v>
+        <v>86.75</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>44417</v>
@@ -2390,13 +2390,13 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>194</v>
+        <v>365</v>
       </c>
       <c r="K29" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="L29" t="n">
-        <v>87.63</v>
+        <v>95.89</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P29" s="2" t="n">
         <v>44417</v>
@@ -2456,13 +2456,13 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>194.5</v>
+        <v>391</v>
       </c>
       <c r="K30" t="n">
-        <v>168</v>
+        <v>358</v>
       </c>
       <c r="L30" t="n">
-        <v>86.38</v>
+        <v>91.56</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>44417</v>
@@ -2522,13 +2522,13 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>196</v>
+        <v>391</v>
       </c>
       <c r="K31" t="n">
-        <v>169.5</v>
+        <v>338</v>
       </c>
       <c r="L31" t="n">
-        <v>86.48</v>
+        <v>86.45</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P31" s="2" t="n">
         <v>43718</v>
@@ -2588,13 +2588,13 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>193.5</v>
+        <v>384</v>
       </c>
       <c r="K32" t="n">
-        <v>171</v>
+        <v>354</v>
       </c>
       <c r="L32" t="n">
-        <v>88.37</v>
+        <v>92.19</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>44417</v>
@@ -2654,13 +2654,13 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>193.5</v>
+        <v>366</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5</v>
+        <v>337</v>
       </c>
       <c r="L33" t="n">
-        <v>91.73</v>
+        <v>92.08</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P33" s="2" t="n">
         <v>44417</v>
@@ -2720,13 +2720,13 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>188</v>
+        <v>365</v>
       </c>
       <c r="K34" t="n">
-        <v>166</v>
+        <v>346</v>
       </c>
       <c r="L34" t="n">
-        <v>88.3</v>
+        <v>94.79000000000001</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>44417</v>
@@ -2786,13 +2786,13 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>199</v>
+        <v>376</v>
       </c>
       <c r="K35" t="n">
-        <v>172</v>
+        <v>346</v>
       </c>
       <c r="L35" t="n">
-        <v>86.43000000000001</v>
+        <v>92.02</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>45793</v>
@@ -2860,13 +2860,13 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>198.5</v>
+        <v>389</v>
       </c>
       <c r="K36" t="n">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="L36" t="n">
-        <v>88.66</v>
+        <v>87.92</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>45793</v>
@@ -2934,13 +2934,13 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>193</v>
+        <v>403</v>
       </c>
       <c r="K37" t="n">
-        <v>171</v>
+        <v>329</v>
       </c>
       <c r="L37" t="n">
-        <v>88.59999999999999</v>
+        <v>81.64</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P37" s="2" t="n">
         <v>45793</v>
@@ -3008,13 +3008,13 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>195.5</v>
+        <v>381</v>
       </c>
       <c r="K38" t="n">
-        <v>172</v>
+        <v>328</v>
       </c>
       <c r="L38" t="n">
-        <v>87.98</v>
+        <v>86.09</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>44417</v>
@@ -3074,13 +3074,13 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>199</v>
+        <v>381</v>
       </c>
       <c r="K39" t="n">
-        <v>169.5</v>
+        <v>354</v>
       </c>
       <c r="L39" t="n">
-        <v>85.18000000000001</v>
+        <v>92.91</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P39" s="2" t="n">
         <v>44417</v>
@@ -3140,13 +3140,13 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>190</v>
+        <v>395</v>
       </c>
       <c r="K40" t="n">
-        <v>168.5</v>
+        <v>333</v>
       </c>
       <c r="L40" t="n">
-        <v>88.68000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
@@ -3200,13 +3200,13 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>195</v>
+        <v>385</v>
       </c>
       <c r="K41" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="L41" t="n">
-        <v>88.20999999999999</v>
+        <v>87.79000000000001</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P41" s="2" t="n">
         <v>44417</v>
@@ -3266,13 +3266,13 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>194.5</v>
+        <v>374</v>
       </c>
       <c r="K42" t="n">
-        <v>172</v>
+        <v>352</v>
       </c>
       <c r="L42" t="n">
-        <v>88.43000000000001</v>
+        <v>94.12</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P42" s="2" t="n">
         <v>45793</v>
@@ -3340,13 +3340,13 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>192.5</v>
+        <v>400</v>
       </c>
       <c r="K43" t="n">
-        <v>163.5</v>
+        <v>349</v>
       </c>
       <c r="L43" t="n">
-        <v>84.94</v>
+        <v>87.25</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P43" s="2" t="n">
         <v>44417</v>
@@ -3406,13 +3406,13 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>190</v>
+        <v>388</v>
       </c>
       <c r="K44" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="L44" t="n">
-        <v>90.53</v>
+        <v>87.11</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P44" s="2" t="n">
         <v>44252</v>
@@ -3472,13 +3472,13 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>188</v>
+        <v>372</v>
       </c>
       <c r="K45" t="n">
-        <v>163</v>
+        <v>337</v>
       </c>
       <c r="L45" t="n">
-        <v>86.7</v>
+        <v>90.59</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="P45" s="2" t="n">
         <v>45793</v>
@@ -3546,13 +3546,13 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>191.5</v>
+        <v>401</v>
       </c>
       <c r="K46" t="n">
-        <v>177</v>
+        <v>357</v>
       </c>
       <c r="L46" t="n">
-        <v>92.43000000000001</v>
+        <v>89.03</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="P46" s="2" t="n">
         <v>44417</v>
@@ -3612,13 +3612,13 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>184</v>
+        <v>386</v>
       </c>
       <c r="K47" t="n">
-        <v>168</v>
+        <v>344</v>
       </c>
       <c r="L47" t="n">
-        <v>91.3</v>
+        <v>89.12</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="P47" s="2" t="n">
         <v>45793</v>
@@ -3686,13 +3686,13 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>183.5</v>
+        <v>369</v>
       </c>
       <c r="K48" t="n">
-        <v>173</v>
+        <v>339</v>
       </c>
       <c r="L48" t="n">
-        <v>94.28</v>
+        <v>91.87</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -3701,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="P48" s="2" t="n">
         <v>44417</v>

--- a/FAST_BACKEND/device_report.xlsx
+++ b/FAST_BACKEND/device_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,80 +470,85 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>PSU Count</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Stack</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PSU Model</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Total Power Capacity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>PSU Count</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>PSU Model</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Power Output (W)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Power Input (W)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Power Output (W)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Energy Efficiency (%)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Power Consumption Ratio (W/Gbps)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Data Traffic (GB)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Carbon Emission (kgCO₂)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>HW End-of-Life (EoL)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>HW End-of-Support (EoS)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>HW Last Day of Support</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>HW Last Date of RFA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>HW Security Support EoS</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>SW Maintenance EoL</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>SW Vulnerability Support EoS</t>
         </is>
@@ -579,14 +584,12 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>388</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>88.92</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -595,15 +598,18 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
+        <v>39.47</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -635,14 +641,12 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>386</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>91.45</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -651,15 +655,18 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
+        <v>56.28</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -695,14 +702,12 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>387</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>92.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -711,27 +716,30 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
         <v>43545</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="R4" s="2" t="n">
         <v>45708</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="S4" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="T4" s="2" t="n">
         <v>44001</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="U4" s="2" t="n">
         <v>45184</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="V4" s="2" t="n">
         <v>44366</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="W4" s="2" t="n">
         <v>44731</v>
       </c>
     </row>
@@ -769,14 +777,12 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>391</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>84.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -785,27 +791,30 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P5" s="2" t="n">
+        <v>81.38</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="R5" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="S5" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S5" s="2" t="n">
+      <c r="T5" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="U5" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="V5" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="W5" s="2" t="n">
         <v>45792</v>
       </c>
     </row>
@@ -843,14 +852,12 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>373</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>94.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -859,21 +866,24 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P6" s="2" t="n">
+        <v>178.22</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="R6" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="S6" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -909,14 +919,12 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>376</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>93.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -925,21 +933,24 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P7" s="2" t="n">
+        <v>84.81</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="R7" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="S7" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -975,14 +986,12 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>389</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>84.06</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -991,27 +1000,30 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P8" s="2" t="n">
+        <v>120.18</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="R8" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="S8" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="T8" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="U8" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="V8" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="W8" s="2" t="n">
         <v>45792</v>
       </c>
     </row>
@@ -1049,14 +1061,12 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>389</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>87.92</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1065,21 +1075,24 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P9" s="2" t="n">
+        <v>170.45</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q9" s="2" t="n">
+      <c r="R9" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R9" s="2" t="n">
+      <c r="S9" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1115,14 +1128,12 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>387</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>87.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1131,21 +1142,24 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P10" s="2" t="n">
+        <v>149.44</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q10" s="2" t="n">
+      <c r="R10" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R10" s="2" t="n">
+      <c r="S10" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1181,14 +1195,12 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>381</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>87.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1197,21 +1209,24 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P11" s="2" t="n">
+        <v>75.28</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q11" s="2" t="n">
+      <c r="R11" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R11" s="2" t="n">
+      <c r="S11" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1247,14 +1262,12 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>396</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>85.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1263,21 +1276,24 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P12" s="2" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q12" s="2" t="n">
+      <c r="R12" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R12" s="2" t="n">
+      <c r="S12" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1313,14 +1329,12 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>396</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>84.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1329,21 +1343,24 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P13" s="2" t="n">
+        <v>57.68</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q13" s="2" t="n">
+      <c r="R13" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R13" s="2" t="n">
+      <c r="S13" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1379,14 +1396,12 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>391</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>84.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1395,21 +1410,24 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P14" s="2" t="n">
+        <v>102.53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2" t="n">
         <v>43718</v>
       </c>
-      <c r="Q14" s="2" t="n">
+      <c r="R14" s="2" t="n">
         <v>44083</v>
       </c>
-      <c r="R14" s="2" t="n">
+      <c r="S14" s="2" t="n">
         <v>45930</v>
       </c>
-      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1445,14 +1463,12 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>390</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>88.72</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1461,15 +1477,18 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1505,14 +1524,12 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>398</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>85.18000000000001</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1521,21 +1538,24 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P16" s="2" t="n">
+        <v>160.06</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q16" s="2" t="n">
+      <c r="R16" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R16" s="2" t="n">
+      <c r="S16" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1571,14 +1591,12 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>391</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1587,27 +1605,30 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P17" s="2" t="n">
+        <v>59.45</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Q17" s="2" t="n">
+      <c r="R17" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="R17" s="2" t="n">
+      <c r="S17" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S17" s="2" t="n">
+      <c r="T17" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="U17" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="V17" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="W17" s="2" t="n">
         <v>45792</v>
       </c>
     </row>
@@ -1645,14 +1666,12 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>400</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>83.75</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1661,27 +1680,30 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2" t="n">
         <v>43545</v>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="R18" s="2" t="n">
         <v>45708</v>
       </c>
-      <c r="R18" s="2" t="n">
+      <c r="S18" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="T18" s="2" t="n">
         <v>44001</v>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="U18" s="2" t="n">
         <v>45184</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="V18" s="2" t="n">
         <v>44366</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="W18" s="2" t="n">
         <v>44731</v>
       </c>
     </row>
@@ -1719,14 +1741,12 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>397</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>88.16</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1735,21 +1755,24 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P19" s="2" t="n">
+        <v>164.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q19" s="2" t="n">
+      <c r="R19" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R19" s="2" t="n">
+      <c r="S19" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1785,14 +1808,12 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>372</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>92.47</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1801,21 +1822,24 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P20" s="2" t="n">
+        <v>142.46</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q20" s="2" t="n">
+      <c r="R20" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R20" s="2" t="n">
+      <c r="S20" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1851,14 +1875,12 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>383</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>87.98999999999999</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1867,21 +1889,24 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P21" s="2" t="n">
+        <v>46.87</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q21" s="2" t="n">
+      <c r="R21" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R21" s="2" t="n">
+      <c r="S21" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1917,14 +1942,12 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>399</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>87.22</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1933,21 +1956,24 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P22" s="2" t="n">
+        <v>169.18</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q22" s="2" t="n">
+      <c r="R22" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R22" s="2" t="n">
+      <c r="S22" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1983,14 +2009,12 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>389</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>85.09</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1999,27 +2023,30 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P23" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Q23" s="2" t="n">
+      <c r="R23" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="R23" s="2" t="n">
+      <c r="S23" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S23" s="2" t="n">
+      <c r="T23" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="U23" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="V23" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="W23" s="2" t="n">
         <v>45792</v>
       </c>
     </row>
@@ -2057,14 +2084,12 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>379</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>89.70999999999999</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2073,15 +2098,18 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2117,14 +2145,12 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>396</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>83.84</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2133,27 +2159,30 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P25" s="2" t="n">
+        <v>64.16</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="Q25" s="2" t="n">
+      <c r="R25" s="2" t="n">
         <v>45703</v>
       </c>
-      <c r="R25" s="2" t="n">
+      <c r="S25" s="2" t="n">
         <v>47330</v>
       </c>
-      <c r="S25" s="2" t="n">
+      <c r="T25" s="2" t="n">
         <v>45869</v>
       </c>
-      <c r="T25" s="2" t="n">
+      <c r="U25" s="2" t="n">
         <v>47055</v>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="V25" s="2" t="n">
         <v>46599</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="W25" s="2" t="n">
         <v>47330</v>
       </c>
     </row>
@@ -2191,14 +2220,12 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>373</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>91.95999999999999</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2207,21 +2234,24 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q26" s="2" t="n">
+      <c r="R26" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R26" s="2" t="n">
+      <c r="S26" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2257,14 +2287,12 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>384</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>89.31999999999999</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2273,21 +2301,24 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P27" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q27" s="2" t="n">
+      <c r="R27" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R27" s="2" t="n">
+      <c r="S27" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2323,14 +2354,12 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>385</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>86.75</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2339,21 +2368,24 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P28" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q28" s="2" t="n">
+      <c r="R28" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R28" s="2" t="n">
+      <c r="S28" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2389,14 +2421,12 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>365</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>95.89</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2405,21 +2435,24 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P29" s="2" t="n">
+        <v>84.65000000000001</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q29" s="2" t="n">
+      <c r="R29" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R29" s="2" t="n">
+      <c r="S29" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2455,14 +2488,12 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>391</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>91.56</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2471,21 +2502,24 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P30" s="2" t="n">
+        <v>142.95</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q30" s="2" t="n">
+      <c r="R30" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R30" s="2" t="n">
+      <c r="S30" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2521,14 +2555,12 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>391</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>86.45</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2537,21 +2569,24 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P31" s="2" t="n">
+        <v>111.82</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2" t="n">
         <v>43718</v>
       </c>
-      <c r="Q31" s="2" t="n">
+      <c r="R31" s="2" t="n">
         <v>44083</v>
       </c>
-      <c r="R31" s="2" t="n">
+      <c r="S31" s="2" t="n">
         <v>45930</v>
       </c>
-      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2587,14 +2622,12 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>384</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>92.19</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2603,21 +2636,24 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P32" s="2" t="n">
+        <v>184.91</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q32" s="2" t="n">
+      <c r="R32" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R32" s="2" t="n">
+      <c r="S32" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2653,14 +2689,12 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>366</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>92.08</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2669,21 +2703,24 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P33" s="2" t="n">
+        <v>114.39</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q33" s="2" t="n">
+      <c r="R33" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R33" s="2" t="n">
+      <c r="S33" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2719,14 +2756,12 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>365</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>94.79000000000001</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2735,21 +2770,24 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P34" s="2" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q34" s="2" t="n">
+      <c r="R34" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R34" s="2" t="n">
+      <c r="S34" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2785,14 +2823,12 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>376</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>92.02</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -2801,27 +2837,30 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P35" s="2" t="n">
+        <v>181.73</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Q35" s="2" t="n">
+      <c r="R35" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="R35" s="2" t="n">
+      <c r="S35" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S35" s="2" t="n">
+      <c r="T35" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="T35" s="2" t="n">
+      <c r="U35" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="U35" s="2" t="n">
+      <c r="V35" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="W35" s="2" t="n">
         <v>45792</v>
       </c>
     </row>
@@ -2859,14 +2898,12 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>389</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>87.92</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2875,27 +2912,30 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P36" s="2" t="n">
+        <v>76.14</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Q36" s="2" t="n">
+      <c r="R36" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="R36" s="2" t="n">
+      <c r="S36" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S36" s="2" t="n">
+      <c r="T36" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="T36" s="2" t="n">
+      <c r="U36" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="U36" s="2" t="n">
+      <c r="V36" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="V36" s="2" t="n">
+      <c r="W36" s="2" t="n">
         <v>45792</v>
       </c>
     </row>
@@ -2933,14 +2973,12 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>403</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>81.64</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2949,27 +2987,30 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P37" s="2" t="n">
+        <v>174.07</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Q37" s="2" t="n">
+      <c r="R37" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="R37" s="2" t="n">
+      <c r="S37" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S37" s="2" t="n">
+      <c r="T37" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="T37" s="2" t="n">
+      <c r="U37" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="U37" s="2" t="n">
+      <c r="V37" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="W37" s="2" t="n">
         <v>45792</v>
       </c>
     </row>
@@ -3007,14 +3048,12 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>381</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>86.09</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3023,21 +3062,24 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P38" s="2" t="n">
+        <v>102.47</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q38" s="2" t="n">
+      <c r="R38" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R38" s="2" t="n">
+      <c r="S38" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3073,14 +3115,12 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>381</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>92.91</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3089,21 +3129,24 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P39" s="2" t="n">
+        <v>90.42</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q39" s="2" t="n">
+      <c r="R39" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R39" s="2" t="n">
+      <c r="S39" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3139,14 +3182,12 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>395</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>84.3</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3155,15 +3196,18 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3199,14 +3243,12 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>385</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>87.79000000000001</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3215,21 +3257,24 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P41" s="2" t="n">
+        <v>150.87</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q41" s="2" t="n">
+      <c r="R41" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R41" s="2" t="n">
+      <c r="S41" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3265,14 +3310,12 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>374</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>94.12</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -3281,27 +3324,30 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P42" s="2" t="n">
+        <v>169.35</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Q42" s="2" t="n">
+      <c r="R42" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="R42" s="2" t="n">
+      <c r="S42" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S42" s="2" t="n">
+      <c r="T42" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="T42" s="2" t="n">
+      <c r="U42" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="U42" s="2" t="n">
+      <c r="V42" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="V42" s="2" t="n">
+      <c r="W42" s="2" t="n">
         <v>45792</v>
       </c>
     </row>
@@ -3339,14 +3385,12 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>400</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>87.25</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3355,21 +3399,24 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P43" s="2" t="n">
+        <v>161.99</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q43" s="2" t="n">
+      <c r="R43" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R43" s="2" t="n">
+      <c r="S43" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3405,14 +3452,12 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>388</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>87.11</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -3421,21 +3466,24 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P44" s="2" t="n">
+        <v>183.51</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2" t="n">
         <v>44252</v>
       </c>
-      <c r="Q44" s="2" t="n">
+      <c r="R44" s="2" t="n">
         <v>44617</v>
       </c>
-      <c r="R44" s="2" t="n">
+      <c r="S44" s="2" t="n">
         <v>46446</v>
       </c>
-      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3471,14 +3519,12 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>372</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>90.59</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -3487,27 +3533,30 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P45" s="2" t="n">
+        <v>176.25</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Q45" s="2" t="n">
+      <c r="R45" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="R45" s="2" t="n">
+      <c r="S45" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S45" s="2" t="n">
+      <c r="T45" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="T45" s="2" t="n">
+      <c r="U45" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="U45" s="2" t="n">
+      <c r="V45" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="V45" s="2" t="n">
+      <c r="W45" s="2" t="n">
         <v>45792</v>
       </c>
     </row>
@@ -3545,14 +3594,12 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>401</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>89.03</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -3561,21 +3608,24 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P46" s="2" t="n">
+        <v>91.34999999999999</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q46" s="2" t="n">
+      <c r="R46" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R46" s="2" t="n">
+      <c r="S46" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3611,14 +3661,12 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>386</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>89.12</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -3627,27 +3675,30 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P47" s="2" t="n">
+        <v>152.41</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Q47" s="2" t="n">
+      <c r="R47" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="R47" s="2" t="n">
+      <c r="S47" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S47" s="2" t="n">
+      <c r="T47" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="T47" s="2" t="n">
+      <c r="U47" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="U47" s="2" t="n">
+      <c r="V47" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="V47" s="2" t="n">
+      <c r="W47" s="2" t="n">
         <v>45792</v>
       </c>
     </row>
@@ -3685,14 +3736,12 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>369</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>91.87</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -3701,21 +3750,24 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P48" s="2" t="n">
+        <v>97.66</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q48" s="2" t="n">
+      <c r="R48" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="R48" s="2" t="n">
+      <c r="S48" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FAST_BACKEND/device_report.xlsx
+++ b/FAST_BACKEND/device_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,14 +470,14 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Stack</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>PSU Count</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Stack</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>PSU Model</t>
@@ -550,30 +550,30 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>SW Vulnerability Support EoS</t>
+          <t>SW Vulnerability Support EoSError Message</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R_167_SW_02</t>
+          <t>R_384</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ExtremeXOS</t>
+          <t>HuaweiOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>X450a-24tdc</t>
+          <t>S5335-L24T4X-D1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.200.97.71</t>
+          <t>169.254.2.2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -582,26 +582,34 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>715</v>
+      </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>82.43000000000001</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.47</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
@@ -614,7 +622,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R_167_SW_01</t>
+          <t>R_167_SW_02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -630,7 +638,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.200.97.72</t>
+          <t>10.200.97.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -639,26 +647,34 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>715</v>
+      </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>89.03</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>56.28</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -671,27 +687,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SULY-EAPC-CI-COM-003</t>
+          <t>R_383</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>apic</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FCH2052V2HM</t>
-        </is>
-      </c>
+          <t>HuaweiOS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>APIC-SERVER-L2</t>
+          <t>S5335-L24T4X-D1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>172.8.0.3</t>
+          <t>169.254.2.1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -700,17 +712,25 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>715</v>
+      </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>84.28</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -719,54 +739,36 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>43545</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>45708</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>45473</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>44001</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>45184</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>44366</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>44731</v>
-      </c>
+        <v>0.14</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-402</t>
+          <t>R_167_SW_01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>apic</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FDO205209PH</t>
-        </is>
-      </c>
+          <t>ExtremeXOS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N9K-C93180YC-EX</t>
+          <t>X450a-24tdc</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>172.8.144.79</t>
+          <t>10.200.97.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -775,53 +777,47 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>715</v>
+      </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>87.73</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>81.38</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>45788</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>46630</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>45785</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>45792</v>
-      </c>
+        <v>0.14</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-431</t>
+          <t>SULY-EAPC-CI-COM-003</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -831,17 +827,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FDO204813YQ</t>
+          <t>FCH2052V2HM</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>APIC-SERVER-L2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>172.8.16.77</t>
+          <t>172.8.0.3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -850,45 +846,59 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>715</v>
+      </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>88.22</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>178.22</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>44417</v>
+        <v>43545</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>44782</v>
+        <v>45708</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>46630</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+        <v>45473</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>44001</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>44366</v>
+      </c>
       <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-314</t>
+          <t>SULY-ELEF-CI-COM-402</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -898,17 +908,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FDO21142F3D</t>
+          <t>FDO205209PH</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C93180YC-EX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>172.8.144.91</t>
+          <t>172.8.144.79</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -917,45 +927,59 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>715</v>
+      </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>84.81</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>44417</v>
+        <v>45793</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>44782</v>
+        <v>45788</v>
       </c>
       <c r="S7" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+      <c r="T7" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>45785</v>
+      </c>
       <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-426</t>
+          <t>SULY-ELEF-CI-COM-431</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -965,17 +989,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FDO21150F8Z</t>
+          <t>FDO204813YQ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>N9K-C93180YC-EX</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>172.8.144.71</t>
+          <t>172.8.16.77</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -984,53 +1008,53 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>715</v>
+      </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>120.18</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>45793</v>
+        <v>44417</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>45788</v>
+        <v>44782</v>
       </c>
       <c r="S8" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T8" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="U8" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="V8" s="2" t="n">
-        <v>45785</v>
-      </c>
-      <c r="W8" s="2" t="n">
-        <v>45792</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-309</t>
+          <t>SULY-ELEF-CI-COM-314</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1040,7 +1064,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FDO21142F2K</t>
+          <t>FDO21142F3D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1050,7 +1074,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>172.8.16.69</t>
+          <t>172.8.144.91</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1059,26 +1083,34 @@
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>715</v>
+      </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>93.75</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>170.45</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q9" s="2" t="n">
         <v>44417</v>
@@ -1097,7 +1129,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-311</t>
+          <t>SULY-ELEF-CI-COM-426</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1107,17 +1139,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FDO21141MXL</t>
+          <t>FDO21150F8Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C93180YC-EX</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>172.8.16.70</t>
+          <t>172.8.144.71</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1126,45 +1158,59 @@
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>715</v>
+      </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>87.7</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>149.44</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>44417</v>
+        <v>45793</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>44782</v>
+        <v>45788</v>
       </c>
       <c r="S10" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+      <c r="T10" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="V10" s="2" t="n">
+        <v>45785</v>
+      </c>
       <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-429</t>
+          <t>SULY-ELEF-CI-COM-309</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1174,7 +1220,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FDO204813ZF</t>
+          <t>FDO21142F2K</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1184,7 +1230,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>172.8.16.66</t>
+          <t>172.8.16.69</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1193,26 +1239,34 @@
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>715</v>
+      </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>83.84</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>75.28</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="Q11" s="2" t="n">
         <v>44417</v>
@@ -1231,7 +1285,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-307</t>
+          <t>SULY-ELEF-CI-COM-311</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1241,7 +1295,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FDO21140B30</t>
+          <t>FDO21141MXL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1251,7 +1305,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>172.8.16.67</t>
+          <t>172.8.16.70</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1260,26 +1314,34 @@
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>715</v>
+      </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>86.42</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>66.59</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q12" s="2" t="n">
         <v>44417</v>
@@ -1298,7 +1360,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-423</t>
+          <t>SULY-ELEF-CI-COM-429</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1308,7 +1370,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FDO21142F55</t>
+          <t>FDO204813ZF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1318,35 +1380,43 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>172.8.144.75</t>
+          <t>172.8.16.66</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Jebal Ali</t>
+          <t>SULAY</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>715</v>
+      </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>88.48</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>57.68</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q13" s="2" t="n">
         <v>44417</v>
@@ -1365,7 +1435,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-447</t>
+          <t>SULY-ELEF-CI-COM-307</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1375,54 +1445,62 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FDO264407ZZ</t>
+          <t>FDO21140B30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>N9K-C93360YC-FX2</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>172.8.16.80</t>
+          <t>172.8.16.67</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Jebal Ali</t>
+          <t>SULAY</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>715</v>
+      </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>86.81</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>102.53</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>43718</v>
+        <v>44417</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>44083</v>
+        <v>44782</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>45930</v>
+        <v>46630</v>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
@@ -1432,27 +1510,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SULY-ESPN-CI-COM-104</t>
+          <t>SULY-ELEF-CI-COM-423</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>apic</t>
+          <t>cisco_nxos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FOX2049GGYK</t>
+          <t>FDO21142F55</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>N9K-C9504</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>172.8.144.68</t>
+          <t>172.8.144.75</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1461,17 +1539,25 @@
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>715</v>
+      </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>85.93000000000001</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1480,11 +1566,17 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+        <v>0.14</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>44417</v>
+      </c>
+      <c r="R15" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="S15" s="2" t="n">
+        <v>46630</v>
+      </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -1493,7 +1585,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-418</t>
+          <t>SULY-ELEF-CI-COM-447</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1503,17 +1595,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FDO21140JUT</t>
+          <t>FDO264407ZZ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C93360YC-FX2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>172.8.144.88</t>
+          <t>172.8.16.80</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1522,35 +1614,43 @@
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>715</v>
+      </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>89.47</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>160.06</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>44417</v>
+        <v>43718</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>44782</v>
+        <v>44083</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>46630</v>
+        <v>45930</v>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
@@ -1560,7 +1660,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-301</t>
+          <t>SULY-ESPN-CI-COM-104</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1570,17 +1670,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FDO20531JSF</t>
+          <t>FOX2049GGYK</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N9K-C93180YC-EX</t>
+          <t>N9K-C9504</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>172.8.160.69</t>
+          <t>172.8.144.68</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1589,73 +1689,67 @@
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>715</v>
+      </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>87.76000000000001</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>59.45</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="R17" s="2" t="n">
-        <v>45788</v>
-      </c>
-      <c r="S17" s="2" t="n">
-        <v>46630</v>
-      </c>
-      <c r="T17" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="U17" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="V17" s="2" t="n">
-        <v>45785</v>
-      </c>
-      <c r="W17" s="2" t="n">
-        <v>45792</v>
-      </c>
+        <v>0.14</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SULY-EAPC-CI-COM-002</t>
+          <t>SULY-ELEF-CI-COM-418</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cisco_ios</t>
+          <t>apic</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FCH2052V2FU</t>
+          <t>FDO21140JUT</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>APIC-SERVER-L2</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>172.8.0.2</t>
+          <t>172.8.144.88</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1664,17 +1758,25 @@
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>715</v>
+      </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>85.12</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1683,34 +1785,26 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>43545</v>
+        <v>44417</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>45708</v>
+        <v>44782</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>45473</v>
-      </c>
-      <c r="T18" s="2" t="n">
-        <v>44001</v>
-      </c>
-      <c r="U18" s="2" t="n">
-        <v>45184</v>
-      </c>
-      <c r="V18" s="2" t="n">
-        <v>44366</v>
-      </c>
-      <c r="W18" s="2" t="n">
-        <v>44731</v>
-      </c>
+        <v>46630</v>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-432</t>
+          <t>SULY-ELEF-CI-COM-301</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1720,131 +1814,159 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FDO21190NND</t>
+          <t>FDO20531JSF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C93180YC-EX</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>172.8.160.75</t>
+          <t>172.8.160.69</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SULAY</t>
+          <t>Jebal Ali</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>715</v>
+      </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>86.48</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>164.4</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>44417</v>
+        <v>45793</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>44782</v>
+        <v>45788</v>
       </c>
       <c r="S19" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
+      <c r="T19" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="U19" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="V19" s="2" t="n">
+        <v>45785</v>
+      </c>
       <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-315</t>
+          <t>SULY-EAPC-CI-COM-002</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>apic</t>
+          <t>cisco_ios</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FDO21190NLC</t>
+          <t>FCH2052V2FU</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>APIC-SERVER-L2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>172.8.160.76</t>
+          <t>10.64.252.68</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SULAY</t>
+          <t>Jebal Ali</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>715</v>
+      </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>94.67</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>142.46</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>44417</v>
+        <v>43545</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>44782</v>
+        <v>45708</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>46630</v>
-      </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
+        <v>45473</v>
+      </c>
+      <c r="T20" s="2" t="n">
+        <v>44001</v>
+      </c>
+      <c r="U20" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>44366</v>
+      </c>
       <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-403</t>
+          <t>SULY-ELEF-CI-COM-432</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1854,7 +1976,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FDO204813ZE</t>
+          <t>FDO21190NND</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1864,7 +1986,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>172.8.144.77</t>
+          <t>172.8.160.75</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1873,26 +1995,34 @@
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>715</v>
+      </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>89.3</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>46.87</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q21" s="2" t="n">
         <v>44417</v>
@@ -1911,7 +2041,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-304</t>
+          <t>SULY-ELEF-CI-COM-315</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1921,7 +2051,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FDO2043157K</t>
+          <t>FDO21190NLC</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1931,7 +2061,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>172.8.144.81</t>
+          <t>172.8.160.76</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1940,26 +2070,34 @@
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>715</v>
+      </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>87.79000000000001</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>169.18</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q22" s="2" t="n">
         <v>44417</v>
@@ -1978,27 +2116,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-415</t>
+          <t>SULY-ELEF-CI-COM-403</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cisco_ios</t>
+          <t>apic</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FDO21153153</t>
+          <t>FDO204813ZE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>N9K-C93180YC-EX</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>172.8.160.70</t>
+          <t>172.8.144.77</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2007,53 +2145,53 @@
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>715</v>
+      </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>88.05</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>45793</v>
+        <v>44417</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>45788</v>
+        <v>44782</v>
       </c>
       <c r="S23" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T23" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="U23" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="V23" s="2" t="n">
-        <v>45785</v>
-      </c>
-      <c r="W23" s="2" t="n">
-        <v>45792</v>
-      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SULY-ESPN-CI-COM-102</t>
+          <t>SULY-ELEF-CI-COM-304</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2063,36 +2201,44 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FOX2049GGYF</t>
+          <t>FDO2043157K</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>N9K-C9504</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>172.8.144.67</t>
+          <t>172.8.144.81</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Jebal Ali</t>
+          <t>SULAY</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>715</v>
+      </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2101,11 +2247,17 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
+        <v>0.13</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>44417</v>
+      </c>
+      <c r="R24" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="S24" s="2" t="n">
+        <v>46630</v>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -2114,82 +2266,88 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-444</t>
+          <t>SULY-ELEF-CI-COM-415</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>apic</t>
+          <t>cisco_ios</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FDO25300JFD</t>
+          <t>FDO21153153</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-FX</t>
+          <t>N9K-C93180YC-EX</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>172.8.160.68</t>
+          <t>172.8.160.70</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Jebal Ali</t>
+          <t>SULAY</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>715</v>
+      </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>86.09</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>64.16</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>45139</v>
+        <v>45793</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>45703</v>
+        <v>45788</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>47330</v>
+        <v>46630</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>45869</v>
+        <v>45793</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>47055</v>
+        <v>45794</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>46599</v>
-      </c>
-      <c r="W25" s="2" t="n">
-        <v>47330</v>
-      </c>
+        <v>45785</v>
+      </c>
+      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-303</t>
+          <t>SULY-ESPN-CI-COM-102</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2199,17 +2357,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FDO20460EKD</t>
+          <t>FOX2049GGYF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C9504</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>172.8.144.69</t>
+          <t>172.8.144.67</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2218,17 +2376,25 @@
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>715</v>
+      </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.26000000000001</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2237,17 +2403,11 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="2" t="n">
-        <v>44417</v>
-      </c>
-      <c r="R26" s="2" t="n">
-        <v>44782</v>
-      </c>
-      <c r="S26" s="2" t="n">
-        <v>46630</v>
-      </c>
+        <v>0.14</v>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -2256,7 +2416,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-420</t>
+          <t>SULY-ELEF-CI-COM-303</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2266,7 +2426,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FDO21141MUY</t>
+          <t>FDO20460EKD</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2276,7 +2436,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>172.8.160.73</t>
+          <t>172.8.144.69</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2285,26 +2445,34 @@
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>715</v>
+      </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>90.56999999999999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q27" s="2" t="n">
         <v>44417</v>
@@ -2323,7 +2491,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-430</t>
+          <t>SULY-ELEF-CI-COM-420</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2333,7 +2501,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FDO211325Q9</t>
+          <t>FDO21141MUY</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2343,7 +2511,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>172.8.144.86</t>
+          <t>172.8.160.73</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2352,26 +2520,34 @@
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>715</v>
+      </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q28" s="2" t="n">
         <v>44417</v>
@@ -2390,7 +2566,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-312</t>
+          <t>SULY-ELEF-CI-COM-430</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2400,7 +2576,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FDO211311DA</t>
+          <t>FDO211325Q9</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2410,7 +2586,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>172.8.16.72</t>
+          <t>172.8.144.86</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2419,26 +2595,34 @@
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>715</v>
+      </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>397</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>85.89</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>84.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q29" s="2" t="n">
         <v>44417</v>
@@ -2457,7 +2641,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-412</t>
+          <t>SULY-ELEF-CI-COM-312</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2467,7 +2651,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FDO21142F5G</t>
+          <t>FDO211311DA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2477,7 +2661,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>172.8.16.74</t>
+          <t>172.8.16.72</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2486,26 +2670,34 @@
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>715</v>
+      </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>89.12</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>142.95</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q30" s="2" t="n">
         <v>44417</v>
@@ -2524,7 +2716,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-446</t>
+          <t>SULY-ELEF-CI-COM-412</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2534,17 +2726,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>FDO264407XL</t>
+          <t>FDO21142F5G</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>N9K-C93360YC-FX2</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>172.8.144.80</t>
+          <t>172.8.16.74</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2553,35 +2745,43 @@
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>715</v>
+      </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>89.20999999999999</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>111.82</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>43718</v>
+        <v>44417</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>44083</v>
+        <v>44782</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>45930</v>
+        <v>46630</v>
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
@@ -2591,7 +2791,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-417</t>
+          <t>SULY-ELEF-CI-COM-446</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2601,17 +2801,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FDO21140JXA</t>
+          <t>FDO264407XL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C93360YC-FX2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>172.8.160.71</t>
+          <t>172.8.144.80</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2620,35 +2820,43 @@
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>715</v>
+      </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>184.91</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>44417</v>
+        <v>43718</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>44782</v>
+        <v>44083</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>46630</v>
+        <v>45930</v>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2658,7 +2866,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-308</t>
+          <t>SULY-ELEF-CI-COM-417</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2668,7 +2876,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FDO21142F0S</t>
+          <t>FDO21140JXA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2678,7 +2886,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>172.8.16.68</t>
+          <t>172.8.160.71</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2687,26 +2895,34 @@
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>715</v>
+      </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>82.95</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>114.39</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="Q33" s="2" t="n">
         <v>44417</v>
@@ -2725,7 +2941,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-424</t>
+          <t>SULY-ELEF-CI-COM-308</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2735,7 +2951,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>FDO21142F2V</t>
+          <t>FDO21142F0S</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2745,35 +2961,43 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>172.8.160.74</t>
+          <t>172.8.16.68</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Duha</t>
+          <t>Jebal Ali</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>715</v>
+      </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>92.91</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>41.7</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q34" s="2" t="n">
         <v>44417</v>
@@ -2792,7 +3016,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-427</t>
+          <t>SULY-ELEF-CI-COM-424</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2802,72 +3026,72 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FDO21160ZYT</t>
+          <t>FDO21142F2V</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>N9K-C93180YC-EX</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>172.8.144.73</t>
+          <t>172.8.160.74</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Jebal Ali</t>
+          <t>Duha</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>715</v>
+      </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>93.87</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>181.73</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>45793</v>
+        <v>44417</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>45788</v>
+        <v>44782</v>
       </c>
       <c r="S35" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T35" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="U35" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="V35" s="2" t="n">
-        <v>45785</v>
-      </c>
-      <c r="W35" s="2" t="n">
-        <v>45792</v>
-      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SULY-ESLR-CI-COM-201</t>
+          <t>SULY-ELEF-CI-COM-427</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2877,7 +3101,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FDO21160ZVE</t>
+          <t>FDO21160ZYT</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2887,7 +3111,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>172.8.144.72</t>
+          <t>172.8.144.73</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2896,26 +3120,34 @@
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>715</v>
+      </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>88.86</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>76.14</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q36" s="2" t="n">
         <v>45793</v>
@@ -2935,14 +3167,12 @@
       <c r="V36" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W36" s="2" t="n">
-        <v>45792</v>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-409</t>
+          <t>SULY-ESLR-CI-COM-201</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2952,7 +3182,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>FDO211531A3</t>
+          <t>FDO21160ZVE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2962,7 +3192,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>172.8.160.64</t>
+          <t>172.8.144.72</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2971,26 +3201,34 @@
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>715</v>
+      </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>174.07</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q37" s="2" t="n">
         <v>45793</v>
@@ -3010,14 +3248,12 @@
       <c r="V37" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W37" s="2" t="n">
-        <v>45792</v>
-      </c>
+      <c r="W37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-438</t>
+          <t>SULY-ELEF-CI-COM-409</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3027,17 +3263,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FDO20481405</t>
+          <t>FDO211531A3</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C93180YC-EX</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>172.8.16.87</t>
+          <t>172.8.160.64</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3046,45 +3282,59 @@
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>715</v>
+      </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>92.15000000000001</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>102.47</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>44417</v>
+        <v>45793</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>44782</v>
+        <v>45788</v>
       </c>
       <c r="S38" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="T38" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="U38" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="V38" s="2" t="n">
+        <v>45785</v>
+      </c>
       <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-443</t>
+          <t>SULY-ELEF-CI-COM-438</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3094,7 +3344,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FDO21140JVX</t>
+          <t>FDO20481405</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3104,7 +3354,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>172.8.16.88</t>
+          <t>172.8.16.87</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3113,26 +3363,34 @@
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>715</v>
+      </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>88.25</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>90.42</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q39" s="2" t="n">
         <v>44417</v>
@@ -3151,7 +3409,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SULY-ESPN-CI-COM-101</t>
+          <t>SULY-ELEF-CI-COM-443</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3161,17 +3419,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>FOX2049G2YX</t>
+          <t>FDO21140JVX</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>N9K-C9504</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>172.8.144.65</t>
+          <t>172.8.16.88</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3180,17 +3438,25 @@
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>715</v>
+      </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>88.34</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3199,11 +3465,17 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+        <v>0.14</v>
+      </c>
+      <c r="Q40" s="2" t="n">
+        <v>44417</v>
+      </c>
+      <c r="R40" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="S40" s="2" t="n">
+        <v>46630</v>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -3212,7 +3484,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-411</t>
+          <t>SULY-ESPN-CI-COM-101</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3222,17 +3494,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FDO21142F5K</t>
+          <t>FOX2049G2YX</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C9504</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>172.8.16.73</t>
+          <t>172.8.144.65</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3241,36 +3513,38 @@
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>715</v>
+      </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>150.87</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="2" t="n">
-        <v>44417</v>
-      </c>
-      <c r="R41" s="2" t="n">
-        <v>44782</v>
-      </c>
-      <c r="S41" s="2" t="n">
-        <v>46630</v>
-      </c>
+        <v>0.14</v>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -3279,7 +3553,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-319</t>
+          <t>SULY-ELEF-CI-COM-411</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3289,72 +3563,72 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FDO21162J2G</t>
+          <t>FDO21142F5K</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>N9K-C93180YC-EX</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>172.8.16.65</t>
+          <t>172.8.16.73</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Duha</t>
+          <t>Jebal Ali</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>715</v>
+      </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>89.45</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>169.35</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>45793</v>
+        <v>44417</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>45788</v>
+        <v>44782</v>
       </c>
       <c r="S42" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T42" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="U42" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="V42" s="2" t="n">
-        <v>45785</v>
-      </c>
-      <c r="W42" s="2" t="n">
-        <v>45792</v>
-      </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-305</t>
+          <t>SULY-ELEF-CI-COM-319</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3364,17 +3638,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>FDO21140JYA</t>
+          <t>FDO21162J2G</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C93180YC-EX</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>172.8.160.72</t>
+          <t>172.8.16.65</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3383,65 +3657,79 @@
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>715</v>
+      </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>88.14</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>161.99</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>44417</v>
+        <v>45793</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>44782</v>
+        <v>45788</v>
       </c>
       <c r="S43" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
+      <c r="T43" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="U43" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="V43" s="2" t="n">
+        <v>45785</v>
+      </c>
       <c r="W43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-448</t>
+          <t>SULY-ELEF-CI-COM-305</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cisco_nxos</t>
+          <t>apic</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FDO26250DWB</t>
+          <t>FDO21140JYA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>N9K-C9336C-FX2</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>172.8.144.78</t>
+          <t>172.8.160.72</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3450,35 +3738,43 @@
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>715</v>
+      </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>84.65000000000001</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>183.51</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>44252</v>
+        <v>44417</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>44617</v>
+        <v>44782</v>
       </c>
       <c r="S44" s="2" t="n">
-        <v>46446</v>
+        <v>46630</v>
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
@@ -3488,7 +3784,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-302</t>
+          <t>SULY-ELEF-CI-COM-448</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3498,17 +3794,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>FDO2053179K</t>
+          <t>FDO26250DWB</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>N9K-C93180YC-EX</t>
+          <t>N9K-C9336C-FX2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>172.8.144.83</t>
+          <t>172.8.144.78</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3517,53 +3813,53 @@
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>715</v>
+      </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>94.89</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>176.25</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>45793</v>
+        <v>44252</v>
       </c>
       <c r="R45" s="2" t="n">
-        <v>45788</v>
+        <v>44617</v>
       </c>
       <c r="S45" s="2" t="n">
-        <v>46630</v>
-      </c>
-      <c r="T45" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="U45" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="V45" s="2" t="n">
-        <v>45785</v>
-      </c>
-      <c r="W45" s="2" t="n">
-        <v>45792</v>
-      </c>
+        <v>46446</v>
+      </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-419</t>
+          <t>SULY-ELEF-CI-COM-302</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3573,17 +3869,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>FDO211325NQ</t>
+          <t>FDO2053179K</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C93180YC-EX</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>172.8.144.74</t>
+          <t>172.8.144.83</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3592,120 +3888,134 @@
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>715</v>
+      </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>93.19</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>91.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>44417</v>
+        <v>45793</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>44782</v>
+        <v>45788</v>
       </c>
       <c r="S46" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
+      <c r="T46" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="U46" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="V46" s="2" t="n">
+        <v>45785</v>
+      </c>
       <c r="W46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-405</t>
+          <t>SULY-ELEF-CI-COM-419</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>apic</t>
+          <t>cisco_nxos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>FDO2052228W</t>
+          <t>FDO211325NQ</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>N9K-C93180YC-EX</t>
+          <t>N9K-C93108TC-EX</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>172.8.144.82</t>
+          <t>172.8.144.74</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Jebal Ali</t>
+          <t>Duha</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>715</v>
+      </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>90.16</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>152.41</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>45793</v>
+        <v>44417</v>
       </c>
       <c r="R47" s="2" t="n">
-        <v>45788</v>
+        <v>44782</v>
       </c>
       <c r="S47" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T47" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="U47" s="2" t="n">
-        <v>45794</v>
-      </c>
-      <c r="V47" s="2" t="n">
-        <v>45785</v>
-      </c>
-      <c r="W47" s="2" t="n">
-        <v>45792</v>
-      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SULY-ELEF-CI-COM-318</t>
+          <t>SULY-ELEF-CI-COM-405</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3715,17 +4025,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>FDO21132JU9</t>
+          <t>FDO2052228W</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>N9K-C93108TC-EX</t>
+          <t>N9K-C93180YC-EX</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>172.8.16.75</t>
+          <t>172.8.144.82</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3734,40 +4044,129 @@
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>715</v>
+      </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>83.67</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>97.66</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>44417</v>
+        <v>45793</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>44782</v>
+        <v>45788</v>
       </c>
       <c r="S48" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="T48" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="U48" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="V48" s="2" t="n">
+        <v>45785</v>
+      </c>
       <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SULY-ELEF-CI-COM-318</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>apic</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>FDO21132JU9</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>N9K-C93108TC-EX</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>172.8.16.75</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Jebal Ali</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>pkw-sdldf-715k</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>715</v>
+      </c>
+      <c r="K49" t="n">
+        <v>330</v>
+      </c>
+      <c r="L49" t="n">
+        <v>374</v>
+      </c>
+      <c r="M49" t="n">
+        <v>88.23999999999999</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q49" s="2" t="n">
+        <v>44417</v>
+      </c>
+      <c r="R49" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="S49" s="2" t="n">
+        <v>46630</v>
+      </c>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FAST_BACKEND/device_report.xlsx
+++ b/FAST_BACKEND/device_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,12 +505,12 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Power Consumption Ratio (W/Gbps)</t>
+          <t>Power Consumption Ratio (W/Mbps)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Data Traffic (GB)</t>
+          <t>Data Traffic (MBs)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -550,7 +550,12 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>SW Vulnerability Support EoSError Message</t>
+          <t>SW Vulnerability Support EoS</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Error Message</t>
         </is>
       </c>
     </row>
@@ -581,7 +586,9 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
@@ -594,13 +601,13 @@
         <v>715</v>
       </c>
       <c r="K2" t="n">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="L2" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M2" t="n">
-        <v>82.43000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -618,6 +625,11 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -646,7 +658,9 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
@@ -659,13 +673,13 @@
         <v>715</v>
       </c>
       <c r="K3" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="L3" t="n">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="M3" t="n">
-        <v>89.03</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -683,6 +697,11 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -711,7 +730,9 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
@@ -724,13 +745,13 @@
         <v>715</v>
       </c>
       <c r="K4" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L4" t="n">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="M4" t="n">
-        <v>84.28</v>
+        <v>86.5</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -748,6 +769,11 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -776,7 +802,9 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
@@ -789,13 +817,13 @@
         <v>715</v>
       </c>
       <c r="K5" t="n">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L5" t="n">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="M5" t="n">
-        <v>87.73</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -813,6 +841,11 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -845,7 +878,9 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
@@ -858,13 +893,13 @@
         <v>715</v>
       </c>
       <c r="K6" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L6" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M6" t="n">
-        <v>88.22</v>
+        <v>87.66</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -873,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="Q6" s="2" t="n">
         <v>43545</v>
@@ -893,7 +928,14 @@
       <c r="V6" s="2" t="n">
         <v>44366</v>
       </c>
-      <c r="W6" t="inlineStr"/>
+      <c r="W6" s="2" t="n">
+        <v>44731</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -926,7 +968,9 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
@@ -939,13 +983,13 @@
         <v>715</v>
       </c>
       <c r="K7" t="n">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="L7" t="n">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="M7" t="n">
-        <v>86.59999999999999</v>
+        <v>95.91</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -974,7 +1018,14 @@
       <c r="V7" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W7" t="inlineStr"/>
+      <c r="W7" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1007,7 +1058,9 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
@@ -1020,13 +1073,13 @@
         <v>715</v>
       </c>
       <c r="K8" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L8" t="n">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M8" t="n">
-        <v>90.26000000000001</v>
+        <v>91.93000000000001</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1050,6 +1103,11 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1082,7 +1140,9 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
@@ -1095,13 +1155,13 @@
         <v>715</v>
       </c>
       <c r="K9" t="n">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="L9" t="n">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="M9" t="n">
-        <v>93.75</v>
+        <v>86.22</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1125,6 +1185,11 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1157,7 +1222,9 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
@@ -1170,13 +1237,13 @@
         <v>715</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="L10" t="n">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="M10" t="n">
-        <v>87.7</v>
+        <v>98.61</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1205,7 +1272,14 @@
       <c r="V10" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1238,7 +1312,9 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
@@ -1251,13 +1327,13 @@
         <v>715</v>
       </c>
       <c r="K11" t="n">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="L11" t="n">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="M11" t="n">
-        <v>83.84</v>
+        <v>89.43000000000001</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1266,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="Q11" s="2" t="n">
         <v>44417</v>
@@ -1281,6 +1357,11 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1313,7 +1394,9 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
@@ -1326,13 +1409,13 @@
         <v>715</v>
       </c>
       <c r="K12" t="n">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="L12" t="n">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="M12" t="n">
-        <v>86.42</v>
+        <v>87.08</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1356,6 +1439,11 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1388,7 +1476,9 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
@@ -1401,13 +1491,13 @@
         <v>715</v>
       </c>
       <c r="K13" t="n">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L13" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M13" t="n">
-        <v>88.48</v>
+        <v>86.34999999999999</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1416,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="Q13" s="2" t="n">
         <v>44417</v>
@@ -1431,6 +1521,11 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1463,7 +1558,9 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
@@ -1476,13 +1573,13 @@
         <v>715</v>
       </c>
       <c r="K14" t="n">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="L14" t="n">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="M14" t="n">
-        <v>86.81</v>
+        <v>86.52</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1491,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="Q14" s="2" t="n">
         <v>44417</v>
@@ -1506,6 +1603,11 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1538,7 +1640,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
@@ -1551,13 +1655,13 @@
         <v>715</v>
       </c>
       <c r="K15" t="n">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="L15" t="n">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M15" t="n">
-        <v>85.93000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1566,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="Q15" s="2" t="n">
         <v>44417</v>
@@ -1581,6 +1685,11 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1613,7 +1722,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
@@ -1626,13 +1737,13 @@
         <v>715</v>
       </c>
       <c r="K16" t="n">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="L16" t="n">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="M16" t="n">
-        <v>89.47</v>
+        <v>95.92</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1656,6 +1767,11 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1688,7 +1804,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
@@ -1701,13 +1819,13 @@
         <v>715</v>
       </c>
       <c r="K17" t="n">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="L17" t="n">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="M17" t="n">
-        <v>87.76000000000001</v>
+        <v>87.11</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1716,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -1725,6 +1843,11 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1757,7 +1880,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
@@ -1770,13 +1895,13 @@
         <v>715</v>
       </c>
       <c r="K18" t="n">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L18" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M18" t="n">
-        <v>85.12</v>
+        <v>84.16</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1800,6 +1925,11 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1832,7 +1962,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
       <c r="H19" t="n">
         <v>1</v>
       </c>
@@ -1845,13 +1977,13 @@
         <v>715</v>
       </c>
       <c r="K19" t="n">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="L19" t="n">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="M19" t="n">
-        <v>86.48</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1860,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="Q19" s="2" t="n">
         <v>45793</v>
@@ -1880,7 +2012,14 @@
       <c r="V19" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W19" t="inlineStr"/>
+      <c r="W19" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1913,7 +2052,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
@@ -1926,13 +2067,13 @@
         <v>715</v>
       </c>
       <c r="K20" t="n">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="L20" t="n">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="M20" t="n">
-        <v>94.67</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1961,7 +2102,14 @@
       <c r="V20" s="2" t="n">
         <v>44366</v>
       </c>
-      <c r="W20" t="inlineStr"/>
+      <c r="W20" s="2" t="n">
+        <v>44731</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1994,7 +2142,9 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
@@ -2007,13 +2157,13 @@
         <v>715</v>
       </c>
       <c r="K21" t="n">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="L21" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="M21" t="n">
-        <v>89.3</v>
+        <v>92.33</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2037,6 +2187,11 @@
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2069,7 +2224,9 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
@@ -2082,13 +2239,13 @@
         <v>715</v>
       </c>
       <c r="K22" t="n">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="L22" t="n">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="M22" t="n">
-        <v>87.79000000000001</v>
+        <v>90.48999999999999</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2097,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="Q22" s="2" t="n">
         <v>44417</v>
@@ -2112,6 +2269,11 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2144,7 +2306,9 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
@@ -2157,13 +2321,13 @@
         <v>715</v>
       </c>
       <c r="K23" t="n">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L23" t="n">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="M23" t="n">
-        <v>88.05</v>
+        <v>91.03</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2187,6 +2351,11 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2219,7 +2388,9 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
       <c r="H24" t="n">
         <v>1</v>
       </c>
@@ -2232,13 +2403,13 @@
         <v>715</v>
       </c>
       <c r="K24" t="n">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L24" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M24" t="n">
-        <v>85.01000000000001</v>
+        <v>87.66</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2262,6 +2433,11 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2294,7 +2470,9 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
@@ -2307,13 +2485,13 @@
         <v>715</v>
       </c>
       <c r="K25" t="n">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L25" t="n">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="M25" t="n">
-        <v>86.09</v>
+        <v>82.91</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2342,7 +2520,14 @@
       <c r="V25" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W25" t="inlineStr"/>
+      <c r="W25" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2375,7 +2560,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
       <c r="H26" t="n">
         <v>1</v>
       </c>
@@ -2388,13 +2575,13 @@
         <v>715</v>
       </c>
       <c r="K26" t="n">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="L26" t="n">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="M26" t="n">
-        <v>93.26000000000001</v>
+        <v>91.41</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2412,6 +2599,11 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2444,7 +2636,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
@@ -2457,13 +2651,13 @@
         <v>715</v>
       </c>
       <c r="K27" t="n">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="L27" t="n">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="M27" t="n">
-        <v>90.56999999999999</v>
+        <v>85.61</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2487,6 +2681,11 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2519,7 +2718,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
@@ -2532,13 +2733,13 @@
         <v>715</v>
       </c>
       <c r="K28" t="n">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="L28" t="n">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="M28" t="n">
-        <v>90.73999999999999</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2547,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="Q28" s="2" t="n">
         <v>44417</v>
@@ -2562,6 +2763,11 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2594,7 +2800,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
@@ -2610,10 +2818,10 @@
         <v>341</v>
       </c>
       <c r="L29" t="n">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="M29" t="n">
-        <v>85.89</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2637,6 +2845,11 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2669,7 +2882,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
       <c r="H30" t="n">
         <v>1</v>
       </c>
@@ -2682,13 +2897,13 @@
         <v>715</v>
       </c>
       <c r="K30" t="n">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="L30" t="n">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="M30" t="n">
-        <v>89.12</v>
+        <v>87.83</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2697,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="Q30" s="2" t="n">
         <v>44417</v>
@@ -2712,6 +2927,11 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2744,7 +2964,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
       <c r="H31" t="n">
         <v>1</v>
       </c>
@@ -2760,10 +2982,10 @@
         <v>339</v>
       </c>
       <c r="L31" t="n">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="M31" t="n">
-        <v>89.20999999999999</v>
+        <v>86.04000000000001</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2787,6 +3009,11 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2819,7 +3046,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
       <c r="H32" t="n">
         <v>1</v>
       </c>
@@ -2832,13 +3061,13 @@
         <v>715</v>
       </c>
       <c r="K32" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="L32" t="n">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="M32" t="n">
-        <v>89.70999999999999</v>
+        <v>90.66</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2847,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="Q32" s="2" t="n">
         <v>43718</v>
@@ -2862,6 +3091,11 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2894,7 +3128,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
@@ -2907,13 +3143,13 @@
         <v>715</v>
       </c>
       <c r="K33" t="n">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="L33" t="n">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="M33" t="n">
-        <v>82.95</v>
+        <v>88.22</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2922,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="Q33" s="2" t="n">
         <v>44417</v>
@@ -2937,6 +3173,11 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2969,7 +3210,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
@@ -2982,13 +3225,13 @@
         <v>715</v>
       </c>
       <c r="K34" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L34" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M34" t="n">
-        <v>92.91</v>
+        <v>90.48999999999999</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3012,6 +3255,11 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3044,7 +3292,9 @@
           <t>Duha</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
@@ -3057,13 +3307,13 @@
         <v>715</v>
       </c>
       <c r="K35" t="n">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="L35" t="n">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="M35" t="n">
-        <v>93.87</v>
+        <v>91.12</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3072,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="Q35" s="2" t="n">
         <v>44417</v>
@@ -3087,6 +3337,11 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3119,7 +3374,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
       <c r="H36" t="n">
         <v>1</v>
       </c>
@@ -3132,13 +3389,13 @@
         <v>715</v>
       </c>
       <c r="K36" t="n">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="L36" t="n">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M36" t="n">
-        <v>88.86</v>
+        <v>89.28</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3147,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="Q36" s="2" t="n">
         <v>45793</v>
@@ -3167,7 +3424,14 @@
       <c r="V36" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3200,7 +3464,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
       <c r="H37" t="n">
         <v>1</v>
       </c>
@@ -3213,13 +3479,13 @@
         <v>715</v>
       </c>
       <c r="K37" t="n">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="L37" t="n">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="M37" t="n">
-        <v>89.29000000000001</v>
+        <v>84.45999999999999</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3248,7 +3514,14 @@
       <c r="V37" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3281,7 +3554,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
       <c r="H38" t="n">
         <v>1</v>
       </c>
@@ -3294,13 +3569,13 @@
         <v>715</v>
       </c>
       <c r="K38" t="n">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L38" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M38" t="n">
-        <v>92.15000000000001</v>
+        <v>89.58</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3329,7 +3604,14 @@
       <c r="V38" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3362,7 +3644,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
       <c r="H39" t="n">
         <v>1</v>
       </c>
@@ -3375,13 +3659,13 @@
         <v>715</v>
       </c>
       <c r="K39" t="n">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="L39" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="M39" t="n">
-        <v>88.25</v>
+        <v>89.43000000000001</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -3405,6 +3689,11 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3437,7 +3726,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
       <c r="H40" t="n">
         <v>1</v>
       </c>
@@ -3450,13 +3741,13 @@
         <v>715</v>
       </c>
       <c r="K40" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L40" t="n">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="M40" t="n">
-        <v>88.34</v>
+        <v>86.62</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3480,6 +3771,11 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3512,7 +3808,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
       <c r="H41" t="n">
         <v>1</v>
       </c>
@@ -3525,13 +3823,13 @@
         <v>715</v>
       </c>
       <c r="K41" t="n">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L41" t="n">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="M41" t="n">
-        <v>94.40000000000001</v>
+        <v>85.61</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3549,6 +3847,11 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3581,7 +3884,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
       <c r="H42" t="n">
         <v>1</v>
       </c>
@@ -3594,13 +3899,13 @@
         <v>715</v>
       </c>
       <c r="K42" t="n">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="L42" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M42" t="n">
-        <v>89.45</v>
+        <v>83.33</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3609,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="Q42" s="2" t="n">
         <v>44417</v>
@@ -3624,6 +3929,11 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3656,7 +3966,9 @@
           <t>Duha</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
       <c r="H43" t="n">
         <v>1</v>
       </c>
@@ -3669,13 +3981,13 @@
         <v>715</v>
       </c>
       <c r="K43" t="n">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="L43" t="n">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="M43" t="n">
-        <v>88.14</v>
+        <v>82.53</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3684,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="Q43" s="2" t="n">
         <v>45793</v>
@@ -3704,7 +4016,14 @@
       <c r="V43" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3737,7 +4056,9 @@
           <t>Duha</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
       <c r="H44" t="n">
         <v>1</v>
       </c>
@@ -3753,10 +4074,10 @@
         <v>342</v>
       </c>
       <c r="L44" t="n">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="M44" t="n">
-        <v>84.65000000000001</v>
+        <v>91.44</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -3780,6 +4101,11 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3812,7 +4138,9 @@
           <t>Duha</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
       <c r="H45" t="n">
         <v>1</v>
       </c>
@@ -3825,13 +4153,13 @@
         <v>715</v>
       </c>
       <c r="K45" t="n">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="L45" t="n">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="M45" t="n">
-        <v>94.89</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -3840,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="Q45" s="2" t="n">
         <v>44252</v>
@@ -3855,6 +4183,11 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3887,7 +4220,9 @@
           <t>Duha</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
       <c r="H46" t="n">
         <v>1</v>
       </c>
@@ -3900,13 +4235,13 @@
         <v>715</v>
       </c>
       <c r="K46" t="n">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="L46" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M46" t="n">
-        <v>93.19</v>
+        <v>86.98</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -3915,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="Q46" s="2" t="n">
         <v>45793</v>
@@ -3935,7 +4270,14 @@
       <c r="V46" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3968,7 +4310,9 @@
           <t>Duha</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
       <c r="H47" t="n">
         <v>1</v>
       </c>
@@ -3981,13 +4325,13 @@
         <v>715</v>
       </c>
       <c r="K47" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L47" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M47" t="n">
-        <v>90.16</v>
+        <v>92.13</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -4011,6 +4355,11 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4043,7 +4392,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
       <c r="H48" t="n">
         <v>1</v>
       </c>
@@ -4056,13 +4407,13 @@
         <v>715</v>
       </c>
       <c r="K48" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L48" t="n">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M48" t="n">
-        <v>83.67</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -4091,7 +4442,14 @@
       <c r="V48" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W48" t="inlineStr"/>
+      <c r="W48" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4124,7 +4482,9 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
       <c r="H49" t="n">
         <v>1</v>
       </c>
@@ -4137,13 +4497,13 @@
         <v>715</v>
       </c>
       <c r="K49" t="n">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="L49" t="n">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="M49" t="n">
-        <v>88.23999999999999</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -4152,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="Q49" s="2" t="n">
         <v>44417</v>
@@ -4167,6 +4527,11 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FAST_BACKEND/device_report.xlsx
+++ b/FAST_BACKEND/device_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,50 +510,60 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>RX (MBS)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Data Traffic (MBs)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>TX (MBS)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Carbon Emission (kgCO₂)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>HW End-of-Life (EoL)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>HW End-of-Support (EoS)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>HW Last Day of Support</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>HW Last Date of RFA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>HW Security Support EoS</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>SW Maintenance EoL</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>SW Vulnerability Support EoS</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Error Message</t>
         </is>
@@ -601,13 +611,13 @@
         <v>715</v>
       </c>
       <c r="K2" t="n">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="L2" t="n">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="M2" t="n">
-        <v>80.59999999999999</v>
+        <v>86.42</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -616,16 +626,22 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1338</v>
+      </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr">
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -673,13 +689,13 @@
         <v>715</v>
       </c>
       <c r="K3" t="n">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="L3" t="n">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M3" t="n">
-        <v>89.73999999999999</v>
+        <v>86.86</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -688,16 +704,22 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1362</v>
+      </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -745,13 +767,13 @@
         <v>715</v>
       </c>
       <c r="K4" t="n">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L4" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="M4" t="n">
-        <v>86.5</v>
+        <v>87.44</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -760,16 +782,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.1378</v>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -817,13 +845,13 @@
         <v>715</v>
       </c>
       <c r="K5" t="n">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="L5" t="n">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="M5" t="n">
-        <v>92.68000000000001</v>
+        <v>85.75</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -832,16 +860,22 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.1362</v>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr">
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -893,13 +927,13 @@
         <v>715</v>
       </c>
       <c r="K6" t="n">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="L6" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M6" t="n">
-        <v>87.66</v>
+        <v>90.53</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -908,30 +942,36 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="S6" s="2" t="n">
         <v>43545</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="T6" s="2" t="n">
         <v>45708</v>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="U6" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="V6" s="2" t="n">
         <v>44001</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="W6" s="2" t="n">
         <v>45184</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="X6" s="2" t="n">
         <v>44366</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="Y6" s="2" t="n">
         <v>44731</v>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -983,13 +1023,13 @@
         <v>715</v>
       </c>
       <c r="K7" t="n">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L7" t="n">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="M7" t="n">
-        <v>95.91</v>
+        <v>92.02</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -998,30 +1038,36 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1398</v>
+      </c>
+      <c r="S7" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="T7" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="S7" s="2" t="n">
+      <c r="U7" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="V7" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="W7" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="X7" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="Y7" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1073,13 +1119,13 @@
         <v>715</v>
       </c>
       <c r="K8" t="n">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="L8" t="n">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="M8" t="n">
-        <v>91.93000000000001</v>
+        <v>81.23</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1088,22 +1134,28 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="S8" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="T8" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="U8" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1155,13 +1207,13 @@
         <v>715</v>
       </c>
       <c r="K9" t="n">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L9" t="n">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M9" t="n">
-        <v>86.22</v>
+        <v>88.43000000000001</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1170,22 +1222,28 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="S9" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R9" s="2" t="n">
+      <c r="T9" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S9" s="2" t="n">
+      <c r="U9" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1237,13 +1295,13 @@
         <v>715</v>
       </c>
       <c r="K10" t="n">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="L10" t="n">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="M10" t="n">
-        <v>98.61</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1252,30 +1310,36 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.1338</v>
+      </c>
+      <c r="S10" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="R10" s="2" t="n">
+      <c r="T10" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="U10" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="V10" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="W10" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="X10" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="Y10" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1327,13 +1391,13 @@
         <v>715</v>
       </c>
       <c r="K11" t="n">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="L11" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M11" t="n">
-        <v>89.43000000000001</v>
+        <v>84.68000000000001</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1342,22 +1406,28 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.1317</v>
+      </c>
+      <c r="S11" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R11" s="2" t="n">
+      <c r="T11" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S11" s="2" t="n">
+      <c r="U11" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1409,13 +1479,13 @@
         <v>715</v>
       </c>
       <c r="K12" t="n">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="L12" t="n">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="M12" t="n">
-        <v>87.08</v>
+        <v>87.44</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1424,22 +1494,28 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.1435</v>
+      </c>
+      <c r="S12" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R12" s="2" t="n">
+      <c r="T12" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="U12" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr">
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1491,13 +1567,13 @@
         <v>715</v>
       </c>
       <c r="K13" t="n">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="L13" t="n">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="M13" t="n">
-        <v>86.34999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1506,22 +1582,28 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.1406</v>
+      </c>
+      <c r="S13" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R13" s="2" t="n">
+      <c r="T13" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="U13" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr">
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1573,13 +1655,13 @@
         <v>715</v>
       </c>
       <c r="K14" t="n">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="L14" t="n">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="M14" t="n">
-        <v>86.52</v>
+        <v>89.19</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1588,22 +1670,28 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1334</v>
+      </c>
+      <c r="S14" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R14" s="2" t="n">
+      <c r="T14" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="U14" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr">
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1655,13 +1743,13 @@
         <v>715</v>
       </c>
       <c r="K15" t="n">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="L15" t="n">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="M15" t="n">
-        <v>84.3</v>
+        <v>88.77</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1670,22 +1758,28 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.1374</v>
+      </c>
+      <c r="S15" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R15" s="2" t="n">
+      <c r="T15" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S15" s="2" t="n">
+      <c r="U15" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr">
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1737,13 +1831,13 @@
         <v>715</v>
       </c>
       <c r="K16" t="n">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="L16" t="n">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="M16" t="n">
-        <v>95.92</v>
+        <v>84.94</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1752,22 +1846,28 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.1321</v>
+      </c>
+      <c r="S16" s="2" t="n">
         <v>43718</v>
       </c>
-      <c r="R16" s="2" t="n">
+      <c r="T16" s="2" t="n">
         <v>44083</v>
       </c>
-      <c r="S16" s="2" t="n">
+      <c r="U16" s="2" t="n">
         <v>45930</v>
       </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr">
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1819,13 +1919,13 @@
         <v>715</v>
       </c>
       <c r="K17" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L17" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M17" t="n">
-        <v>87.11</v>
+        <v>86.77</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1834,16 +1934,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.1325</v>
+      </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr">
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1895,13 +2001,13 @@
         <v>715</v>
       </c>
       <c r="K18" t="n">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="L18" t="n">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="M18" t="n">
-        <v>84.16</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1910,22 +2016,28 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.1418</v>
+      </c>
+      <c r="S18" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R18" s="2" t="n">
+      <c r="T18" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="U18" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr">
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1977,13 +2089,13 @@
         <v>715</v>
       </c>
       <c r="K19" t="n">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="L19" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="M19" t="n">
-        <v>87.43000000000001</v>
+        <v>88.28</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1992,30 +2104,36 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="S19" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="R19" s="2" t="n">
+      <c r="T19" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="S19" s="2" t="n">
+      <c r="U19" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="V19" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="W19" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="X19" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="Y19" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2067,13 +2185,13 @@
         <v>715</v>
       </c>
       <c r="K20" t="n">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="L20" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M20" t="n">
-        <v>85.90000000000001</v>
+        <v>87.76000000000001</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2082,30 +2200,36 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="S20" s="2" t="n">
         <v>43545</v>
       </c>
-      <c r="R20" s="2" t="n">
+      <c r="T20" s="2" t="n">
         <v>45708</v>
       </c>
-      <c r="S20" s="2" t="n">
+      <c r="U20" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="V20" s="2" t="n">
         <v>44001</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="W20" s="2" t="n">
         <v>45184</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="X20" s="2" t="n">
         <v>44366</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="Y20" s="2" t="n">
         <v>44731</v>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2157,13 +2281,13 @@
         <v>715</v>
       </c>
       <c r="K21" t="n">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="L21" t="n">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="M21" t="n">
-        <v>92.33</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2172,22 +2296,28 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.1374</v>
+      </c>
+      <c r="S21" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R21" s="2" t="n">
+      <c r="T21" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="U21" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr">
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2239,13 +2369,13 @@
         <v>715</v>
       </c>
       <c r="K22" t="n">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="L22" t="n">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="M22" t="n">
-        <v>90.48999999999999</v>
+        <v>88.86</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2254,22 +2384,28 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.1418</v>
+      </c>
+      <c r="S22" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R22" s="2" t="n">
+      <c r="T22" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S22" s="2" t="n">
+      <c r="U22" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr">
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2321,13 +2457,13 @@
         <v>715</v>
       </c>
       <c r="K23" t="n">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="L23" t="n">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="M23" t="n">
-        <v>91.03</v>
+        <v>89.53</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2336,22 +2472,28 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.1382</v>
+      </c>
+      <c r="S23" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R23" s="2" t="n">
+      <c r="T23" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S23" s="2" t="n">
+      <c r="U23" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr">
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2403,13 +2545,13 @@
         <v>715</v>
       </c>
       <c r="K24" t="n">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="L24" t="n">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="M24" t="n">
-        <v>87.66</v>
+        <v>93.84999999999999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2418,22 +2560,28 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.1418</v>
+      </c>
+      <c r="S24" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R24" s="2" t="n">
+      <c r="T24" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S24" s="2" t="n">
+      <c r="U24" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr">
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2485,13 +2633,13 @@
         <v>715</v>
       </c>
       <c r="K25" t="n">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="L25" t="n">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="M25" t="n">
-        <v>82.91</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2500,30 +2648,36 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.1342</v>
+      </c>
+      <c r="S25" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="R25" s="2" t="n">
+      <c r="T25" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="S25" s="2" t="n">
+      <c r="U25" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T25" s="2" t="n">
+      <c r="V25" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="W25" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="X25" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="Y25" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="X25" t="inlineStr">
+      <c r="Z25" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2575,13 +2729,13 @@
         <v>715</v>
       </c>
       <c r="K26" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L26" t="n">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="M26" t="n">
-        <v>91.41</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2590,16 +2744,22 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1431</v>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr">
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2651,13 +2811,13 @@
         <v>715</v>
       </c>
       <c r="K27" t="n">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="L27" t="n">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M27" t="n">
-        <v>85.61</v>
+        <v>82</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2666,22 +2826,28 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.1325</v>
+      </c>
+      <c r="S27" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R27" s="2" t="n">
+      <c r="T27" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S27" s="2" t="n">
+      <c r="U27" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr">
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2733,13 +2899,13 @@
         <v>715</v>
       </c>
       <c r="K28" t="n">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="L28" t="n">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="M28" t="n">
-        <v>82.48999999999999</v>
+        <v>88.98</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2748,22 +2914,28 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="S28" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R28" s="2" t="n">
+      <c r="T28" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S28" s="2" t="n">
+      <c r="U28" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr">
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2815,13 +2987,13 @@
         <v>715</v>
       </c>
       <c r="K29" t="n">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="L29" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M29" t="n">
-        <v>89.73999999999999</v>
+        <v>93.06999999999999</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2830,22 +3002,28 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="S29" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R29" s="2" t="n">
+      <c r="T29" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S29" s="2" t="n">
+      <c r="U29" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr">
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2897,13 +3075,13 @@
         <v>715</v>
       </c>
       <c r="K30" t="n">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="L30" t="n">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="M30" t="n">
-        <v>87.83</v>
+        <v>86.15000000000001</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2912,22 +3090,28 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.1382</v>
+      </c>
+      <c r="S30" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R30" s="2" t="n">
+      <c r="T30" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S30" s="2" t="n">
+      <c r="U30" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr">
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2982,10 +3166,10 @@
         <v>339</v>
       </c>
       <c r="L31" t="n">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="M31" t="n">
-        <v>86.04000000000001</v>
+        <v>84.33</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2994,22 +3178,28 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="S31" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R31" s="2" t="n">
+      <c r="T31" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S31" s="2" t="n">
+      <c r="U31" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr">
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3061,13 +3251,13 @@
         <v>715</v>
       </c>
       <c r="K32" t="n">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="L32" t="n">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="M32" t="n">
-        <v>90.66</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3076,22 +3266,28 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="S32" s="2" t="n">
         <v>43718</v>
       </c>
-      <c r="R32" s="2" t="n">
+      <c r="T32" s="2" t="n">
         <v>44083</v>
       </c>
-      <c r="S32" s="2" t="n">
+      <c r="U32" s="2" t="n">
         <v>45930</v>
       </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr">
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3146,10 +3342,10 @@
         <v>337</v>
       </c>
       <c r="L33" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M33" t="n">
-        <v>88.22</v>
+        <v>88.68000000000001</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3158,22 +3354,28 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.1362</v>
+      </c>
+      <c r="S33" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R33" s="2" t="n">
+      <c r="T33" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S33" s="2" t="n">
+      <c r="U33" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr">
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3225,13 +3427,13 @@
         <v>715</v>
       </c>
       <c r="K34" t="n">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L34" t="n">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="M34" t="n">
-        <v>90.48999999999999</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3240,22 +3442,28 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.1402</v>
+      </c>
+      <c r="S34" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R34" s="2" t="n">
+      <c r="T34" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S34" s="2" t="n">
+      <c r="U34" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr">
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3307,13 +3515,13 @@
         <v>715</v>
       </c>
       <c r="K35" t="n">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="L35" t="n">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M35" t="n">
-        <v>91.12</v>
+        <v>87.20999999999999</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3322,22 +3530,28 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.1378</v>
+      </c>
+      <c r="S35" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R35" s="2" t="n">
+      <c r="T35" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S35" s="2" t="n">
+      <c r="U35" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr">
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3389,13 +3603,13 @@
         <v>715</v>
       </c>
       <c r="K36" t="n">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="L36" t="n">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M36" t="n">
-        <v>89.28</v>
+        <v>91.22</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3404,30 +3618,36 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.1386</v>
+      </c>
+      <c r="S36" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="R36" s="2" t="n">
+      <c r="T36" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="S36" s="2" t="n">
+      <c r="U36" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T36" s="2" t="n">
+      <c r="V36" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="U36" s="2" t="n">
+      <c r="W36" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="V36" s="2" t="n">
+      <c r="X36" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W36" s="2" t="n">
+      <c r="Y36" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="X36" t="inlineStr">
+      <c r="Z36" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3479,13 +3699,13 @@
         <v>715</v>
       </c>
       <c r="K37" t="n">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="L37" t="n">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M37" t="n">
-        <v>84.45999999999999</v>
+        <v>88.66</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3494,30 +3714,36 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.1422</v>
+      </c>
+      <c r="S37" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="R37" s="2" t="n">
+      <c r="T37" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="S37" s="2" t="n">
+      <c r="U37" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T37" s="2" t="n">
+      <c r="V37" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="U37" s="2" t="n">
+      <c r="W37" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="X37" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W37" s="2" t="n">
+      <c r="Y37" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="X37" t="inlineStr">
+      <c r="Z37" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3569,13 +3795,13 @@
         <v>715</v>
       </c>
       <c r="K38" t="n">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L38" t="n">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="M38" t="n">
-        <v>89.58</v>
+        <v>85.86</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3584,30 +3810,36 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.1374</v>
+      </c>
+      <c r="S38" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="R38" s="2" t="n">
+      <c r="T38" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="S38" s="2" t="n">
+      <c r="U38" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T38" s="2" t="n">
+      <c r="V38" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="U38" s="2" t="n">
+      <c r="W38" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="V38" s="2" t="n">
+      <c r="X38" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W38" s="2" t="n">
+      <c r="Y38" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="X38" t="inlineStr">
+      <c r="Z38" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3659,13 +3891,13 @@
         <v>715</v>
       </c>
       <c r="K39" t="n">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="L39" t="n">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M39" t="n">
-        <v>89.43000000000001</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -3674,22 +3906,28 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="S39" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R39" s="2" t="n">
+      <c r="T39" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S39" s="2" t="n">
+      <c r="U39" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr">
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3741,13 +3979,13 @@
         <v>715</v>
       </c>
       <c r="K40" t="n">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="L40" t="n">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="M40" t="n">
-        <v>86.62</v>
+        <v>88.83</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3756,22 +3994,28 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="S40" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R40" s="2" t="n">
+      <c r="T40" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S40" s="2" t="n">
+      <c r="U40" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr">
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3823,13 +4067,13 @@
         <v>715</v>
       </c>
       <c r="K41" t="n">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="L41" t="n">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="M41" t="n">
-        <v>85.61</v>
+        <v>87.98</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3838,16 +4082,22 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.139</v>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr">
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3899,13 +4149,13 @@
         <v>715</v>
       </c>
       <c r="K42" t="n">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="L42" t="n">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="M42" t="n">
-        <v>83.33</v>
+        <v>90.88</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3914,22 +4164,28 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="S42" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R42" s="2" t="n">
+      <c r="T42" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S42" s="2" t="n">
+      <c r="U42" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr">
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3981,13 +4237,13 @@
         <v>715</v>
       </c>
       <c r="K43" t="n">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="L43" t="n">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="M43" t="n">
-        <v>82.53</v>
+        <v>92.39</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3996,30 +4252,36 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.1422</v>
+      </c>
+      <c r="S43" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="R43" s="2" t="n">
+      <c r="T43" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="S43" s="2" t="n">
+      <c r="U43" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T43" s="2" t="n">
+      <c r="V43" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="U43" s="2" t="n">
+      <c r="W43" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="V43" s="2" t="n">
+      <c r="X43" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W43" s="2" t="n">
+      <c r="Y43" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="X43" t="inlineStr">
+      <c r="Z43" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4071,13 +4333,13 @@
         <v>715</v>
       </c>
       <c r="K44" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L44" t="n">
         <v>374</v>
       </c>
       <c r="M44" t="n">
-        <v>91.44</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -4086,22 +4348,28 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.1378</v>
+      </c>
+      <c r="S44" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R44" s="2" t="n">
+      <c r="T44" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S44" s="2" t="n">
+      <c r="U44" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr">
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4153,13 +4421,13 @@
         <v>715</v>
       </c>
       <c r="K45" t="n">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="L45" t="n">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="M45" t="n">
-        <v>79.84999999999999</v>
+        <v>87.98</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -4168,22 +4436,28 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="S45" s="2" t="n">
         <v>44252</v>
       </c>
-      <c r="R45" s="2" t="n">
+      <c r="T45" s="2" t="n">
         <v>44617</v>
       </c>
-      <c r="S45" s="2" t="n">
+      <c r="U45" s="2" t="n">
         <v>46446</v>
       </c>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr">
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4235,13 +4509,13 @@
         <v>715</v>
       </c>
       <c r="K46" t="n">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="L46" t="n">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="M46" t="n">
-        <v>86.98</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -4250,30 +4524,36 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.1394</v>
+      </c>
+      <c r="S46" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="R46" s="2" t="n">
+      <c r="T46" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="S46" s="2" t="n">
+      <c r="U46" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T46" s="2" t="n">
+      <c r="V46" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="U46" s="2" t="n">
+      <c r="W46" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="V46" s="2" t="n">
+      <c r="X46" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W46" s="2" t="n">
+      <c r="Y46" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="X46" t="inlineStr">
+      <c r="Z46" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4325,13 +4605,13 @@
         <v>715</v>
       </c>
       <c r="K47" t="n">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="L47" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="M47" t="n">
-        <v>92.13</v>
+        <v>84.87</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -4340,22 +4620,28 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.1338</v>
+      </c>
+      <c r="S47" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R47" s="2" t="n">
+      <c r="T47" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S47" s="2" t="n">
+      <c r="U47" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr">
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4407,13 +4693,13 @@
         <v>715</v>
       </c>
       <c r="K48" t="n">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L48" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M48" t="n">
-        <v>84.01000000000001</v>
+        <v>83.20999999999999</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -4422,30 +4708,36 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.1321</v>
+      </c>
+      <c r="S48" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="R48" s="2" t="n">
+      <c r="T48" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="S48" s="2" t="n">
+      <c r="U48" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T48" s="2" t="n">
+      <c r="V48" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="U48" s="2" t="n">
+      <c r="W48" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="V48" s="2" t="n">
+      <c r="X48" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="W48" s="2" t="n">
+      <c r="Y48" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="X48" t="inlineStr">
+      <c r="Z48" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4497,13 +4789,13 @@
         <v>715</v>
       </c>
       <c r="K49" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L49" t="n">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M49" t="n">
-        <v>83.20999999999999</v>
+        <v>85.64</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -4512,22 +4804,28 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.1374</v>
+      </c>
+      <c r="S49" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="R49" s="2" t="n">
+      <c r="T49" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="S49" s="2" t="n">
+      <c r="U49" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr">
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>

--- a/FAST_BACKEND/device_report.xlsx
+++ b/FAST_BACKEND/device_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,100 +470,115 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Total Interfaces</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Up Links</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Down Links</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Stack</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>PSU Count</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>PSU Model</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Total Power Capacity</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Power Output (W)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Power Input (W)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Energy Efficiency (%)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Power Consumption Ratio (W/Mbps)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>RX (MBS)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Data Traffic (MBs)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>TX (MBS)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Carbon Emission (kgCO₂)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>HW End-of-Life (EoL)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>HW End-of-Support (EoS)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>HW Last Day of Support</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>HW Last Date of RFA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>HW Security Support EoS</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>SW Maintenance EoL</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>SW Vulnerability Support EoS</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Error Message</t>
         </is>
@@ -596,52 +611,51 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>715</v>
       </c>
-      <c r="K2" t="n">
-        <v>331</v>
-      </c>
-      <c r="L2" t="n">
-        <v>383</v>
-      </c>
-      <c r="M2" t="n">
-        <v>86.42</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>94.26000000000001</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="n">
-        <v>0.1338</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>0.1394</v>
+      </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr">
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -674,52 +688,51 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
         <v>715</v>
       </c>
-      <c r="K3" t="n">
-        <v>337</v>
-      </c>
-      <c r="L3" t="n">
-        <v>388</v>
-      </c>
-      <c r="M3" t="n">
-        <v>86.86</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="n">
-        <v>0.1362</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>0.1358</v>
+      </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr">
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -752,52 +765,51 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>715</v>
       </c>
-      <c r="K4" t="n">
-        <v>341</v>
-      </c>
-      <c r="L4" t="n">
-        <v>390</v>
-      </c>
-      <c r="M4" t="n">
-        <v>87.44</v>
-      </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>87.72</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="n">
-        <v>0.1378</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>0.1414</v>
+      </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr">
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -830,52 +842,51 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>715</v>
       </c>
-      <c r="K5" t="n">
-        <v>337</v>
-      </c>
-      <c r="L5" t="n">
-        <v>393</v>
-      </c>
-      <c r="M5" t="n">
-        <v>85.75</v>
-      </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>94.37</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" t="n">
-        <v>0.1362</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>0.1422</v>
+      </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr">
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -912,66 +923,65 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>715</v>
       </c>
-      <c r="K6" t="n">
-        <v>344</v>
-      </c>
-      <c r="L6" t="n">
-        <v>380</v>
-      </c>
-      <c r="M6" t="n">
-        <v>90.53</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>88.45999999999999</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-      <c r="R6" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="S6" s="2" t="n">
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>0.1394</v>
+      </c>
+      <c r="V6" s="2" t="n">
         <v>43545</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="W6" s="2" t="n">
         <v>45708</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="X6" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="Y6" s="2" t="n">
         <v>44001</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="Z6" s="2" t="n">
         <v>45184</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="AA6" s="2" t="n">
         <v>44366</v>
       </c>
-      <c r="Y6" s="2" t="n">
+      <c r="AB6" s="2" t="n">
         <v>44731</v>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1008,66 +1018,65 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="M7" t="n">
         <v>715</v>
       </c>
-      <c r="K7" t="n">
-        <v>346</v>
-      </c>
-      <c r="L7" t="n">
-        <v>376</v>
-      </c>
-      <c r="M7" t="n">
-        <v>92.02</v>
-      </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>86.41</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-      <c r="R7" t="n">
-        <v>0.1398</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>45788</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>46630</v>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>0.1362</v>
       </c>
       <c r="V7" s="2" t="n">
         <v>45793</v>
       </c>
       <c r="W7" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>46630</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="Z7" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="X7" s="2" t="n">
+      <c r="AA7" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="Y7" s="2" t="n">
+      <c r="AB7" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1104,58 +1113,57 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
         <v>715</v>
       </c>
-      <c r="K8" t="n">
-        <v>329</v>
-      </c>
-      <c r="L8" t="n">
-        <v>405</v>
-      </c>
-      <c r="M8" t="n">
-        <v>81.23</v>
-      </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>89.41</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="n">
-        <v>0.1329</v>
-      </c>
-      <c r="S8" s="2" t="n">
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="n">
+        <v>0.1398</v>
+      </c>
+      <c r="V8" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="W8" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="X8" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr">
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1192,58 +1200,57 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J9" t="n">
+      <c r="M9" t="n">
         <v>715</v>
       </c>
-      <c r="K9" t="n">
-        <v>344</v>
-      </c>
-      <c r="L9" t="n">
-        <v>389</v>
-      </c>
-      <c r="M9" t="n">
-        <v>88.43000000000001</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="S9" s="2" t="n">
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="n">
+        <v>0.1358</v>
+      </c>
+      <c r="V9" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="W9" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="X9" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr">
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1280,66 +1287,65 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="M10" t="n">
         <v>715</v>
       </c>
-      <c r="K10" t="n">
-        <v>331</v>
-      </c>
-      <c r="L10" t="n">
-        <v>394</v>
-      </c>
-      <c r="M10" t="n">
-        <v>84.01000000000001</v>
-      </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>92.13</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="n">
-        <v>0.1338</v>
-      </c>
-      <c r="S10" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>45788</v>
-      </c>
-      <c r="U10" s="2" t="n">
-        <v>46630</v>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>0.1418</v>
       </c>
       <c r="V10" s="2" t="n">
         <v>45793</v>
       </c>
       <c r="W10" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="X10" s="2" t="n">
+        <v>46630</v>
+      </c>
+      <c r="Y10" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="Z10" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="X10" s="2" t="n">
+      <c r="AA10" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="Y10" s="2" t="n">
+      <c r="AB10" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1376,58 +1382,57 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J11" t="n">
+      <c r="M11" t="n">
         <v>715</v>
       </c>
-      <c r="K11" t="n">
-        <v>326</v>
-      </c>
-      <c r="L11" t="n">
-        <v>385</v>
-      </c>
-      <c r="M11" t="n">
-        <v>84.68000000000001</v>
-      </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>92.97</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="n">
-        <v>0.1317</v>
-      </c>
-      <c r="S11" s="2" t="n">
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="V11" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="W11" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="X11" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr">
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1464,58 +1469,57 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J12" t="n">
+      <c r="M12" t="n">
         <v>715</v>
       </c>
-      <c r="K12" t="n">
-        <v>355</v>
-      </c>
-      <c r="L12" t="n">
-        <v>406</v>
-      </c>
-      <c r="M12" t="n">
-        <v>87.44</v>
-      </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>84.3</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="n">
-        <v>0.1435</v>
-      </c>
-      <c r="S12" s="2" t="n">
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="n">
+        <v>0.1346</v>
+      </c>
+      <c r="V12" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="W12" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="X12" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr">
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1552,58 +1556,57 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J13" t="n">
+      <c r="M13" t="n">
         <v>715</v>
       </c>
-      <c r="K13" t="n">
-        <v>348</v>
-      </c>
-      <c r="L13" t="n">
-        <v>364</v>
-      </c>
-      <c r="M13" t="n">
-        <v>95.59999999999999</v>
-      </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>86.56</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="n">
-        <v>0.1406</v>
-      </c>
-      <c r="S13" s="2" t="n">
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>0.1354</v>
+      </c>
+      <c r="V13" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="W13" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="X13" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr">
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1640,58 +1643,57 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J14" t="n">
+      <c r="M14" t="n">
         <v>715</v>
       </c>
-      <c r="K14" t="n">
-        <v>330</v>
-      </c>
-      <c r="L14" t="n">
-        <v>370</v>
-      </c>
-      <c r="M14" t="n">
-        <v>89.19</v>
-      </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>94.88</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="n">
-        <v>0.1334</v>
-      </c>
-      <c r="S14" s="2" t="n">
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="n">
+        <v>0.1422</v>
+      </c>
+      <c r="V14" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="W14" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="X14" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr">
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1728,58 +1730,57 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="M15" t="n">
         <v>715</v>
       </c>
-      <c r="K15" t="n">
-        <v>340</v>
-      </c>
-      <c r="L15" t="n">
-        <v>383</v>
-      </c>
-      <c r="M15" t="n">
-        <v>88.77</v>
-      </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="n">
-        <v>0.1374</v>
-      </c>
-      <c r="S15" s="2" t="n">
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>0.1382</v>
+      </c>
+      <c r="V15" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="W15" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="X15" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr">
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1816,58 +1817,57 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J16" t="n">
+      <c r="M16" t="n">
         <v>715</v>
       </c>
-      <c r="K16" t="n">
-        <v>327</v>
-      </c>
-      <c r="L16" t="n">
-        <v>385</v>
-      </c>
-      <c r="M16" t="n">
-        <v>84.94</v>
-      </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="n">
-        <v>0.1321</v>
-      </c>
-      <c r="S16" s="2" t="n">
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="n">
+        <v>0.1366</v>
+      </c>
+      <c r="V16" s="2" t="n">
         <v>43718</v>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="W16" s="2" t="n">
         <v>44083</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="X16" s="2" t="n">
         <v>45930</v>
       </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr">
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1904,52 +1904,51 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="inlineStr">
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J17" t="n">
+      <c r="M17" t="n">
         <v>715</v>
       </c>
-      <c r="K17" t="n">
-        <v>328</v>
-      </c>
-      <c r="L17" t="n">
-        <v>378</v>
-      </c>
-      <c r="M17" t="n">
-        <v>86.77</v>
-      </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="n">
-        <v>0.1325</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
+      <c r="U17" t="n">
+        <v>0.1386</v>
+      </c>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr">
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1986,58 +1985,57 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="inlineStr">
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
         <v>715</v>
       </c>
-      <c r="K18" t="n">
-        <v>351</v>
-      </c>
-      <c r="L18" t="n">
-        <v>377</v>
-      </c>
-      <c r="M18" t="n">
-        <v>93.09999999999999</v>
-      </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="n">
-        <v>0.1418</v>
-      </c>
-      <c r="S18" s="2" t="n">
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="n">
+        <v>0.1358</v>
+      </c>
+      <c r="V18" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="W18" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="X18" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr">
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2074,66 +2072,65 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="inlineStr">
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J19" t="n">
+      <c r="M19" t="n">
         <v>715</v>
       </c>
-      <c r="K19" t="n">
-        <v>339</v>
-      </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
+        <v>344</v>
+      </c>
+      <c r="O19" t="n">
         <v>384</v>
       </c>
-      <c r="M19" t="n">
-        <v>88.28</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>89.58</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="S19" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="T19" s="2" t="n">
-        <v>45788</v>
-      </c>
-      <c r="U19" s="2" t="n">
-        <v>46630</v>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>0.139</v>
       </c>
       <c r="V19" s="2" t="n">
         <v>45793</v>
       </c>
       <c r="W19" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="X19" s="2" t="n">
+        <v>46630</v>
+      </c>
+      <c r="Y19" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="Z19" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="X19" s="2" t="n">
+      <c r="AA19" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="Y19" s="2" t="n">
+      <c r="AB19" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="Z19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2170,68 +2167,67 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="inlineStr">
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J20" t="n">
+      <c r="M20" t="n">
         <v>715</v>
       </c>
-      <c r="K20" t="n">
-        <v>344</v>
-      </c>
-      <c r="L20" t="n">
-        <v>392</v>
-      </c>
-      <c r="M20" t="n">
-        <v>87.76000000000001</v>
-      </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>93.20999999999999</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="S20" s="2" t="n">
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>0.1443</v>
+      </c>
+      <c r="V20" s="2" t="n">
         <v>43545</v>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="W20" s="2" t="n">
         <v>45708</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="X20" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="Y20" s="2" t="n">
         <v>44001</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="Z20" s="2" t="n">
         <v>45184</v>
       </c>
-      <c r="X20" s="2" t="n">
+      <c r="AA20" s="2" t="n">
         <v>44366</v>
       </c>
-      <c r="Y20" s="2" t="n">
+      <c r="AB20" s="2" t="n">
         <v>44731</v>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Failed to establish connection.</t>
         </is>
       </c>
     </row>
@@ -2266,58 +2262,57 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="inlineStr">
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J21" t="n">
+      <c r="M21" t="n">
         <v>715</v>
       </c>
-      <c r="K21" t="n">
-        <v>340</v>
-      </c>
-      <c r="L21" t="n">
-        <v>401</v>
-      </c>
-      <c r="M21" t="n">
-        <v>84.79000000000001</v>
-      </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>83.58</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="n">
-        <v>0.1374</v>
-      </c>
-      <c r="S21" s="2" t="n">
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>0.1358</v>
+      </c>
+      <c r="V21" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="W21" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="X21" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr">
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2354,58 +2349,57 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="inlineStr">
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J22" t="n">
+      <c r="M22" t="n">
         <v>715</v>
       </c>
-      <c r="K22" t="n">
-        <v>351</v>
-      </c>
-      <c r="L22" t="n">
-        <v>395</v>
-      </c>
-      <c r="M22" t="n">
-        <v>88.86</v>
-      </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="n">
-        <v>0.1418</v>
-      </c>
-      <c r="S22" s="2" t="n">
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="n">
+        <v>0.1297</v>
+      </c>
+      <c r="V22" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="W22" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="X22" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr">
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2442,58 +2436,57 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="inlineStr">
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J23" t="n">
+      <c r="M23" t="n">
         <v>715</v>
       </c>
-      <c r="K23" t="n">
-        <v>342</v>
-      </c>
-      <c r="L23" t="n">
-        <v>382</v>
-      </c>
-      <c r="M23" t="n">
-        <v>89.53</v>
-      </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>87.13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
-      <c r="R23" t="n">
-        <v>0.1382</v>
-      </c>
-      <c r="S23" s="2" t="n">
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="n">
+        <v>0.1313</v>
+      </c>
+      <c r="V23" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="W23" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="X23" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr">
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2530,58 +2523,57 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="inlineStr">
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J24" t="n">
+      <c r="M24" t="n">
         <v>715</v>
       </c>
-      <c r="K24" t="n">
-        <v>351</v>
-      </c>
-      <c r="L24" t="n">
-        <v>374</v>
-      </c>
-      <c r="M24" t="n">
-        <v>93.84999999999999</v>
-      </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>85.31999999999999</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
-      <c r="R24" t="n">
-        <v>0.1418</v>
-      </c>
-      <c r="S24" s="2" t="n">
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="n">
+        <v>0.1362</v>
+      </c>
+      <c r="V24" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="W24" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="X24" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr">
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2618,66 +2610,65 @@
           <t>SULAY</t>
         </is>
       </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="inlineStr">
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J25" t="n">
+      <c r="M25" t="n">
         <v>715</v>
       </c>
-      <c r="K25" t="n">
-        <v>332</v>
-      </c>
-      <c r="L25" t="n">
-        <v>367</v>
-      </c>
-      <c r="M25" t="n">
-        <v>90.45999999999999</v>
-      </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>92.69</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
-      <c r="R25" t="n">
-        <v>0.1342</v>
-      </c>
-      <c r="S25" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="T25" s="2" t="n">
-        <v>45788</v>
-      </c>
-      <c r="U25" s="2" t="n">
-        <v>46630</v>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="n">
+        <v>0.1435</v>
       </c>
       <c r="V25" s="2" t="n">
         <v>45793</v>
       </c>
       <c r="W25" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="X25" s="2" t="n">
+        <v>46630</v>
+      </c>
+      <c r="Y25" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="Z25" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="X25" s="2" t="n">
+      <c r="AA25" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="Y25" s="2" t="n">
+      <c r="AB25" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2714,52 +2705,51 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="inlineStr">
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J26" t="n">
+      <c r="M26" t="n">
         <v>715</v>
       </c>
-      <c r="K26" t="n">
-        <v>354</v>
-      </c>
-      <c r="L26" t="n">
-        <v>365</v>
-      </c>
-      <c r="M26" t="n">
-        <v>96.98999999999999</v>
-      </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>91.2</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
-      <c r="R26" t="n">
-        <v>0.1431</v>
-      </c>
-      <c r="S26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>0.1382</v>
+      </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr">
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2796,58 +2786,57 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="inlineStr">
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J27" t="n">
+      <c r="M27" t="n">
         <v>715</v>
       </c>
-      <c r="K27" t="n">
-        <v>328</v>
-      </c>
-      <c r="L27" t="n">
-        <v>400</v>
-      </c>
-      <c r="M27" t="n">
-        <v>82</v>
-      </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>86.15000000000001</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
-      <c r="R27" t="n">
-        <v>0.1325</v>
-      </c>
-      <c r="S27" s="2" t="n">
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="n">
+        <v>0.1358</v>
+      </c>
+      <c r="V27" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="W27" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U27" s="2" t="n">
+      <c r="X27" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr">
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2884,58 +2873,57 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="inlineStr">
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J28" t="n">
+      <c r="M28" t="n">
         <v>715</v>
       </c>
-      <c r="K28" t="n">
-        <v>339</v>
-      </c>
-      <c r="L28" t="n">
-        <v>381</v>
-      </c>
-      <c r="M28" t="n">
-        <v>88.98</v>
-      </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>90.44</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
-      <c r="R28" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="S28" s="2" t="n">
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="n">
+        <v>0.1414</v>
+      </c>
+      <c r="V28" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="W28" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="X28" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr">
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2972,58 +2960,57 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="inlineStr">
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J29" t="n">
+      <c r="M29" t="n">
         <v>715</v>
       </c>
-      <c r="K29" t="n">
-        <v>349</v>
-      </c>
-      <c r="L29" t="n">
-        <v>375</v>
-      </c>
-      <c r="M29" t="n">
-        <v>93.06999999999999</v>
-      </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>86.91</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="S29" s="2" t="n">
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="n">
+        <v>0.1342</v>
+      </c>
+      <c r="V29" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T29" s="2" t="n">
+      <c r="W29" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U29" s="2" t="n">
+      <c r="X29" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr">
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3060,58 +3047,57 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="inlineStr">
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J30" t="n">
+      <c r="M30" t="n">
         <v>715</v>
       </c>
-      <c r="K30" t="n">
-        <v>342</v>
-      </c>
-      <c r="L30" t="n">
-        <v>397</v>
-      </c>
-      <c r="M30" t="n">
-        <v>86.15000000000001</v>
-      </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>84.95999999999999</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="n">
-        <v>0.1382</v>
-      </c>
-      <c r="S30" s="2" t="n">
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="n">
+        <v>0.1301</v>
+      </c>
+      <c r="V30" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T30" s="2" t="n">
+      <c r="W30" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="X30" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr">
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3148,58 +3134,57 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="inlineStr">
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J31" t="n">
+      <c r="M31" t="n">
         <v>715</v>
       </c>
-      <c r="K31" t="n">
-        <v>339</v>
-      </c>
-      <c r="L31" t="n">
-        <v>402</v>
-      </c>
-      <c r="M31" t="n">
-        <v>84.33</v>
-      </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>83.17</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="R31" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="S31" s="2" t="n">
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="n">
+        <v>0.1358</v>
+      </c>
+      <c r="V31" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="W31" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="X31" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr">
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3236,58 +3221,57 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="inlineStr">
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J32" t="n">
+      <c r="M32" t="n">
         <v>715</v>
       </c>
-      <c r="K32" t="n">
-        <v>344</v>
-      </c>
-      <c r="L32" t="n">
-        <v>397</v>
-      </c>
-      <c r="M32" t="n">
-        <v>86.65000000000001</v>
-      </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>94.56999999999999</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
-      <c r="R32" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="S32" s="2" t="n">
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="n">
+        <v>0.1406</v>
+      </c>
+      <c r="V32" s="2" t="n">
         <v>43718</v>
       </c>
-      <c r="T32" s="2" t="n">
+      <c r="W32" s="2" t="n">
         <v>44083</v>
       </c>
-      <c r="U32" s="2" t="n">
+      <c r="X32" s="2" t="n">
         <v>45930</v>
       </c>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr">
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3324,58 +3308,57 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="inlineStr">
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J33" t="n">
+      <c r="M33" t="n">
         <v>715</v>
       </c>
-      <c r="K33" t="n">
-        <v>337</v>
-      </c>
-      <c r="L33" t="n">
-        <v>380</v>
-      </c>
-      <c r="M33" t="n">
-        <v>88.68000000000001</v>
-      </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>89.25</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="R33" t="n">
-        <v>0.1362</v>
-      </c>
-      <c r="S33" s="2" t="n">
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="n">
+        <v>0.1342</v>
+      </c>
+      <c r="V33" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T33" s="2" t="n">
+      <c r="W33" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U33" s="2" t="n">
+      <c r="X33" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr">
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3412,58 +3395,57 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="inlineStr">
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J34" t="n">
+      <c r="M34" t="n">
         <v>715</v>
       </c>
-      <c r="K34" t="n">
-        <v>347</v>
-      </c>
-      <c r="L34" t="n">
-        <v>403</v>
-      </c>
-      <c r="M34" t="n">
-        <v>86.09999999999999</v>
-      </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>83.76000000000001</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
-      <c r="R34" t="n">
-        <v>0.1402</v>
-      </c>
-      <c r="S34" s="2" t="n">
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="n">
+        <v>0.1313</v>
+      </c>
+      <c r="V34" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T34" s="2" t="n">
+      <c r="W34" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U34" s="2" t="n">
+      <c r="X34" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr">
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3500,58 +3482,57 @@
           <t>Duha</t>
         </is>
       </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="inlineStr">
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J35" t="n">
+      <c r="M35" t="n">
         <v>715</v>
       </c>
-      <c r="K35" t="n">
-        <v>341</v>
-      </c>
-      <c r="L35" t="n">
-        <v>391</v>
-      </c>
-      <c r="M35" t="n">
-        <v>87.20999999999999</v>
-      </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>83.59</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
-      <c r="R35" t="n">
-        <v>0.1378</v>
-      </c>
-      <c r="S35" s="2" t="n">
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="n">
+        <v>0.1338</v>
+      </c>
+      <c r="V35" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T35" s="2" t="n">
+      <c r="W35" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U35" s="2" t="n">
+      <c r="X35" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr">
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3588,66 +3569,65 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="inlineStr">
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J36" t="n">
+      <c r="M36" t="n">
         <v>715</v>
       </c>
-      <c r="K36" t="n">
-        <v>343</v>
-      </c>
-      <c r="L36" t="n">
-        <v>376</v>
-      </c>
-      <c r="M36" t="n">
-        <v>91.22</v>
-      </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>94.91</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
-      <c r="R36" t="n">
-        <v>0.1386</v>
-      </c>
-      <c r="S36" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="T36" s="2" t="n">
-        <v>45788</v>
-      </c>
-      <c r="U36" s="2" t="n">
-        <v>46630</v>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="n">
+        <v>0.1431</v>
       </c>
       <c r="V36" s="2" t="n">
         <v>45793</v>
       </c>
       <c r="W36" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="X36" s="2" t="n">
+        <v>46630</v>
+      </c>
+      <c r="Y36" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="Z36" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="X36" s="2" t="n">
+      <c r="AA36" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="Y36" s="2" t="n">
+      <c r="AB36" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="Z36" t="inlineStr">
+      <c r="AC36" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3684,66 +3664,65 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="inlineStr">
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J37" t="n">
+      <c r="M37" t="n">
         <v>715</v>
       </c>
-      <c r="K37" t="n">
-        <v>352</v>
-      </c>
-      <c r="L37" t="n">
-        <v>397</v>
-      </c>
-      <c r="M37" t="n">
-        <v>88.66</v>
-      </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>87.06999999999999</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
-      <c r="R37" t="n">
-        <v>0.1422</v>
-      </c>
-      <c r="S37" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="T37" s="2" t="n">
-        <v>45788</v>
-      </c>
-      <c r="U37" s="2" t="n">
-        <v>46630</v>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="n">
+        <v>0.1334</v>
       </c>
       <c r="V37" s="2" t="n">
         <v>45793</v>
       </c>
       <c r="W37" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="X37" s="2" t="n">
+        <v>46630</v>
+      </c>
+      <c r="Y37" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="Z37" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="X37" s="2" t="n">
+      <c r="AA37" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="Y37" s="2" t="n">
+      <c r="AB37" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="Z37" t="inlineStr">
+      <c r="AC37" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3780,66 +3759,65 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="inlineStr">
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J38" t="n">
+      <c r="M38" t="n">
         <v>715</v>
       </c>
-      <c r="K38" t="n">
-        <v>340</v>
-      </c>
-      <c r="L38" t="n">
-        <v>396</v>
-      </c>
-      <c r="M38" t="n">
-        <v>85.86</v>
-      </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>88.52</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
-      <c r="R38" t="n">
-        <v>0.1374</v>
-      </c>
-      <c r="S38" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="T38" s="2" t="n">
-        <v>45788</v>
-      </c>
-      <c r="U38" s="2" t="n">
-        <v>46630</v>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="n">
+        <v>0.1402</v>
       </c>
       <c r="V38" s="2" t="n">
         <v>45793</v>
       </c>
       <c r="W38" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="X38" s="2" t="n">
+        <v>46630</v>
+      </c>
+      <c r="Y38" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="Z38" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="X38" s="2" t="n">
+      <c r="AA38" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="Y38" s="2" t="n">
+      <c r="AB38" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="Z38" t="inlineStr">
+      <c r="AC38" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3876,58 +3854,57 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="inlineStr">
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J39" t="n">
+      <c r="M39" t="n">
         <v>715</v>
       </c>
-      <c r="K39" t="n">
-        <v>334</v>
-      </c>
-      <c r="L39" t="n">
-        <v>393</v>
-      </c>
-      <c r="M39" t="n">
-        <v>84.98999999999999</v>
-      </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>93.20999999999999</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="S39" s="2" t="n">
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="n">
+        <v>0.1443</v>
+      </c>
+      <c r="V39" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T39" s="2" t="n">
+      <c r="W39" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U39" s="2" t="n">
+      <c r="X39" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr">
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3964,58 +3941,57 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="inlineStr">
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J40" t="n">
+      <c r="M40" t="n">
         <v>715</v>
       </c>
-      <c r="K40" t="n">
-        <v>334</v>
-      </c>
-      <c r="L40" t="n">
-        <v>376</v>
-      </c>
-      <c r="M40" t="n">
-        <v>88.83</v>
-      </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
-      <c r="R40" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="S40" s="2" t="n">
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="n">
+        <v>0.1342</v>
+      </c>
+      <c r="V40" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T40" s="2" t="n">
+      <c r="W40" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U40" s="2" t="n">
+      <c r="X40" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr">
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4052,52 +4028,51 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="inlineStr">
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J41" t="n">
+      <c r="M41" t="n">
         <v>715</v>
       </c>
-      <c r="K41" t="n">
-        <v>344</v>
-      </c>
-      <c r="L41" t="n">
-        <v>391</v>
-      </c>
-      <c r="M41" t="n">
-        <v>87.98</v>
-      </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>88.64</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
-      <c r="R41" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="S41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
+      <c r="U41" t="n">
+        <v>0.1418</v>
+      </c>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr">
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4134,58 +4109,57 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="inlineStr">
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J42" t="n">
+      <c r="M42" t="n">
         <v>715</v>
       </c>
-      <c r="K42" t="n">
-        <v>339</v>
-      </c>
-      <c r="L42" t="n">
-        <v>373</v>
-      </c>
-      <c r="M42" t="n">
-        <v>90.88</v>
-      </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>88.48999999999999</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="S42" s="2" t="n">
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="n">
+        <v>0.1305</v>
+      </c>
+      <c r="V42" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T42" s="2" t="n">
+      <c r="W42" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U42" s="2" t="n">
+      <c r="X42" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr">
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4222,66 +4196,65 @@
           <t>Duha</t>
         </is>
       </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="inlineStr">
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J43" t="n">
+      <c r="M43" t="n">
         <v>715</v>
       </c>
-      <c r="K43" t="n">
-        <v>352</v>
-      </c>
-      <c r="L43" t="n">
-        <v>381</v>
-      </c>
-      <c r="M43" t="n">
-        <v>92.39</v>
-      </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>87.77</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
-      <c r="R43" t="n">
-        <v>0.1422</v>
-      </c>
-      <c r="S43" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="T43" s="2" t="n">
-        <v>45788</v>
-      </c>
-      <c r="U43" s="2" t="n">
-        <v>46630</v>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="n">
+        <v>0.1334</v>
       </c>
       <c r="V43" s="2" t="n">
         <v>45793</v>
       </c>
       <c r="W43" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="X43" s="2" t="n">
+        <v>46630</v>
+      </c>
+      <c r="Y43" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="Z43" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="X43" s="2" t="n">
+      <c r="AA43" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="Y43" s="2" t="n">
+      <c r="AB43" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="Z43" t="inlineStr">
+      <c r="AC43" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4318,58 +4291,57 @@
           <t>Duha</t>
         </is>
       </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="inlineStr">
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J44" t="n">
+      <c r="M44" t="n">
         <v>715</v>
       </c>
-      <c r="K44" t="n">
-        <v>341</v>
-      </c>
-      <c r="L44" t="n">
-        <v>374</v>
-      </c>
-      <c r="M44" t="n">
-        <v>91.18000000000001</v>
-      </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>93.8</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="n">
-        <v>0.1378</v>
-      </c>
-      <c r="S44" s="2" t="n">
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="n">
+        <v>0.1406</v>
+      </c>
+      <c r="V44" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T44" s="2" t="n">
+      <c r="W44" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U44" s="2" t="n">
+      <c r="X44" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr">
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4406,58 +4378,57 @@
           <t>Duha</t>
         </is>
       </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="inlineStr">
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J45" t="n">
+      <c r="M45" t="n">
         <v>715</v>
       </c>
-      <c r="K45" t="n">
-        <v>344</v>
-      </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
+        <v>340</v>
+      </c>
+      <c r="O45" t="n">
         <v>391</v>
       </c>
-      <c r="M45" t="n">
-        <v>87.98</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="R45" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="S45" s="2" t="n">
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="n">
+        <v>0.1374</v>
+      </c>
+      <c r="V45" s="2" t="n">
         <v>44252</v>
       </c>
-      <c r="T45" s="2" t="n">
+      <c r="W45" s="2" t="n">
         <v>44617</v>
       </c>
-      <c r="U45" s="2" t="n">
+      <c r="X45" s="2" t="n">
         <v>46446</v>
       </c>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr">
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4494,66 +4465,65 @@
           <t>Duha</t>
         </is>
       </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="inlineStr">
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J46" t="n">
+      <c r="M46" t="n">
         <v>715</v>
       </c>
-      <c r="K46" t="n">
-        <v>345</v>
-      </c>
-      <c r="L46" t="n">
-        <v>398</v>
-      </c>
-      <c r="M46" t="n">
-        <v>86.68000000000001</v>
-      </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>84.33</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="R46" t="n">
-        <v>0.1394</v>
-      </c>
-      <c r="S46" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="T46" s="2" t="n">
-        <v>45788</v>
-      </c>
-      <c r="U46" s="2" t="n">
-        <v>46630</v>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="n">
+        <v>0.137</v>
       </c>
       <c r="V46" s="2" t="n">
         <v>45793</v>
       </c>
       <c r="W46" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="X46" s="2" t="n">
+        <v>46630</v>
+      </c>
+      <c r="Y46" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="Z46" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="X46" s="2" t="n">
+      <c r="AA46" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="Y46" s="2" t="n">
+      <c r="AB46" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="Z46" t="inlineStr">
+      <c r="AC46" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4590,58 +4560,57 @@
           <t>Duha</t>
         </is>
       </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="inlineStr">
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J47" t="n">
+      <c r="M47" t="n">
         <v>715</v>
       </c>
-      <c r="K47" t="n">
-        <v>331</v>
-      </c>
-      <c r="L47" t="n">
-        <v>390</v>
-      </c>
-      <c r="M47" t="n">
-        <v>84.87</v>
-      </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>92.06</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="R47" t="n">
-        <v>0.1338</v>
-      </c>
-      <c r="S47" s="2" t="n">
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="n">
+        <v>0.1406</v>
+      </c>
+      <c r="V47" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T47" s="2" t="n">
+      <c r="W47" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U47" s="2" t="n">
+      <c r="X47" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr">
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4678,66 +4647,65 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="inlineStr">
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J48" t="n">
+      <c r="M48" t="n">
         <v>715</v>
       </c>
-      <c r="K48" t="n">
-        <v>327</v>
-      </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
+        <v>348</v>
+      </c>
+      <c r="O48" t="n">
         <v>393</v>
       </c>
-      <c r="M48" t="n">
-        <v>83.20999999999999</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>88.55</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
-      <c r="R48" t="n">
-        <v>0.1321</v>
-      </c>
-      <c r="S48" s="2" t="n">
-        <v>45793</v>
-      </c>
-      <c r="T48" s="2" t="n">
-        <v>45788</v>
-      </c>
-      <c r="U48" s="2" t="n">
-        <v>46630</v>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="n">
+        <v>0.1406</v>
       </c>
       <c r="V48" s="2" t="n">
         <v>45793</v>
       </c>
       <c r="W48" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="X48" s="2" t="n">
+        <v>46630</v>
+      </c>
+      <c r="Y48" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="Z48" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="X48" s="2" t="n">
+      <c r="AA48" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="Y48" s="2" t="n">
+      <c r="AB48" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="Z48" t="inlineStr">
+      <c r="AC48" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4774,58 +4742,57 @@
           <t>Jebal Ali</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="inlineStr">
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="J49" t="n">
+      <c r="M49" t="n">
         <v>715</v>
       </c>
-      <c r="K49" t="n">
-        <v>340</v>
-      </c>
-      <c r="L49" t="n">
-        <v>397</v>
-      </c>
-      <c r="M49" t="n">
-        <v>85.64</v>
-      </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
       </c>
-      <c r="R49" t="n">
-        <v>0.1374</v>
-      </c>
-      <c r="S49" s="2" t="n">
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="n">
+        <v>0.1342</v>
+      </c>
+      <c r="V49" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="T49" s="2" t="n">
+      <c r="W49" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="U49" s="2" t="n">
+      <c r="X49" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr">
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>

--- a/FAST_BACKEND/device_report.xlsx
+++ b/FAST_BACKEND/device_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC49"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,100 +485,120 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Access Port</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Stack</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>PSU Count</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>PSU Model</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Total Power Capacity</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Power Output (W)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Power Input (W)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Energy Efficiency (%)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Power Consumption Ratio (W/Mbps)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>RX (MBS)</t>
-        </is>
-      </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Data Traffic (MBs)</t>
+          <t>RX (Mbs)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>TX (MBS)</t>
+          <t>Data Traffic Consumed (Mbs)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>TX (Mbs)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Data Traffic Allocated (Mbs)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Energy_Efficiency(DataTraffic%)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>DataTraffic Utilization%</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>Carbon Emission (kgCO₂)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>HW End-of-Life (EoL)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>HW End-of-Support (EoS)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>HW Last Day of Support</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>HW Last Date of RFA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>HW Security Support EoS</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>SW Maintenance EoL</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>SW Vulnerability Support EoS</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Error Message</t>
         </is>
@@ -614,48 +634,62 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>715</v>
       </c>
-      <c r="N2" t="n">
-        <v>345</v>
-      </c>
       <c r="O2" t="n">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="P2" t="n">
-        <v>94.26000000000001</v>
+        <v>395</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>87.59</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
       <c r="U2" t="n">
-        <v>0.1394</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.1398</v>
+      </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr">
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -691,48 +725,62 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>715</v>
       </c>
-      <c r="N3" t="n">
-        <v>336</v>
-      </c>
       <c r="O3" t="n">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="P3" t="n">
-        <v>87.5</v>
+        <v>385</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
+        <v>88.83</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
       <c r="U3" t="n">
-        <v>0.1358</v>
-      </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.1382</v>
+      </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr">
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -768,48 +816,62 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>715</v>
       </c>
-      <c r="N4" t="n">
-        <v>350</v>
-      </c>
       <c r="O4" t="n">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="P4" t="n">
-        <v>87.72</v>
+        <v>379</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
+        <v>87.86</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
-      <c r="T4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
       <c r="U4" t="n">
-        <v>0.1414</v>
-      </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.1346</v>
+      </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr">
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -845,48 +907,62 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>715</v>
       </c>
-      <c r="N5" t="n">
-        <v>352</v>
-      </c>
       <c r="O5" t="n">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="P5" t="n">
-        <v>94.37</v>
+        <v>385</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
+        <v>83.90000000000001</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
-      <c r="T5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
       <c r="U5" t="n">
-        <v>0.1422</v>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.1305</v>
+      </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr">
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -926,62 +1002,76 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>715</v>
       </c>
-      <c r="N6" t="n">
-        <v>345</v>
-      </c>
       <c r="O6" t="n">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="P6" t="n">
-        <v>88.45999999999999</v>
+        <v>370</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr"/>
+        <v>90.81</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
       <c r="U6" t="n">
-        <v>0.1394</v>
-      </c>
-      <c r="V6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.1358</v>
+      </c>
+      <c r="Z6" s="2" t="n">
         <v>43545</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="AA6" s="2" t="n">
         <v>45708</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="AB6" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="Y6" s="2" t="n">
+      <c r="AC6" s="2" t="n">
         <v>44001</v>
       </c>
-      <c r="Z6" s="2" t="n">
+      <c r="AD6" s="2" t="n">
         <v>45184</v>
       </c>
-      <c r="AA6" s="2" t="n">
+      <c r="AE6" s="2" t="n">
         <v>44366</v>
       </c>
-      <c r="AB6" s="2" t="n">
+      <c r="AF6" s="2" t="n">
         <v>44731</v>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1021,62 +1111,76 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>715</v>
       </c>
-      <c r="N7" t="n">
-        <v>337</v>
-      </c>
       <c r="O7" t="n">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="P7" t="n">
-        <v>86.41</v>
+        <v>363</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
+        <v>94.48999999999999</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
-      <c r="T7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
       <c r="U7" t="n">
-        <v>0.1362</v>
-      </c>
-      <c r="V7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.1386</v>
+      </c>
+      <c r="Z7" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="AA7" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="X7" s="2" t="n">
+      <c r="AB7" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y7" s="2" t="n">
+      <c r="AC7" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Z7" s="2" t="n">
+      <c r="AD7" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AA7" s="2" t="n">
+      <c r="AE7" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AB7" s="2" t="n">
+      <c r="AF7" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1116,54 +1220,68 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>715</v>
       </c>
-      <c r="N8" t="n">
-        <v>346</v>
-      </c>
       <c r="O8" t="n">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="P8" t="n">
-        <v>89.41</v>
+        <v>365</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="inlineStr"/>
+        <v>92.88</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
-      <c r="T8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
       <c r="U8" t="n">
-        <v>0.1398</v>
-      </c>
-      <c r="V8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="Z8" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="AA8" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X8" s="2" t="n">
+      <c r="AB8" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr">
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1203,54 +1321,68 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>715</v>
       </c>
-      <c r="N9" t="n">
-        <v>336</v>
-      </c>
       <c r="O9" t="n">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="P9" t="n">
-        <v>90.31999999999999</v>
+        <v>382</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
+        <v>92.41</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
-      <c r="T9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
       <c r="U9" t="n">
-        <v>0.1358</v>
-      </c>
-      <c r="V9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.1426</v>
+      </c>
+      <c r="Z9" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W9" s="2" t="n">
+      <c r="AA9" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X9" s="2" t="n">
+      <c r="AB9" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr">
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1290,62 +1422,76 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>715</v>
       </c>
-      <c r="N10" t="n">
-        <v>351</v>
-      </c>
       <c r="O10" t="n">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="P10" t="n">
-        <v>92.13</v>
+        <v>383</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="inlineStr"/>
+        <v>89.3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
       <c r="U10" t="n">
-        <v>0.1418</v>
-      </c>
-      <c r="V10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.1382</v>
+      </c>
+      <c r="Z10" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="W10" s="2" t="n">
+      <c r="AA10" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="X10" s="2" t="n">
+      <c r="AB10" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y10" s="2" t="n">
+      <c r="AC10" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Z10" s="2" t="n">
+      <c r="AD10" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AA10" s="2" t="n">
+      <c r="AE10" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AB10" s="2" t="n">
+      <c r="AF10" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1385,54 +1531,68 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>715</v>
       </c>
-      <c r="N11" t="n">
-        <v>344</v>
-      </c>
       <c r="O11" t="n">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="P11" t="n">
-        <v>92.97</v>
+        <v>367</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="inlineStr"/>
+        <v>97</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
-      <c r="T11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
       <c r="U11" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="V11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.1439</v>
+      </c>
+      <c r="Z11" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W11" s="2" t="n">
+      <c r="AA11" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X11" s="2" t="n">
+      <c r="AB11" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr">
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1472,54 +1632,68 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>715</v>
       </c>
-      <c r="N12" t="n">
-        <v>333</v>
-      </c>
       <c r="O12" t="n">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="P12" t="n">
-        <v>84.3</v>
+        <v>399</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="inlineStr"/>
+        <v>87.47</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
-      <c r="T12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
       <c r="U12" t="n">
-        <v>0.1346</v>
-      </c>
-      <c r="V12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="Z12" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W12" s="2" t="n">
+      <c r="AA12" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X12" s="2" t="n">
+      <c r="AB12" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr">
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1559,54 +1733,68 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>715</v>
       </c>
-      <c r="N13" t="n">
-        <v>335</v>
-      </c>
       <c r="O13" t="n">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="P13" t="n">
-        <v>86.56</v>
+        <v>386</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
+        <v>87.56</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
-      <c r="T13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
       <c r="U13" t="n">
-        <v>0.1354</v>
-      </c>
-      <c r="V13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.1366</v>
+      </c>
+      <c r="Z13" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="AA13" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X13" s="2" t="n">
+      <c r="AB13" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr">
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1646,54 +1834,68 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>715</v>
       </c>
-      <c r="N14" t="n">
-        <v>352</v>
-      </c>
       <c r="O14" t="n">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="P14" t="n">
-        <v>94.88</v>
+        <v>384</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
+        <v>90.09999999999999</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
-      <c r="T14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
       <c r="U14" t="n">
-        <v>0.1422</v>
-      </c>
-      <c r="V14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.1398</v>
+      </c>
+      <c r="Z14" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="AA14" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X14" s="2" t="n">
+      <c r="AB14" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr">
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1733,54 +1935,68 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>715</v>
       </c>
-      <c r="N15" t="n">
-        <v>342</v>
-      </c>
       <c r="O15" t="n">
-        <v>399</v>
+        <v>329</v>
       </c>
       <c r="P15" t="n">
-        <v>85.70999999999999</v>
+        <v>379</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="inlineStr"/>
+        <v>86.81</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
-      <c r="T15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
       <c r="U15" t="n">
-        <v>0.1382</v>
-      </c>
-      <c r="V15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="Z15" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="AA15" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X15" s="2" t="n">
+      <c r="AB15" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr">
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1820,54 +2036,68 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>715</v>
       </c>
-      <c r="N16" t="n">
-        <v>338</v>
-      </c>
       <c r="O16" t="n">
-        <v>399</v>
+        <v>326</v>
       </c>
       <c r="P16" t="n">
-        <v>84.70999999999999</v>
+        <v>392</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="inlineStr"/>
+        <v>83.16</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
-      <c r="T16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
       <c r="U16" t="n">
-        <v>0.1366</v>
-      </c>
-      <c r="V16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.1317</v>
+      </c>
+      <c r="Z16" s="2" t="n">
         <v>43718</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="AA16" s="2" t="n">
         <v>44083</v>
       </c>
-      <c r="X16" s="2" t="n">
+      <c r="AB16" s="2" t="n">
         <v>45930</v>
       </c>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr">
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1907,48 +2137,62 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>715</v>
       </c>
-      <c r="N17" t="n">
-        <v>343</v>
-      </c>
       <c r="O17" t="n">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="P17" t="n">
-        <v>88.40000000000001</v>
+        <v>383</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="inlineStr"/>
+        <v>91.38</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
-      <c r="T17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
       <c r="U17" t="n">
-        <v>0.1386</v>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.1414</v>
+      </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr">
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1988,54 +2232,68 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>715</v>
       </c>
-      <c r="N18" t="n">
-        <v>336</v>
-      </c>
       <c r="O18" t="n">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="P18" t="n">
-        <v>82.95999999999999</v>
+        <v>373</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="inlineStr"/>
+        <v>92.23</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
-      <c r="T18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
       <c r="U18" t="n">
-        <v>0.1358</v>
-      </c>
-      <c r="V18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="Z18" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="AA18" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X18" s="2" t="n">
+      <c r="AB18" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr">
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2075,62 +2333,76 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>715</v>
       </c>
-      <c r="N19" t="n">
-        <v>344</v>
-      </c>
       <c r="O19" t="n">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="P19" t="n">
-        <v>89.58</v>
+        <v>363</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="inlineStr"/>
+        <v>92.29000000000001</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
-      <c r="T19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
       <c r="U19" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="V19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.1354</v>
+      </c>
+      <c r="Z19" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="AA19" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="X19" s="2" t="n">
+      <c r="AB19" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y19" s="2" t="n">
+      <c r="AC19" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Z19" s="2" t="n">
+      <c r="AD19" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AA19" s="2" t="n">
+      <c r="AE19" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AB19" s="2" t="n">
+      <c r="AF19" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AG19" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2170,62 +2442,76 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>715</v>
       </c>
-      <c r="N20" t="n">
-        <v>357</v>
-      </c>
       <c r="O20" t="n">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="P20" t="n">
-        <v>93.20999999999999</v>
+        <v>373</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="inlineStr"/>
+        <v>92.48999999999999</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
-      <c r="T20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
       <c r="U20" t="n">
-        <v>0.1443</v>
-      </c>
-      <c r="V20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.1394</v>
+      </c>
+      <c r="Z20" s="2" t="n">
         <v>43545</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="AA20" s="2" t="n">
         <v>45708</v>
       </c>
-      <c r="X20" s="2" t="n">
+      <c r="AB20" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="Y20" s="2" t="n">
+      <c r="AC20" s="2" t="n">
         <v>44001</v>
       </c>
-      <c r="Z20" s="2" t="n">
+      <c r="AD20" s="2" t="n">
         <v>45184</v>
       </c>
-      <c r="AA20" s="2" t="n">
+      <c r="AE20" s="2" t="n">
         <v>44366</v>
       </c>
-      <c r="AB20" s="2" t="n">
+      <c r="AF20" s="2" t="n">
         <v>44731</v>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AG20" t="inlineStr">
         <is>
           <t>Failed to establish connection.</t>
         </is>
@@ -2265,54 +2551,68 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>715</v>
       </c>
-      <c r="N21" t="n">
-        <v>336</v>
-      </c>
       <c r="O21" t="n">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="P21" t="n">
-        <v>83.58</v>
+        <v>383</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="inlineStr"/>
+        <v>91.91</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
-      <c r="T21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
       <c r="U21" t="n">
-        <v>0.1358</v>
-      </c>
-      <c r="V21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.1422</v>
+      </c>
+      <c r="Z21" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W21" s="2" t="n">
+      <c r="AA21" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X21" s="2" t="n">
+      <c r="AB21" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr">
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2352,54 +2652,68 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>715</v>
       </c>
-      <c r="N22" t="n">
-        <v>321</v>
-      </c>
       <c r="O22" t="n">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="P22" t="n">
-        <v>86.29000000000001</v>
+        <v>374</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="inlineStr"/>
+        <v>89.3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
-      <c r="T22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
       <c r="U22" t="n">
-        <v>0.1297</v>
-      </c>
-      <c r="V22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="Z22" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W22" s="2" t="n">
+      <c r="AA22" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X22" s="2" t="n">
+      <c r="AB22" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr">
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2439,54 +2753,68 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>715</v>
       </c>
-      <c r="N23" t="n">
-        <v>325</v>
-      </c>
       <c r="O23" t="n">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="P23" t="n">
-        <v>87.13</v>
+        <v>403</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="inlineStr"/>
+        <v>84.12</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
-      <c r="T23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
       <c r="U23" t="n">
-        <v>0.1313</v>
-      </c>
-      <c r="V23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="Z23" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="AA23" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X23" s="2" t="n">
+      <c r="AB23" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr">
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2526,54 +2854,68 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>715</v>
       </c>
-      <c r="N24" t="n">
-        <v>337</v>
-      </c>
       <c r="O24" t="n">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="P24" t="n">
-        <v>85.31999999999999</v>
+        <v>386</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="inlineStr"/>
+        <v>92.23</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
-      <c r="T24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
       <c r="U24" t="n">
-        <v>0.1362</v>
-      </c>
-      <c r="V24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.1439</v>
+      </c>
+      <c r="Z24" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W24" s="2" t="n">
+      <c r="AA24" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X24" s="2" t="n">
+      <c r="AB24" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr">
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2613,62 +2955,76 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>715</v>
       </c>
-      <c r="N25" t="n">
-        <v>355</v>
-      </c>
       <c r="O25" t="n">
+        <v>352</v>
+      </c>
+      <c r="P25" t="n">
         <v>383</v>
       </c>
-      <c r="P25" t="n">
-        <v>92.69</v>
-      </c>
       <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="inlineStr"/>
+        <v>91.91</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
-      <c r="T25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
       <c r="U25" t="n">
-        <v>0.1435</v>
-      </c>
-      <c r="V25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.1422</v>
+      </c>
+      <c r="Z25" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="AA25" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="X25" s="2" t="n">
+      <c r="AB25" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y25" s="2" t="n">
+      <c r="AC25" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Z25" s="2" t="n">
+      <c r="AD25" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AA25" s="2" t="n">
+      <c r="AE25" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AB25" s="2" t="n">
+      <c r="AF25" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AG25" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2708,48 +3064,62 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>715</v>
       </c>
-      <c r="N26" t="n">
-        <v>342</v>
-      </c>
       <c r="O26" t="n">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="P26" t="n">
-        <v>91.2</v>
+        <v>399</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="inlineStr"/>
+        <v>85.95999999999999</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
-      <c r="T26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
       <c r="U26" t="n">
-        <v>0.1382</v>
-      </c>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.1386</v>
+      </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr">
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2789,54 +3159,68 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>715</v>
       </c>
-      <c r="N27" t="n">
-        <v>336</v>
-      </c>
       <c r="O27" t="n">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="P27" t="n">
-        <v>86.15000000000001</v>
+        <v>388</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="inlineStr"/>
+        <v>88.66</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
-      <c r="T27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
       <c r="U27" t="n">
-        <v>0.1358</v>
-      </c>
-      <c r="V27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="Z27" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W27" s="2" t="n">
+      <c r="AA27" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X27" s="2" t="n">
+      <c r="AB27" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr">
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2876,54 +3260,68 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>715</v>
       </c>
-      <c r="N28" t="n">
-        <v>350</v>
-      </c>
       <c r="O28" t="n">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="P28" t="n">
-        <v>90.44</v>
+        <v>369</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="inlineStr"/>
+        <v>88.62</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
-      <c r="T28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
       <c r="U28" t="n">
-        <v>0.1414</v>
-      </c>
-      <c r="V28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.1321</v>
+      </c>
+      <c r="Z28" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W28" s="2" t="n">
+      <c r="AA28" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X28" s="2" t="n">
+      <c r="AB28" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr">
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2963,54 +3361,68 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>715</v>
       </c>
-      <c r="N29" t="n">
-        <v>332</v>
-      </c>
       <c r="O29" t="n">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="P29" t="n">
-        <v>86.91</v>
+        <v>387</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="inlineStr"/>
+        <v>85.01000000000001</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
-      <c r="T29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
       <c r="U29" t="n">
-        <v>0.1342</v>
-      </c>
-      <c r="V29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="Z29" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W29" s="2" t="n">
+      <c r="AA29" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X29" s="2" t="n">
+      <c r="AB29" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr">
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3050,54 +3462,68 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>715</v>
       </c>
-      <c r="N30" t="n">
-        <v>322</v>
-      </c>
       <c r="O30" t="n">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="P30" t="n">
-        <v>84.95999999999999</v>
+        <v>391</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="inlineStr"/>
+        <v>84.14</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
-      <c r="T30" t="inlineStr"/>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
       <c r="U30" t="n">
-        <v>0.1301</v>
-      </c>
-      <c r="V30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="Z30" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W30" s="2" t="n">
+      <c r="AA30" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X30" s="2" t="n">
+      <c r="AB30" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr">
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3137,54 +3563,68 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>715</v>
       </c>
-      <c r="N31" t="n">
-        <v>336</v>
-      </c>
       <c r="O31" t="n">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="P31" t="n">
-        <v>83.17</v>
+        <v>368</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="inlineStr"/>
+        <v>93.20999999999999</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
-      <c r="T31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
       <c r="U31" t="n">
-        <v>0.1358</v>
-      </c>
-      <c r="V31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.1386</v>
+      </c>
+      <c r="Z31" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W31" s="2" t="n">
+      <c r="AA31" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X31" s="2" t="n">
+      <c r="AB31" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr">
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3224,54 +3664,68 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>715</v>
       </c>
-      <c r="N32" t="n">
-        <v>348</v>
-      </c>
       <c r="O32" t="n">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="P32" t="n">
-        <v>94.56999999999999</v>
+        <v>390</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
-      <c r="T32" t="inlineStr"/>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
       <c r="U32" t="n">
-        <v>0.1406</v>
-      </c>
-      <c r="V32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.1418</v>
+      </c>
+      <c r="Z32" s="2" t="n">
         <v>43718</v>
       </c>
-      <c r="W32" s="2" t="n">
+      <c r="AA32" s="2" t="n">
         <v>44083</v>
       </c>
-      <c r="X32" s="2" t="n">
+      <c r="AB32" s="2" t="n">
         <v>45930</v>
       </c>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr">
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3311,54 +3765,68 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>715</v>
       </c>
-      <c r="N33" t="n">
-        <v>332</v>
-      </c>
       <c r="O33" t="n">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="P33" t="n">
-        <v>89.25</v>
+        <v>381</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="inlineStr"/>
+        <v>86.88</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
-      <c r="T33" t="inlineStr"/>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
       <c r="U33" t="n">
-        <v>0.1342</v>
-      </c>
-      <c r="V33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.1338</v>
+      </c>
+      <c r="Z33" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W33" s="2" t="n">
+      <c r="AA33" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X33" s="2" t="n">
+      <c r="AB33" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr">
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3398,54 +3866,68 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>715</v>
       </c>
-      <c r="N34" t="n">
-        <v>325</v>
-      </c>
       <c r="O34" t="n">
-        <v>388</v>
+        <v>323</v>
       </c>
       <c r="P34" t="n">
-        <v>83.76000000000001</v>
+        <v>384</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="inlineStr"/>
+        <v>84.11</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
-      <c r="T34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
       <c r="U34" t="n">
-        <v>0.1313</v>
-      </c>
-      <c r="V34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.1305</v>
+      </c>
+      <c r="Z34" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W34" s="2" t="n">
+      <c r="AA34" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X34" s="2" t="n">
+      <c r="AB34" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr">
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3485,54 +3967,68 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>715</v>
       </c>
-      <c r="N35" t="n">
-        <v>331</v>
-      </c>
       <c r="O35" t="n">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="P35" t="n">
-        <v>83.59</v>
+        <v>389</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="inlineStr"/>
+        <v>85.34999999999999</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
-      <c r="T35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
       <c r="U35" t="n">
-        <v>0.1338</v>
-      </c>
-      <c r="V35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.1342</v>
+      </c>
+      <c r="Z35" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W35" s="2" t="n">
+      <c r="AA35" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X35" s="2" t="n">
+      <c r="AB35" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr">
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3572,62 +4068,76 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>715</v>
       </c>
-      <c r="N36" t="n">
-        <v>354</v>
-      </c>
       <c r="O36" t="n">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="P36" t="n">
-        <v>94.91</v>
+        <v>395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="inlineStr"/>
+        <v>85.06</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
-      <c r="T36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
       <c r="U36" t="n">
-        <v>0.1431</v>
-      </c>
-      <c r="V36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.1358</v>
+      </c>
+      <c r="Z36" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="W36" s="2" t="n">
+      <c r="AA36" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="X36" s="2" t="n">
+      <c r="AB36" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y36" s="2" t="n">
+      <c r="AC36" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Z36" s="2" t="n">
+      <c r="AD36" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AA36" s="2" t="n">
+      <c r="AE36" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AB36" s="2" t="n">
+      <c r="AF36" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AC36" t="inlineStr">
+      <c r="AG36" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3667,62 +4177,76 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="b">
-        <v>1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>715</v>
       </c>
-      <c r="N37" t="n">
-        <v>330</v>
-      </c>
       <c r="O37" t="n">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="P37" t="n">
-        <v>87.06999999999999</v>
+        <v>389</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="inlineStr"/>
+        <v>89.97</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
-      <c r="T37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
       <c r="U37" t="n">
-        <v>0.1334</v>
-      </c>
-      <c r="V37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.1414</v>
+      </c>
+      <c r="Z37" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="W37" s="2" t="n">
+      <c r="AA37" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="X37" s="2" t="n">
+      <c r="AB37" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y37" s="2" t="n">
+      <c r="AC37" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Z37" s="2" t="n">
+      <c r="AD37" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AA37" s="2" t="n">
+      <c r="AE37" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AB37" s="2" t="n">
+      <c r="AF37" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AC37" t="inlineStr">
+      <c r="AG37" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3762,62 +4286,76 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>715</v>
       </c>
-      <c r="N38" t="n">
-        <v>347</v>
-      </c>
       <c r="O38" t="n">
-        <v>392</v>
+        <v>333</v>
       </c>
       <c r="P38" t="n">
-        <v>88.52</v>
+        <v>380</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="inlineStr"/>
+        <v>87.63</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
-      <c r="T38" t="inlineStr"/>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
       <c r="U38" t="n">
-        <v>0.1402</v>
-      </c>
-      <c r="V38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.1346</v>
+      </c>
+      <c r="Z38" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="W38" s="2" t="n">
+      <c r="AA38" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="X38" s="2" t="n">
+      <c r="AB38" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y38" s="2" t="n">
+      <c r="AC38" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Z38" s="2" t="n">
+      <c r="AD38" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AA38" s="2" t="n">
+      <c r="AE38" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AB38" s="2" t="n">
+      <c r="AF38" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AC38" t="inlineStr">
+      <c r="AG38" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3857,54 +4395,68 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>715</v>
       </c>
-      <c r="N39" t="n">
-        <v>357</v>
-      </c>
       <c r="O39" t="n">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="P39" t="n">
-        <v>93.20999999999999</v>
+        <v>368</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="inlineStr"/>
+        <v>89.13</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
-      <c r="T39" t="inlineStr"/>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
       <c r="U39" t="n">
-        <v>0.1443</v>
-      </c>
-      <c r="V39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.1325</v>
+      </c>
+      <c r="Z39" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W39" s="2" t="n">
+      <c r="AA39" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X39" s="2" t="n">
+      <c r="AB39" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr">
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3944,54 +4496,68 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="b">
-        <v>1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>715</v>
       </c>
-      <c r="N40" t="n">
-        <v>332</v>
-      </c>
       <c r="O40" t="n">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="P40" t="n">
-        <v>85.79000000000001</v>
+        <v>408</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="inlineStr"/>
+        <v>85.05</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
-      <c r="T40" t="inlineStr"/>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
       <c r="U40" t="n">
-        <v>0.1342</v>
-      </c>
-      <c r="V40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.1402</v>
+      </c>
+      <c r="Z40" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W40" s="2" t="n">
+      <c r="AA40" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X40" s="2" t="n">
+      <c r="AB40" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr">
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4031,48 +4597,62 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="b">
-        <v>1</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>715</v>
       </c>
-      <c r="N41" t="n">
-        <v>351</v>
-      </c>
       <c r="O41" t="n">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="P41" t="n">
-        <v>88.64</v>
+        <v>375</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="inlineStr"/>
+        <v>94.13</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
-      <c r="T41" t="inlineStr"/>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
       <c r="U41" t="n">
-        <v>0.1418</v>
-      </c>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.1426</v>
+      </c>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr">
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4112,54 +4692,68 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="b">
-        <v>1</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>715</v>
       </c>
-      <c r="N42" t="n">
-        <v>323</v>
-      </c>
       <c r="O42" t="n">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="P42" t="n">
-        <v>88.48999999999999</v>
+        <v>375</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="inlineStr"/>
+        <v>89.87</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
-      <c r="T42" t="inlineStr"/>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
       <c r="U42" t="n">
-        <v>0.1305</v>
-      </c>
-      <c r="V42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.1362</v>
+      </c>
+      <c r="Z42" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W42" s="2" t="n">
+      <c r="AA42" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X42" s="2" t="n">
+      <c r="AB42" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr">
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4199,62 +4793,76 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="b">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>715</v>
       </c>
-      <c r="N43" t="n">
-        <v>330</v>
-      </c>
       <c r="O43" t="n">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="P43" t="n">
-        <v>87.77</v>
+        <v>379</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="inlineStr"/>
+        <v>92.08</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
-      <c r="T43" t="inlineStr"/>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
       <c r="U43" t="n">
-        <v>0.1334</v>
-      </c>
-      <c r="V43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="Z43" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="W43" s="2" t="n">
+      <c r="AA43" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="X43" s="2" t="n">
+      <c r="AB43" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y43" s="2" t="n">
+      <c r="AC43" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Z43" s="2" t="n">
+      <c r="AD43" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AA43" s="2" t="n">
+      <c r="AE43" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AB43" s="2" t="n">
+      <c r="AF43" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AC43" t="inlineStr">
+      <c r="AG43" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4294,54 +4902,68 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="b">
-        <v>1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>715</v>
       </c>
-      <c r="N44" t="n">
-        <v>348</v>
-      </c>
       <c r="O44" t="n">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="P44" t="n">
-        <v>93.8</v>
+        <v>388</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="inlineStr"/>
+        <v>86.08</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
-      <c r="T44" t="inlineStr"/>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
       <c r="U44" t="n">
-        <v>0.1406</v>
-      </c>
-      <c r="V44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="Z44" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W44" s="2" t="n">
+      <c r="AA44" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X44" s="2" t="n">
+      <c r="AB44" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr">
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4381,54 +5003,68 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="b">
-        <v>1</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>715</v>
       </c>
-      <c r="N45" t="n">
-        <v>340</v>
-      </c>
       <c r="O45" t="n">
-        <v>391</v>
+        <v>324</v>
       </c>
       <c r="P45" t="n">
-        <v>86.95999999999999</v>
+        <v>392</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="inlineStr"/>
+        <v>82.65000000000001</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
-      <c r="T45" t="inlineStr"/>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
       <c r="U45" t="n">
-        <v>0.1374</v>
-      </c>
-      <c r="V45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="Z45" s="2" t="n">
         <v>44252</v>
       </c>
-      <c r="W45" s="2" t="n">
+      <c r="AA45" s="2" t="n">
         <v>44617</v>
       </c>
-      <c r="X45" s="2" t="n">
+      <c r="AB45" s="2" t="n">
         <v>46446</v>
       </c>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr">
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4468,62 +5104,76 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="b">
-        <v>1</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>715</v>
       </c>
-      <c r="N46" t="n">
-        <v>339</v>
-      </c>
       <c r="O46" t="n">
-        <v>402</v>
+        <v>324</v>
       </c>
       <c r="P46" t="n">
-        <v>84.33</v>
+        <v>388</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="inlineStr"/>
+        <v>83.51000000000001</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
-      <c r="T46" t="inlineStr"/>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
       <c r="U46" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="V46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.1309</v>
+      </c>
+      <c r="Z46" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="W46" s="2" t="n">
+      <c r="AA46" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="X46" s="2" t="n">
+      <c r="AB46" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y46" s="2" t="n">
+      <c r="AC46" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Z46" s="2" t="n">
+      <c r="AD46" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AA46" s="2" t="n">
+      <c r="AE46" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AB46" s="2" t="n">
+      <c r="AF46" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AC46" t="inlineStr">
+      <c r="AG46" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4563,54 +5213,68 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="b">
-        <v>1</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>715</v>
       </c>
-      <c r="N47" t="n">
-        <v>348</v>
-      </c>
       <c r="O47" t="n">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="P47" t="n">
-        <v>92.06</v>
+        <v>401</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" t="inlineStr"/>
+        <v>85.54000000000001</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
       <c r="S47" t="n">
         <v>0</v>
       </c>
-      <c r="T47" t="inlineStr"/>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
       <c r="U47" t="n">
-        <v>0.1406</v>
-      </c>
-      <c r="V47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.1386</v>
+      </c>
+      <c r="Z47" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W47" s="2" t="n">
+      <c r="AA47" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X47" s="2" t="n">
+      <c r="AB47" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr">
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4650,62 +5314,76 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="b">
-        <v>1</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>715</v>
       </c>
-      <c r="N48" t="n">
-        <v>348</v>
-      </c>
       <c r="O48" t="n">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="P48" t="n">
-        <v>88.55</v>
+        <v>381</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" t="inlineStr"/>
+        <v>89.5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
       <c r="S48" t="n">
         <v>0</v>
       </c>
-      <c r="T48" t="inlineStr"/>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
       <c r="U48" t="n">
-        <v>0.1406</v>
-      </c>
-      <c r="V48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.1378</v>
+      </c>
+      <c r="Z48" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="W48" s="2" t="n">
+      <c r="AA48" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="X48" s="2" t="n">
+      <c r="AB48" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y48" s="2" t="n">
+      <c r="AC48" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="Z48" s="2" t="n">
+      <c r="AD48" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AA48" s="2" t="n">
+      <c r="AE48" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AB48" s="2" t="n">
+      <c r="AF48" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AC48" t="inlineStr">
+      <c r="AG48" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4745,54 +5423,68 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="b">
-        <v>1</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>715</v>
       </c>
-      <c r="N49" t="n">
-        <v>332</v>
-      </c>
       <c r="O49" t="n">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="P49" t="n">
-        <v>86.68000000000001</v>
+        <v>393</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" t="inlineStr"/>
+        <v>85.75</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
       <c r="S49" t="n">
         <v>0</v>
       </c>
-      <c r="T49" t="inlineStr"/>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
       <c r="U49" t="n">
-        <v>0.1342</v>
-      </c>
-      <c r="V49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.1362</v>
+      </c>
+      <c r="Z49" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="W49" s="2" t="n">
+      <c r="AA49" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="X49" s="2" t="n">
+      <c r="AB49" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr">
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>

--- a/FAST_BACKEND/device_report.xlsx
+++ b/FAST_BACKEND/device_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AK49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,115 +490,135 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>UP Link Interfaces</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Interface Types</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Stack</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>PSU Count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>PSU Model</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Total Power Capacity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Power Output (W)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Power Input (W)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Energy Efficiency (%)</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Power Consumption Ratio (W/Mbps)</t>
-        </is>
-      </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>RX (Mbs)</t>
+          <t>Energy Efficiency%(Pout/Pin)Power Consumption Ratio(Pin/DC)(W/MB)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Data Traffic Consumed (Mbs)</t>
+          <t>Input Packets</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>TX (Mbs)</t>
+          <t>Output Packets</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>RX (MB)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>TX (MB)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Data Traffic Consumed (MB)</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>Data Traffic Allocated (Mbs)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Energy_Efficiency(DataTraffic%)</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>DataTraffic Utilization%</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Energy_Efficiency(DataTraffic(DC/Pin))(MB/W)</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>DataTraffic Utilization%(DC/DA)</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Carbon Emission (kgCO₂)</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Carbon Emission (tonCO₂)</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>HW End-of-Life (EoL)</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>HW End-of-Support (EoS)</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>HW Last Day of Support</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>HW Last Date of RFA</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>HW Security Support EoS</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>SW Maintenance EoL</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>SW Vulnerability Support EoS</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Error Message</t>
         </is>
@@ -635,35 +655,29 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>715</v>
       </c>
-      <c r="O2" t="n">
-        <v>346</v>
-      </c>
-      <c r="P2" t="n">
-        <v>395</v>
-      </c>
       <c r="Q2" t="n">
-        <v>87.59</v>
+        <v>353</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
         <v>0</v>
       </c>
@@ -680,16 +694,28 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1398</v>
-      </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>90.51000000000001</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.1426</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr">
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -726,35 +752,29 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>715</v>
       </c>
-      <c r="O3" t="n">
-        <v>342</v>
-      </c>
-      <c r="P3" t="n">
-        <v>385</v>
-      </c>
       <c r="Q3" t="n">
-        <v>88.83</v>
+        <v>348</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
         <v>0</v>
       </c>
@@ -771,16 +791,28 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1382</v>
-      </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.1406</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr">
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -817,35 +849,29 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>715</v>
       </c>
-      <c r="O4" t="n">
-        <v>333</v>
-      </c>
-      <c r="P4" t="n">
-        <v>379</v>
-      </c>
       <c r="Q4" t="n">
-        <v>87.86</v>
+        <v>334</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
         <v>0</v>
       </c>
@@ -862,16 +888,28 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1346</v>
-      </c>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr">
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -908,35 +946,29 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>715</v>
       </c>
-      <c r="O5" t="n">
-        <v>323</v>
-      </c>
-      <c r="P5" t="n">
-        <v>385</v>
-      </c>
       <c r="Q5" t="n">
-        <v>83.90000000000001</v>
+        <v>345</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
         <v>0</v>
       </c>
@@ -953,16 +985,28 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1305</v>
-      </c>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>87.56</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.1394</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr">
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1003,35 +1047,29 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr">
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>715</v>
       </c>
-      <c r="O6" t="n">
-        <v>336</v>
-      </c>
-      <c r="P6" t="n">
-        <v>370</v>
-      </c>
       <c r="Q6" t="n">
-        <v>90.81</v>
+        <v>341</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
         <v>0</v>
       </c>
@@ -1048,30 +1086,42 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1358</v>
-      </c>
-      <c r="Z6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>86.77</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1378</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2" t="n">
         <v>43545</v>
       </c>
-      <c r="AA6" s="2" t="n">
+      <c r="AE6" s="2" t="n">
         <v>45708</v>
       </c>
-      <c r="AB6" s="2" t="n">
+      <c r="AF6" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="AC6" s="2" t="n">
+      <c r="AG6" s="2" t="n">
         <v>44001</v>
       </c>
-      <c r="AD6" s="2" t="n">
+      <c r="AH6" s="2" t="n">
         <v>45184</v>
       </c>
-      <c r="AE6" s="2" t="n">
+      <c r="AI6" s="2" t="n">
         <v>44366</v>
       </c>
-      <c r="AF6" s="2" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>44731</v>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1112,35 +1162,29 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>715</v>
       </c>
-      <c r="O7" t="n">
-        <v>343</v>
-      </c>
-      <c r="P7" t="n">
-        <v>363</v>
-      </c>
       <c r="Q7" t="n">
-        <v>94.48999999999999</v>
+        <v>332</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
         <v>0</v>
       </c>
@@ -1157,30 +1201,42 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1386</v>
-      </c>
-      <c r="Z7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>84.05</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.1342</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AA7" s="2" t="n">
+      <c r="AE7" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AB7" s="2" t="n">
+      <c r="AF7" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC7" s="2" t="n">
+      <c r="AG7" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AD7" s="2" t="n">
+      <c r="AH7" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AE7" s="2" t="n">
+      <c r="AI7" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AF7" s="2" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AG7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1221,35 +1277,29 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>715</v>
       </c>
-      <c r="O8" t="n">
-        <v>339</v>
-      </c>
-      <c r="P8" t="n">
-        <v>365</v>
-      </c>
       <c r="Q8" t="n">
-        <v>92.88</v>
+        <v>340</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
         <v>0</v>
       </c>
@@ -1266,22 +1316,34 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="Z8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>86.08</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.1374</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA8" s="2" t="n">
+      <c r="AE8" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB8" s="2" t="n">
+      <c r="AF8" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr">
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1322,35 +1384,29 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>715</v>
       </c>
-      <c r="O9" t="n">
-        <v>353</v>
-      </c>
-      <c r="P9" t="n">
-        <v>382</v>
-      </c>
       <c r="Q9" t="n">
-        <v>92.41</v>
+        <v>355</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
         <v>0</v>
       </c>
@@ -1367,22 +1423,34 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1426</v>
-      </c>
-      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>96.20999999999999</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.1435</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA9" s="2" t="n">
+      <c r="AE9" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB9" s="2" t="n">
+      <c r="AF9" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr">
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1423,35 +1491,29 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>715</v>
       </c>
-      <c r="O10" t="n">
-        <v>342</v>
-      </c>
-      <c r="P10" t="n">
-        <v>383</v>
-      </c>
       <c r="Q10" t="n">
-        <v>89.3</v>
+        <v>352</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
         <v>0</v>
       </c>
@@ -1468,30 +1530,42 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1382</v>
-      </c>
-      <c r="Z10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>92.15000000000001</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.1422</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AA10" s="2" t="n">
+      <c r="AE10" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AB10" s="2" t="n">
+      <c r="AF10" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC10" s="2" t="n">
+      <c r="AG10" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AD10" s="2" t="n">
+      <c r="AH10" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AE10" s="2" t="n">
+      <c r="AI10" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AF10" s="2" t="n">
+      <c r="AJ10" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1532,35 +1606,29 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr">
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>715</v>
       </c>
-      <c r="O11" t="n">
-        <v>356</v>
-      </c>
-      <c r="P11" t="n">
-        <v>367</v>
-      </c>
       <c r="Q11" t="n">
-        <v>97</v>
+        <v>350</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
         <v>0</v>
       </c>
@@ -1577,22 +1645,34 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1439</v>
-      </c>
-      <c r="Z11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>94.34</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.1414</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA11" s="2" t="n">
+      <c r="AE11" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB11" s="2" t="n">
+      <c r="AF11" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr">
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1633,35 +1713,29 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr">
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>715</v>
       </c>
-      <c r="O12" t="n">
-        <v>349</v>
-      </c>
-      <c r="P12" t="n">
-        <v>399</v>
-      </c>
       <c r="Q12" t="n">
-        <v>87.47</v>
+        <v>327</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
         <v>0</v>
       </c>
@@ -1678,22 +1752,34 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="Z12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>86.73999999999999</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.1321</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA12" s="2" t="n">
+      <c r="AE12" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB12" s="2" t="n">
+      <c r="AF12" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr">
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1734,35 +1820,29 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr">
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
         <v>715</v>
       </c>
-      <c r="O13" t="n">
-        <v>338</v>
-      </c>
-      <c r="P13" t="n">
-        <v>386</v>
-      </c>
       <c r="Q13" t="n">
-        <v>87.56</v>
+        <v>330</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
         <v>0</v>
       </c>
@@ -1779,22 +1859,34 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.1366</v>
-      </c>
-      <c r="Z13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>86.39</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.1334</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA13" s="2" t="n">
+      <c r="AE13" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB13" s="2" t="n">
+      <c r="AF13" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr">
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1835,35 +1927,29 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr">
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>715</v>
       </c>
-      <c r="O14" t="n">
-        <v>346</v>
-      </c>
-      <c r="P14" t="n">
-        <v>384</v>
-      </c>
       <c r="Q14" t="n">
-        <v>90.09999999999999</v>
+        <v>341</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
         <v>0</v>
       </c>
@@ -1880,22 +1966,34 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.1398</v>
-      </c>
-      <c r="Z14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.1378</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA14" s="2" t="n">
+      <c r="AE14" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB14" s="2" t="n">
+      <c r="AF14" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr">
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1936,35 +2034,29 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr">
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
         <v>715</v>
       </c>
-      <c r="O15" t="n">
-        <v>329</v>
-      </c>
-      <c r="P15" t="n">
-        <v>379</v>
-      </c>
       <c r="Q15" t="n">
-        <v>86.81</v>
+        <v>331</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
         <v>0</v>
       </c>
@@ -1981,22 +2073,34 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1329</v>
-      </c>
-      <c r="Z15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>82.75</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.1338</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA15" s="2" t="n">
+      <c r="AE15" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB15" s="2" t="n">
+      <c r="AF15" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr">
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2037,35 +2141,29 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr">
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N16" t="n">
+      <c r="P16" t="n">
         <v>715</v>
       </c>
-      <c r="O16" t="n">
-        <v>326</v>
-      </c>
-      <c r="P16" t="n">
-        <v>392</v>
-      </c>
       <c r="Q16" t="n">
-        <v>83.16</v>
+        <v>335</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
         <v>0</v>
       </c>
@@ -2082,22 +2180,34 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.1317</v>
-      </c>
-      <c r="Z16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.1354</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2" t="n">
         <v>43718</v>
       </c>
-      <c r="AA16" s="2" t="n">
+      <c r="AE16" s="2" t="n">
         <v>44083</v>
       </c>
-      <c r="AB16" s="2" t="n">
+      <c r="AF16" s="2" t="n">
         <v>45930</v>
       </c>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr">
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2138,35 +2248,29 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr">
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N17" t="n">
+      <c r="P17" t="n">
         <v>715</v>
       </c>
-      <c r="O17" t="n">
-        <v>350</v>
-      </c>
-      <c r="P17" t="n">
-        <v>383</v>
-      </c>
       <c r="Q17" t="n">
-        <v>91.38</v>
+        <v>338</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="n">
         <v>0</v>
       </c>
@@ -2183,16 +2287,28 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1414</v>
-      </c>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>86.89</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.1366</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr">
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2233,35 +2349,29 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr">
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N18" t="n">
+      <c r="P18" t="n">
         <v>715</v>
       </c>
-      <c r="O18" t="n">
-        <v>344</v>
-      </c>
-      <c r="P18" t="n">
-        <v>373</v>
-      </c>
       <c r="Q18" t="n">
-        <v>92.23</v>
+        <v>341</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
         <v>0</v>
       </c>
@@ -2278,22 +2388,34 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="Z18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>88.11</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.1378</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA18" s="2" t="n">
+      <c r="AE18" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB18" s="2" t="n">
+      <c r="AF18" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr">
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2334,35 +2456,29 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr">
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N19" t="n">
+      <c r="P19" t="n">
         <v>715</v>
       </c>
-      <c r="O19" t="n">
-        <v>335</v>
-      </c>
-      <c r="P19" t="n">
-        <v>363</v>
-      </c>
       <c r="Q19" t="n">
-        <v>92.29000000000001</v>
+        <v>354</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
         <v>0</v>
       </c>
@@ -2379,30 +2495,42 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.1354</v>
-      </c>
-      <c r="Z19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>95.93000000000001</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.1431</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AA19" s="2" t="n">
+      <c r="AE19" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AB19" s="2" t="n">
+      <c r="AF19" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC19" s="2" t="n">
+      <c r="AG19" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AD19" s="2" t="n">
+      <c r="AH19" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AE19" s="2" t="n">
+      <c r="AI19" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AF19" s="2" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AG19" t="inlineStr">
+      <c r="AK19" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2443,35 +2571,29 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr">
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N20" t="n">
+      <c r="P20" t="n">
         <v>715</v>
       </c>
-      <c r="O20" t="n">
-        <v>345</v>
-      </c>
-      <c r="P20" t="n">
-        <v>373</v>
-      </c>
       <c r="Q20" t="n">
-        <v>92.48999999999999</v>
+        <v>330</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="n">
         <v>0</v>
       </c>
@@ -2488,30 +2610,42 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.1394</v>
-      </c>
-      <c r="Z20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>81.08</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.1334</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2" t="n">
         <v>43545</v>
       </c>
-      <c r="AA20" s="2" t="n">
+      <c r="AE20" s="2" t="n">
         <v>45708</v>
       </c>
-      <c r="AB20" s="2" t="n">
+      <c r="AF20" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="AC20" s="2" t="n">
+      <c r="AG20" s="2" t="n">
         <v>44001</v>
       </c>
-      <c r="AD20" s="2" t="n">
+      <c r="AH20" s="2" t="n">
         <v>45184</v>
       </c>
-      <c r="AE20" s="2" t="n">
+      <c r="AI20" s="2" t="n">
         <v>44366</v>
       </c>
-      <c r="AF20" s="2" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>44731</v>
       </c>
-      <c r="AG20" t="inlineStr">
+      <c r="AK20" t="inlineStr">
         <is>
           <t>Failed to establish connection.</t>
         </is>
@@ -2552,35 +2686,29 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr">
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N21" t="n">
+      <c r="P21" t="n">
         <v>715</v>
       </c>
-      <c r="O21" t="n">
-        <v>352</v>
-      </c>
-      <c r="P21" t="n">
-        <v>383</v>
-      </c>
       <c r="Q21" t="n">
-        <v>91.91</v>
+        <v>349</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="n">
         <v>0</v>
       </c>
@@ -2597,22 +2725,34 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.1422</v>
-      </c>
-      <c r="Z21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>87.69</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA21" s="2" t="n">
+      <c r="AE21" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB21" s="2" t="n">
+      <c r="AF21" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr">
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2653,35 +2793,29 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr">
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N22" t="n">
+      <c r="P22" t="n">
         <v>715</v>
       </c>
-      <c r="O22" t="n">
-        <v>334</v>
-      </c>
-      <c r="P22" t="n">
-        <v>374</v>
-      </c>
       <c r="Q22" t="n">
-        <v>89.3</v>
+        <v>340</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="n">
         <v>0</v>
       </c>
@@ -2698,22 +2832,34 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="Z22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>90.19</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.1374</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA22" s="2" t="n">
+      <c r="AE22" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB22" s="2" t="n">
+      <c r="AF22" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr">
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2754,35 +2900,29 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr">
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N23" t="n">
+      <c r="P23" t="n">
         <v>715</v>
       </c>
-      <c r="O23" t="n">
-        <v>339</v>
-      </c>
-      <c r="P23" t="n">
-        <v>403</v>
-      </c>
       <c r="Q23" t="n">
-        <v>84.12</v>
+        <v>344</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="n">
         <v>0</v>
       </c>
@@ -2799,22 +2939,34 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="Z23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>91.73</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA23" s="2" t="n">
+      <c r="AE23" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB23" s="2" t="n">
+      <c r="AF23" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr">
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2855,35 +3007,29 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr">
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
         <v>715</v>
       </c>
-      <c r="O24" t="n">
-        <v>356</v>
-      </c>
-      <c r="P24" t="n">
-        <v>386</v>
-      </c>
       <c r="Q24" t="n">
-        <v>92.23</v>
+        <v>346</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="n">
         <v>0</v>
       </c>
@@ -2900,22 +3046,34 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.1439</v>
-      </c>
-      <c r="Z24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>85.86</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.1398</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA24" s="2" t="n">
+      <c r="AE24" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB24" s="2" t="n">
+      <c r="AF24" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr">
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2956,35 +3114,29 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr">
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N25" t="n">
+      <c r="P25" t="n">
         <v>715</v>
       </c>
-      <c r="O25" t="n">
-        <v>352</v>
-      </c>
-      <c r="P25" t="n">
-        <v>383</v>
-      </c>
       <c r="Q25" t="n">
-        <v>91.91</v>
+        <v>351</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="n">
         <v>0</v>
       </c>
@@ -3001,30 +3153,42 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.1422</v>
-      </c>
-      <c r="Z25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>89.54000000000001</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.1418</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AA25" s="2" t="n">
+      <c r="AE25" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AB25" s="2" t="n">
+      <c r="AF25" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC25" s="2" t="n">
+      <c r="AG25" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AD25" s="2" t="n">
+      <c r="AH25" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AE25" s="2" t="n">
+      <c r="AI25" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AF25" s="2" t="n">
+      <c r="AJ25" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AG25" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3065,35 +3229,29 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr">
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N26" t="n">
+      <c r="P26" t="n">
         <v>715</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Q26" t="n">
         <v>343</v>
       </c>
-      <c r="P26" t="n">
-        <v>399</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>85.95999999999999</v>
-      </c>
       <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="n">
         <v>0</v>
       </c>
@@ -3110,16 +3268,28 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
         <v>0.1386</v>
       </c>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr">
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3160,35 +3330,29 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr">
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N27" t="n">
+      <c r="P27" t="n">
         <v>715</v>
       </c>
-      <c r="O27" t="n">
-        <v>344</v>
-      </c>
-      <c r="P27" t="n">
-        <v>388</v>
-      </c>
       <c r="Q27" t="n">
-        <v>88.66</v>
+        <v>338</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="n">
         <v>0</v>
       </c>
@@ -3205,22 +3369,34 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="Z27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>86.89</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.1366</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA27" s="2" t="n">
+      <c r="AE27" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB27" s="2" t="n">
+      <c r="AF27" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr">
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3261,35 +3437,29 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr">
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N28" t="n">
+      <c r="P28" t="n">
         <v>715</v>
       </c>
-      <c r="O28" t="n">
-        <v>327</v>
-      </c>
-      <c r="P28" t="n">
-        <v>369</v>
-      </c>
       <c r="Q28" t="n">
-        <v>88.62</v>
+        <v>337</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="n">
         <v>0</v>
       </c>
@@ -3306,22 +3476,34 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.1321</v>
-      </c>
-      <c r="Z28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>87.31</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.1362</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA28" s="2" t="n">
+      <c r="AE28" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB28" s="2" t="n">
+      <c r="AF28" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr">
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3362,35 +3544,29 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr">
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N29" t="n">
+      <c r="P29" t="n">
         <v>715</v>
       </c>
-      <c r="O29" t="n">
-        <v>329</v>
-      </c>
-      <c r="P29" t="n">
-        <v>387</v>
-      </c>
       <c r="Q29" t="n">
-        <v>85.01000000000001</v>
+        <v>337</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="n">
         <v>0</v>
       </c>
@@ -3407,22 +3583,34 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.1329</v>
-      </c>
-      <c r="Z29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>86.86</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.1362</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA29" s="2" t="n">
+      <c r="AE29" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB29" s="2" t="n">
+      <c r="AF29" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr">
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3463,35 +3651,29 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr">
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N30" t="n">
+      <c r="P30" t="n">
         <v>715</v>
       </c>
-      <c r="O30" t="n">
-        <v>329</v>
-      </c>
-      <c r="P30" t="n">
-        <v>391</v>
-      </c>
       <c r="Q30" t="n">
-        <v>84.14</v>
+        <v>344</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="n">
         <v>0</v>
       </c>
@@ -3508,22 +3690,34 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.1329</v>
-      </c>
-      <c r="Z30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>84.94</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA30" s="2" t="n">
+      <c r="AE30" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB30" s="2" t="n">
+      <c r="AF30" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr">
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3564,35 +3758,29 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr">
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N31" t="n">
+      <c r="P31" t="n">
         <v>715</v>
       </c>
-      <c r="O31" t="n">
-        <v>343</v>
-      </c>
-      <c r="P31" t="n">
-        <v>368</v>
-      </c>
       <c r="Q31" t="n">
-        <v>93.20999999999999</v>
+        <v>342</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="n">
         <v>0</v>
       </c>
@@ -3609,22 +3797,34 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.1386</v>
-      </c>
-      <c r="Z31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>89.06</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.1382</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA31" s="2" t="n">
+      <c r="AE31" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB31" s="2" t="n">
+      <c r="AF31" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr">
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3665,35 +3865,29 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr">
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N32" t="n">
+      <c r="P32" t="n">
         <v>715</v>
       </c>
-      <c r="O32" t="n">
-        <v>351</v>
-      </c>
-      <c r="P32" t="n">
-        <v>390</v>
-      </c>
       <c r="Q32" t="n">
-        <v>90</v>
+        <v>336</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="n">
         <v>0</v>
       </c>
@@ -3710,22 +3904,34 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.1418</v>
-      </c>
-      <c r="Z32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>88.89</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.1358</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="2" t="n">
         <v>43718</v>
       </c>
-      <c r="AA32" s="2" t="n">
+      <c r="AE32" s="2" t="n">
         <v>44083</v>
       </c>
-      <c r="AB32" s="2" t="n">
+      <c r="AF32" s="2" t="n">
         <v>45930</v>
       </c>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr">
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3766,35 +3972,29 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr">
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N33" t="n">
+      <c r="P33" t="n">
         <v>715</v>
       </c>
-      <c r="O33" t="n">
-        <v>331</v>
-      </c>
-      <c r="P33" t="n">
-        <v>381</v>
-      </c>
       <c r="Q33" t="n">
-        <v>86.88</v>
+        <v>346</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="n">
         <v>0</v>
       </c>
@@ -3811,22 +4011,34 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.1338</v>
-      </c>
-      <c r="Z33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>88.72</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.1398</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA33" s="2" t="n">
+      <c r="AE33" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB33" s="2" t="n">
+      <c r="AF33" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr">
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3867,35 +4079,29 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr">
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N34" t="n">
+      <c r="P34" t="n">
         <v>715</v>
       </c>
-      <c r="O34" t="n">
-        <v>323</v>
-      </c>
-      <c r="P34" t="n">
-        <v>384</v>
-      </c>
       <c r="Q34" t="n">
-        <v>84.11</v>
+        <v>329</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="n">
         <v>0</v>
       </c>
@@ -3912,22 +4118,34 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.1305</v>
-      </c>
-      <c r="Z34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>86.81</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA34" s="2" t="n">
+      <c r="AE34" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB34" s="2" t="n">
+      <c r="AF34" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr">
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3968,35 +4186,29 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr">
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>715</v>
       </c>
-      <c r="O35" t="n">
+      <c r="Q35" t="n">
         <v>332</v>
       </c>
-      <c r="P35" t="n">
-        <v>389</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>85.34999999999999</v>
-      </c>
       <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="n">
         <v>0</v>
       </c>
@@ -4013,22 +4225,34 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>86.23</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
         <v>0.1342</v>
       </c>
-      <c r="Z35" s="2" t="n">
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA35" s="2" t="n">
+      <c r="AE35" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB35" s="2" t="n">
+      <c r="AF35" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr">
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4069,35 +4293,29 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr">
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N36" t="n">
+      <c r="P36" t="n">
         <v>715</v>
       </c>
-      <c r="O36" t="n">
-        <v>336</v>
-      </c>
-      <c r="P36" t="n">
-        <v>395</v>
-      </c>
       <c r="Q36" t="n">
-        <v>85.06</v>
+        <v>326</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="n">
         <v>0</v>
       </c>
@@ -4114,30 +4332,42 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.1358</v>
-      </c>
-      <c r="Z36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>82.73999999999999</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.1317</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AA36" s="2" t="n">
+      <c r="AE36" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AB36" s="2" t="n">
+      <c r="AF36" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC36" s="2" t="n">
+      <c r="AG36" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AD36" s="2" t="n">
+      <c r="AH36" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AE36" s="2" t="n">
+      <c r="AI36" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AF36" s="2" t="n">
+      <c r="AJ36" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AG36" t="inlineStr">
+      <c r="AK36" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4178,35 +4408,29 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr">
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N37" t="n">
+      <c r="P37" t="n">
         <v>715</v>
       </c>
-      <c r="O37" t="n">
-        <v>350</v>
-      </c>
-      <c r="P37" t="n">
-        <v>389</v>
-      </c>
       <c r="Q37" t="n">
-        <v>89.97</v>
+        <v>344</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="n">
         <v>0</v>
       </c>
@@ -4223,30 +4447,42 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1414</v>
-      </c>
-      <c r="Z37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>91.48999999999999</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AA37" s="2" t="n">
+      <c r="AE37" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AB37" s="2" t="n">
+      <c r="AF37" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC37" s="2" t="n">
+      <c r="AG37" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AD37" s="2" t="n">
+      <c r="AH37" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AE37" s="2" t="n">
+      <c r="AI37" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AF37" s="2" t="n">
+      <c r="AJ37" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AG37" t="inlineStr">
+      <c r="AK37" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4287,35 +4523,29 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr">
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N38" t="n">
+      <c r="P38" t="n">
         <v>715</v>
       </c>
-      <c r="O38" t="n">
-        <v>333</v>
-      </c>
-      <c r="P38" t="n">
-        <v>380</v>
-      </c>
       <c r="Q38" t="n">
-        <v>87.63</v>
+        <v>349</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="n">
         <v>0</v>
       </c>
@@ -4332,30 +4562,42 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.1346</v>
-      </c>
-      <c r="Z38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>89.03</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AA38" s="2" t="n">
+      <c r="AE38" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AB38" s="2" t="n">
+      <c r="AF38" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC38" s="2" t="n">
+      <c r="AG38" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AD38" s="2" t="n">
+      <c r="AH38" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AE38" s="2" t="n">
+      <c r="AI38" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AF38" s="2" t="n">
+      <c r="AJ38" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AG38" t="inlineStr">
+      <c r="AK38" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4396,35 +4638,29 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr">
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N39" t="n">
+      <c r="P39" t="n">
         <v>715</v>
       </c>
-      <c r="O39" t="n">
-        <v>328</v>
-      </c>
-      <c r="P39" t="n">
-        <v>368</v>
-      </c>
       <c r="Q39" t="n">
-        <v>89.13</v>
+        <v>333</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="n">
         <v>0</v>
       </c>
@@ -4441,22 +4677,34 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.1325</v>
-      </c>
-      <c r="Z39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.1346</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA39" s="2" t="n">
+      <c r="AE39" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB39" s="2" t="n">
+      <c r="AF39" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr">
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4497,35 +4745,29 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr">
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N40" t="n">
+      <c r="P40" t="n">
         <v>715</v>
       </c>
-      <c r="O40" t="n">
-        <v>347</v>
-      </c>
-      <c r="P40" t="n">
-        <v>408</v>
-      </c>
       <c r="Q40" t="n">
-        <v>85.05</v>
+        <v>342</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="n">
         <v>0</v>
       </c>
@@ -4542,22 +4784,34 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.1402</v>
-      </c>
-      <c r="Z40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.1382</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA40" s="2" t="n">
+      <c r="AE40" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB40" s="2" t="n">
+      <c r="AF40" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr">
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4598,35 +4852,29 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr">
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="b">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N41" t="n">
+      <c r="P41" t="n">
         <v>715</v>
       </c>
-      <c r="O41" t="n">
-        <v>353</v>
-      </c>
-      <c r="P41" t="n">
-        <v>375</v>
-      </c>
       <c r="Q41" t="n">
-        <v>94.13</v>
+        <v>351</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="n">
         <v>0</v>
       </c>
@@ -4643,16 +4891,28 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.1426</v>
-      </c>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>86.45</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.1418</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr">
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4693,35 +4953,29 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr">
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N42" t="n">
+      <c r="P42" t="n">
         <v>715</v>
       </c>
-      <c r="O42" t="n">
-        <v>337</v>
-      </c>
-      <c r="P42" t="n">
-        <v>375</v>
-      </c>
       <c r="Q42" t="n">
-        <v>89.87</v>
+        <v>340</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="n">
         <v>0</v>
       </c>
@@ -4738,22 +4992,34 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1362</v>
-      </c>
-      <c r="Z42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>85.64</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.1374</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA42" s="2" t="n">
+      <c r="AE42" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB42" s="2" t="n">
+      <c r="AF42" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr">
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4794,35 +5060,29 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr">
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N43" t="n">
+      <c r="P43" t="n">
         <v>715</v>
       </c>
-      <c r="O43" t="n">
-        <v>349</v>
-      </c>
-      <c r="P43" t="n">
-        <v>379</v>
-      </c>
       <c r="Q43" t="n">
-        <v>92.08</v>
+        <v>333</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="n">
         <v>0</v>
       </c>
@@ -4839,30 +5099,42 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="Z43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>85.81999999999999</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.1346</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AA43" s="2" t="n">
+      <c r="AE43" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AB43" s="2" t="n">
+      <c r="AF43" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC43" s="2" t="n">
+      <c r="AG43" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AD43" s="2" t="n">
+      <c r="AH43" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AE43" s="2" t="n">
+      <c r="AI43" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AF43" s="2" t="n">
+      <c r="AJ43" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AG43" t="inlineStr">
+      <c r="AK43" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4903,35 +5175,29 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr">
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="b">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N44" t="n">
+      <c r="P44" t="n">
         <v>715</v>
       </c>
-      <c r="O44" t="n">
-        <v>334</v>
-      </c>
-      <c r="P44" t="n">
-        <v>388</v>
-      </c>
       <c r="Q44" t="n">
-        <v>86.08</v>
+        <v>342</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="n">
         <v>0</v>
       </c>
@@ -4948,22 +5214,34 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="Z44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>85.93000000000001</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.1382</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA44" s="2" t="n">
+      <c r="AE44" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB44" s="2" t="n">
+      <c r="AF44" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr">
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -5004,35 +5282,29 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr">
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="b">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N45" t="n">
+      <c r="P45" t="n">
         <v>715</v>
       </c>
-      <c r="O45" t="n">
-        <v>324</v>
-      </c>
-      <c r="P45" t="n">
-        <v>392</v>
-      </c>
       <c r="Q45" t="n">
-        <v>82.65000000000001</v>
+        <v>345</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="n">
         <v>0</v>
       </c>
@@ -5049,22 +5321,34 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1309</v>
-      </c>
-      <c r="Z45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>88.45999999999999</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.1394</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="2" t="n">
         <v>44252</v>
       </c>
-      <c r="AA45" s="2" t="n">
+      <c r="AE45" s="2" t="n">
         <v>44617</v>
       </c>
-      <c r="AB45" s="2" t="n">
+      <c r="AF45" s="2" t="n">
         <v>46446</v>
       </c>
-      <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr">
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -5105,35 +5389,29 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr">
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="b">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N46" t="n">
+      <c r="P46" t="n">
         <v>715</v>
       </c>
-      <c r="O46" t="n">
-        <v>324</v>
-      </c>
-      <c r="P46" t="n">
-        <v>388</v>
-      </c>
       <c r="Q46" t="n">
-        <v>83.51000000000001</v>
+        <v>335</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="n">
         <v>0</v>
       </c>
@@ -5150,30 +5428,42 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.1309</v>
-      </c>
-      <c r="Z46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>88.62</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.1354</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AA46" s="2" t="n">
+      <c r="AE46" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AB46" s="2" t="n">
+      <c r="AF46" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC46" s="2" t="n">
+      <c r="AG46" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AD46" s="2" t="n">
+      <c r="AH46" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AE46" s="2" t="n">
+      <c r="AI46" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AF46" s="2" t="n">
+      <c r="AJ46" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AG46" t="inlineStr">
+      <c r="AK46" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -5214,35 +5504,29 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr">
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="b">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N47" t="n">
+      <c r="P47" t="n">
         <v>715</v>
       </c>
-      <c r="O47" t="n">
-        <v>343</v>
-      </c>
-      <c r="P47" t="n">
-        <v>401</v>
-      </c>
       <c r="Q47" t="n">
-        <v>85.54000000000001</v>
+        <v>354</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="n">
         <v>0</v>
       </c>
@@ -5259,22 +5543,34 @@
         <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.1386</v>
-      </c>
-      <c r="Z47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.1431</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA47" s="2" t="n">
+      <c r="AE47" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB47" s="2" t="n">
+      <c r="AF47" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="inlineStr">
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -5315,35 +5611,29 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr">
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="b">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N48" t="n">
+      <c r="P48" t="n">
         <v>715</v>
       </c>
-      <c r="O48" t="n">
+      <c r="Q48" t="n">
         <v>341</v>
       </c>
-      <c r="P48" t="n">
-        <v>381</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>89.5</v>
-      </c>
       <c r="R48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="n">
         <v>0</v>
       </c>
@@ -5360,30 +5650,42 @@
         <v>0</v>
       </c>
       <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>91.18000000000001</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
         <v>0.1378</v>
       </c>
-      <c r="Z48" s="2" t="n">
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AA48" s="2" t="n">
+      <c r="AE48" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AB48" s="2" t="n">
+      <c r="AF48" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC48" s="2" t="n">
+      <c r="AG48" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AD48" s="2" t="n">
+      <c r="AH48" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AE48" s="2" t="n">
+      <c r="AI48" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AF48" s="2" t="n">
+      <c r="AJ48" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AG48" t="inlineStr">
+      <c r="AK48" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -5424,35 +5726,29 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr">
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="b">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="inlineStr">
         <is>
           <t>pkw-sdldf-715k</t>
         </is>
       </c>
-      <c r="N49" t="n">
+      <c r="P49" t="n">
         <v>715</v>
       </c>
-      <c r="O49" t="n">
-        <v>337</v>
-      </c>
-      <c r="P49" t="n">
-        <v>393</v>
-      </c>
       <c r="Q49" t="n">
-        <v>85.75</v>
+        <v>336</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="n">
         <v>0</v>
       </c>
@@ -5469,22 +5765,34 @@
         <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.1362</v>
-      </c>
-      <c r="Z49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>85.93000000000001</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0.1358</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AA49" s="2" t="n">
+      <c r="AE49" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AB49" s="2" t="n">
+      <c r="AF49" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="inlineStr">
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>

--- a/FAST_BACKEND/device_report.xlsx
+++ b/FAST_BACKEND/device_report.xlsx
@@ -672,7 +672,7 @@
         <v>715</v>
       </c>
       <c r="Q2" t="n">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="R2" t="n">
         <v>390</v>
@@ -697,13 +697,13 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>90.51000000000001</v>
+        <v>86.92</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1426</v>
+        <v>0.137</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>715</v>
       </c>
       <c r="Q3" t="n">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="R3" t="n">
         <v>388</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>89.69</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1406</v>
+        <v>0.1329</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -866,10 +866,10 @@
         <v>715</v>
       </c>
       <c r="Q4" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="R4" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
@@ -891,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>86.3</v>
+        <v>88.70999999999999</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.135</v>
+        <v>0.1366</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
@@ -963,10 +963,10 @@
         <v>715</v>
       </c>
       <c r="Q5" t="n">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="R5" t="n">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
@@ -988,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>87.56</v>
+        <v>86.91</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1394</v>
+        <v>0.1342</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -1064,10 +1064,10 @@
         <v>715</v>
       </c>
       <c r="Q6" t="n">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="R6" t="n">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
@@ -1089,13 +1089,13 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>86.77</v>
+        <v>86.51000000000001</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.1378</v>
+        <v>0.1321</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>715</v>
       </c>
       <c r="Q7" t="n">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="R7" t="n">
         <v>395</v>
@@ -1204,13 +1204,13 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>84.05</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1342</v>
+        <v>0.1334</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>715</v>
       </c>
       <c r="Q8" t="n">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="R8" t="n">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
@@ -1319,13 +1319,13 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>86.08</v>
+        <v>95.68000000000001</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.1374</v>
+        <v>0.1431</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -1401,10 +1401,10 @@
         <v>715</v>
       </c>
       <c r="Q9" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R9" t="n">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>96.20999999999999</v>
+        <v>92.41</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1435</v>
+        <v>0.1426</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>715</v>
       </c>
       <c r="Q10" t="n">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="R10" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>92.15000000000001</v>
+        <v>88.51000000000001</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.1422</v>
+        <v>0.137</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -1623,10 +1623,10 @@
         <v>715</v>
       </c>
       <c r="Q11" t="n">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="R11" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
@@ -1648,13 +1648,13 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>94.34</v>
+        <v>90.13</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.1414</v>
+        <v>0.1366</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>715</v>
       </c>
       <c r="Q12" t="n">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="R12" t="n">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
@@ -1755,13 +1755,13 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>86.73999999999999</v>
+        <v>85.79000000000001</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.1321</v>
+        <v>0.139</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -1837,10 +1837,10 @@
         <v>715</v>
       </c>
       <c r="Q13" t="n">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="R13" t="n">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
@@ -1862,13 +1862,13 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>86.39</v>
+        <v>88.72</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.1334</v>
+        <v>0.1398</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>341</v>
       </c>
       <c r="R14" t="n">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>87.66</v>
+        <v>89.97</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2051,10 +2051,10 @@
         <v>715</v>
       </c>
       <c r="Q15" t="n">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="R15" t="n">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
@@ -2076,13 +2076,13 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>82.75</v>
+        <v>92.2</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.1338</v>
+        <v>0.1386</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -2158,10 +2158,10 @@
         <v>715</v>
       </c>
       <c r="Q16" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="R16" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
@@ -2183,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>86.56</v>
+        <v>85.56999999999999</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.1354</v>
+        <v>0.1342</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>715</v>
       </c>
       <c r="Q17" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="R17" t="n">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="n">
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>86.89</v>
+        <v>89.47</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.1366</v>
+        <v>0.1374</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>715</v>
       </c>
       <c r="Q18" t="n">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="R18" t="n">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
@@ -2391,13 +2391,13 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>88.11</v>
+        <v>87.16</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.1378</v>
+        <v>0.1426</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         <v>715</v>
       </c>
       <c r="Q19" t="n">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="R19" t="n">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
@@ -2498,13 +2498,13 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>95.93000000000001</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.1431</v>
+        <v>0.137</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -2588,10 +2588,10 @@
         <v>715</v>
       </c>
       <c r="Q20" t="n">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="R20" t="n">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="n">
@@ -2613,13 +2613,13 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>81.08</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.1334</v>
+        <v>0.1418</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -2703,10 +2703,10 @@
         <v>715</v>
       </c>
       <c r="Q21" t="n">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="R21" t="n">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="n">
@@ -2728,13 +2728,13 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>87.69</v>
+        <v>88.17</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.141</v>
+        <v>0.1386</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -2810,10 +2810,10 @@
         <v>715</v>
       </c>
       <c r="Q22" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R22" t="n">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="n">
@@ -2835,13 +2835,13 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>90.19</v>
+        <v>86.33</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.1374</v>
+        <v>0.1378</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -2917,10 +2917,10 @@
         <v>715</v>
       </c>
       <c r="Q23" t="n">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="R23" t="n">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="n">
@@ -2942,13 +2942,13 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>91.73</v>
+        <v>88.37</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.139</v>
+        <v>0.1382</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -3024,10 +3024,10 @@
         <v>715</v>
       </c>
       <c r="Q24" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="R24" t="n">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="n">
@@ -3049,13 +3049,13 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>85.86</v>
+        <v>88.17</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.1398</v>
+        <v>0.1386</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>715</v>
       </c>
       <c r="Q25" t="n">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="R25" t="n">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="n">
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>89.54000000000001</v>
+        <v>83.87</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.1418</v>
+        <v>0.1366</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>715</v>
       </c>
       <c r="Q26" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R26" t="n">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="n">
@@ -3271,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>90.5</v>
+        <v>83.58</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.1386</v>
+        <v>0.1378</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
@@ -3347,10 +3347,10 @@
         <v>715</v>
       </c>
       <c r="Q27" t="n">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="R27" t="n">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="n">
@@ -3372,13 +3372,13 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>86.89</v>
+        <v>82.79000000000001</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.1366</v>
+        <v>0.1342</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
@@ -3454,10 +3454,10 @@
         <v>715</v>
       </c>
       <c r="Q28" t="n">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="R28" t="n">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="n">
@@ -3479,13 +3479,13 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>87.31</v>
+        <v>95.37</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.1362</v>
+        <v>0.1414</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
@@ -3561,10 +3561,10 @@
         <v>715</v>
       </c>
       <c r="Q29" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="R29" t="n">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="n">
@@ -3586,13 +3586,13 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>86.86</v>
+        <v>88.77</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.1362</v>
+        <v>0.1374</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
@@ -3668,10 +3668,10 @@
         <v>715</v>
       </c>
       <c r="Q30" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R30" t="n">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="n">
@@ -3693,13 +3693,13 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>84.94</v>
+        <v>87.95</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.139</v>
+        <v>0.1386</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
@@ -3775,10 +3775,10 @@
         <v>715</v>
       </c>
       <c r="Q31" t="n">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="R31" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="n">
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>89.06</v>
+        <v>88.77</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.1382</v>
+        <v>0.1374</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>715</v>
       </c>
       <c r="Q32" t="n">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="R32" t="n">
         <v>378</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>88.89</v>
+        <v>91.01000000000001</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.1358</v>
+        <v>0.139</v>
       </c>
       <c r="AC32" t="n">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>715</v>
       </c>
       <c r="Q33" t="n">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="R33" t="n">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="n">
@@ -4014,13 +4014,13 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>88.72</v>
+        <v>88.66</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.1398</v>
+        <v>0.139</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
@@ -4096,10 +4096,10 @@
         <v>715</v>
       </c>
       <c r="Q34" t="n">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="R34" t="n">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="n">
@@ -4121,13 +4121,13 @@
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>86.81</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.1329</v>
+        <v>0.1431</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
@@ -4203,10 +4203,10 @@
         <v>715</v>
       </c>
       <c r="Q35" t="n">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="R35" t="n">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="n">
@@ -4228,13 +4228,13 @@
         <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>86.23</v>
+        <v>90.67</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.1342</v>
+        <v>0.1374</v>
       </c>
       <c r="AC35" t="n">
         <v>0</v>
@@ -4310,10 +4310,10 @@
         <v>715</v>
       </c>
       <c r="Q36" t="n">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="R36" t="n">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="n">
@@ -4335,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>82.73999999999999</v>
+        <v>88.08</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.1317</v>
+        <v>0.1374</v>
       </c>
       <c r="AC36" t="n">
         <v>0</v>
@@ -4425,7 +4425,7 @@
         <v>715</v>
       </c>
       <c r="Q37" t="n">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="R37" t="n">
         <v>376</v>
@@ -4450,13 +4450,13 @@
         <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>91.48999999999999</v>
+        <v>88.56</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.139</v>
+        <v>0.1346</v>
       </c>
       <c r="AC37" t="n">
         <v>0</v>
@@ -4540,10 +4540,10 @@
         <v>715</v>
       </c>
       <c r="Q38" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="R38" t="n">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="n">
@@ -4565,13 +4565,13 @@
         <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>89.03</v>
+        <v>90.23</v>
       </c>
       <c r="AA38" t="n">
         <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.141</v>
+        <v>0.1418</v>
       </c>
       <c r="AC38" t="n">
         <v>0</v>
@@ -4655,10 +4655,10 @@
         <v>715</v>
       </c>
       <c r="Q39" t="n">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="R39" t="n">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="n">
@@ -4680,13 +4680,13 @@
         <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>90.73999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.1346</v>
+        <v>0.1378</v>
       </c>
       <c r="AC39" t="n">
         <v>0</v>
@@ -4762,10 +4762,10 @@
         <v>715</v>
       </c>
       <c r="Q40" t="n">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="R40" t="n">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="n">
@@ -4787,13 +4787,13 @@
         <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>93.7</v>
+        <v>93.3</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.1382</v>
+        <v>0.1406</v>
       </c>
       <c r="AC40" t="n">
         <v>0</v>
@@ -4869,10 +4869,10 @@
         <v>715</v>
       </c>
       <c r="Q41" t="n">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="R41" t="n">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="n">
@@ -4894,13 +4894,13 @@
         <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>86.45</v>
+        <v>89.97</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.1418</v>
+        <v>0.1378</v>
       </c>
       <c r="AC41" t="n">
         <v>0</v>
@@ -4970,10 +4970,10 @@
         <v>715</v>
       </c>
       <c r="Q42" t="n">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="R42" t="n">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="n">
@@ -4995,13 +4995,13 @@
         <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>85.64</v>
+        <v>91.19</v>
       </c>
       <c r="AA42" t="n">
         <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.1374</v>
+        <v>0.1422</v>
       </c>
       <c r="AC42" t="n">
         <v>0</v>
@@ -5077,10 +5077,10 @@
         <v>715</v>
       </c>
       <c r="Q43" t="n">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="R43" t="n">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="n">
@@ -5102,13 +5102,13 @@
         <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>85.81999999999999</v>
+        <v>88.31</v>
       </c>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.1346</v>
+        <v>0.1435</v>
       </c>
       <c r="AC43" t="n">
         <v>0</v>
@@ -5192,10 +5192,10 @@
         <v>715</v>
       </c>
       <c r="Q44" t="n">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="R44" t="n">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="n">
@@ -5217,13 +5217,13 @@
         <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>85.93000000000001</v>
+        <v>93.28</v>
       </c>
       <c r="AA44" t="n">
         <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.1382</v>
+        <v>0.1402</v>
       </c>
       <c r="AC44" t="n">
         <v>0</v>
@@ -5299,10 +5299,10 @@
         <v>715</v>
       </c>
       <c r="Q45" t="n">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="R45" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="n">
@@ -5324,13 +5324,13 @@
         <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>88.45999999999999</v>
+        <v>87.34</v>
       </c>
       <c r="AA45" t="n">
         <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.1394</v>
+        <v>0.1366</v>
       </c>
       <c r="AC45" t="n">
         <v>0</v>
@@ -5406,10 +5406,10 @@
         <v>715</v>
       </c>
       <c r="Q46" t="n">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="R46" t="n">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="n">
@@ -5431,13 +5431,13 @@
         <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>88.62</v>
+        <v>82.04000000000001</v>
       </c>
       <c r="AA46" t="n">
         <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.1354</v>
+        <v>0.1329</v>
       </c>
       <c r="AC46" t="n">
         <v>0</v>
@@ -5521,10 +5521,10 @@
         <v>715</v>
       </c>
       <c r="Q47" t="n">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="R47" t="n">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="n">
@@ -5546,13 +5546,13 @@
         <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>93.90000000000001</v>
+        <v>84.75</v>
       </c>
       <c r="AA47" t="n">
         <v>0</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.1431</v>
+        <v>0.137</v>
       </c>
       <c r="AC47" t="n">
         <v>0</v>
@@ -5628,10 +5628,10 @@
         <v>715</v>
       </c>
       <c r="Q48" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R48" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="n">
@@ -5653,13 +5653,13 @@
         <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>91.18000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="AA48" t="n">
         <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.1378</v>
+        <v>0.1382</v>
       </c>
       <c r="AC48" t="n">
         <v>0</v>
@@ -5743,10 +5743,10 @@
         <v>715</v>
       </c>
       <c r="Q49" t="n">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="R49" t="n">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="n">
@@ -5768,13 +5768,13 @@
         <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>85.93000000000001</v>
+        <v>88.86</v>
       </c>
       <c r="AA49" t="n">
         <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.1358</v>
+        <v>0.1386</v>
       </c>
       <c r="AC49" t="n">
         <v>0</v>

--- a/FAST_BACKEND/device_report.xlsx
+++ b/FAST_BACKEND/device_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK49"/>
+  <dimension ref="A1:AM49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,95 +530,105 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Energy Efficiency%(Pout/Pin)Power Consumption Ratio(Pin/DC)(W/MB)</t>
+          <t>Energy Efficiency%(Pout/Pin)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>Power Consumption Ratio(Pin/DC)(W/MB)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>Input Packets</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Output Packets</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>RX (MB)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>TX (MB)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Data Traffic Consumed (MB)</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Data Traffic Consumed (GB)</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Data Traffic Allocated (Mbs)</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Energy_Efficiency(DataTraffic(DC/Pin))(MB/W)</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Data Traffic Energy Efficiency (MB/W) (DC/Pin)</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>DataTraffic Utilization%(DC/DA)</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Carbon Emission (kgCO₂)</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Carbon Emission (kgCO₂)(Pin*0.4041)</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Carbon Emission (tonCO₂)</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>HW End-of-Life (EoL)</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>HW End-of-Support (EoS)</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>HW Last Day of Support</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>HW Last Date of RFA</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>HW Security Support EoS</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>SW Maintenance EoL</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>SW Vulnerability Support EoS</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Error Message</t>
         </is>
@@ -672,12 +682,14 @@
         <v>715</v>
       </c>
       <c r="Q2" t="n">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>390</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
@@ -697,25 +709,31 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>86.92</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.137</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr">
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -769,12 +787,14 @@
         <v>715</v>
       </c>
       <c r="Q3" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>388</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
@@ -794,25 +814,31 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>84.79000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1329</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr">
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -866,12 +892,14 @@
         <v>715</v>
       </c>
       <c r="Q4" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>381</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
@@ -891,25 +919,31 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>88.70999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1366</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr">
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -963,12 +997,14 @@
         <v>715</v>
       </c>
       <c r="Q5" t="n">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>382</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
@@ -988,25 +1024,31 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>86.91</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1342</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr">
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1064,12 +1106,14 @@
         <v>715</v>
       </c>
       <c r="Q6" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>378</v>
-      </c>
-      <c r="S6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
@@ -1089,39 +1133,45 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>86.51000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.1321</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
-      <c r="AD6" s="2" t="n">
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2" t="n">
         <v>43545</v>
       </c>
-      <c r="AE6" s="2" t="n">
+      <c r="AG6" s="2" t="n">
         <v>45708</v>
       </c>
-      <c r="AF6" s="2" t="n">
+      <c r="AH6" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="AG6" s="2" t="n">
+      <c r="AI6" s="2" t="n">
         <v>44001</v>
       </c>
-      <c r="AH6" s="2" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>45184</v>
       </c>
-      <c r="AI6" s="2" t="n">
+      <c r="AK6" s="2" t="n">
         <v>44366</v>
       </c>
-      <c r="AJ6" s="2" t="n">
+      <c r="AL6" s="2" t="n">
         <v>44731</v>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1179,12 +1229,14 @@
         <v>715</v>
       </c>
       <c r="Q7" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>395</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
@@ -1204,39 +1256,45 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>83.54000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1334</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
-      <c r="AD7" s="2" t="n">
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AE7" s="2" t="n">
+      <c r="AG7" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AF7" s="2" t="n">
+      <c r="AH7" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG7" s="2" t="n">
+      <c r="AI7" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AH7" s="2" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AI7" s="2" t="n">
+      <c r="AK7" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AJ7" s="2" t="n">
+      <c r="AL7" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1294,12 +1352,14 @@
         <v>715</v>
       </c>
       <c r="Q8" t="n">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>370</v>
-      </c>
-      <c r="S8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
@@ -1319,31 +1379,37 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>95.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.1431</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
-      <c r="AD8" s="2" t="n">
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE8" s="2" t="n">
+      <c r="AG8" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF8" s="2" t="n">
+      <c r="AH8" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr">
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1401,12 +1467,14 @@
         <v>715</v>
       </c>
       <c r="Q9" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>382</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
@@ -1426,31 +1494,37 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>92.41</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1426</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
       </c>
-      <c r="AD9" s="2" t="n">
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE9" s="2" t="n">
+      <c r="AG9" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF9" s="2" t="n">
+      <c r="AH9" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr">
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1508,12 +1582,14 @@
         <v>715</v>
       </c>
       <c r="Q10" t="n">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>383</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
@@ -1533,39 +1609,45 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>88.51000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.137</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
       </c>
-      <c r="AD10" s="2" t="n">
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AE10" s="2" t="n">
+      <c r="AG10" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AF10" s="2" t="n">
+      <c r="AH10" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG10" s="2" t="n">
+      <c r="AI10" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AH10" s="2" t="n">
+      <c r="AJ10" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AI10" s="2" t="n">
+      <c r="AK10" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AJ10" s="2" t="n">
+      <c r="AL10" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1623,12 +1705,14 @@
         <v>715</v>
       </c>
       <c r="Q11" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>375</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
@@ -1648,31 +1732,37 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>90.13</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.1366</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
       </c>
-      <c r="AD11" s="2" t="n">
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE11" s="2" t="n">
+      <c r="AG11" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF11" s="2" t="n">
+      <c r="AH11" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr">
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1730,12 +1820,14 @@
         <v>715</v>
       </c>
       <c r="Q12" t="n">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>401</v>
-      </c>
-      <c r="S12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
@@ -1755,31 +1847,37 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>85.79000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.139</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
       </c>
-      <c r="AD12" s="2" t="n">
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE12" s="2" t="n">
+      <c r="AG12" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF12" s="2" t="n">
+      <c r="AH12" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr">
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1837,12 +1935,14 @@
         <v>715</v>
       </c>
       <c r="Q13" t="n">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>390</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
@@ -1862,31 +1962,37 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>88.72</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.1398</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
-      <c r="AD13" s="2" t="n">
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE13" s="2" t="n">
+      <c r="AG13" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF13" s="2" t="n">
+      <c r="AH13" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr">
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -1944,12 +2050,14 @@
         <v>715</v>
       </c>
       <c r="Q14" t="n">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>379</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
@@ -1969,31 +2077,37 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>89.97</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.1378</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
-      <c r="AD14" s="2" t="n">
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE14" s="2" t="n">
+      <c r="AG14" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF14" s="2" t="n">
+      <c r="AH14" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr">
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2051,12 +2165,14 @@
         <v>715</v>
       </c>
       <c r="Q15" t="n">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>372</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
@@ -2076,31 +2192,37 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>92.2</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.1386</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
-      <c r="AD15" s="2" t="n">
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE15" s="2" t="n">
+      <c r="AG15" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF15" s="2" t="n">
+      <c r="AH15" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr">
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2158,12 +2280,14 @@
         <v>715</v>
       </c>
       <c r="Q16" t="n">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>388</v>
-      </c>
-      <c r="S16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
@@ -2183,31 +2307,37 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>85.56999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.1342</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
-      <c r="AD16" s="2" t="n">
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2" t="n">
         <v>43718</v>
       </c>
-      <c r="AE16" s="2" t="n">
+      <c r="AG16" s="2" t="n">
         <v>44083</v>
       </c>
-      <c r="AF16" s="2" t="n">
+      <c r="AH16" s="2" t="n">
         <v>45930</v>
       </c>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr">
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2265,12 +2395,14 @@
         <v>715</v>
       </c>
       <c r="Q17" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>380</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
@@ -2290,25 +2422,31 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>89.47</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.1374</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr">
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2366,12 +2504,14 @@
         <v>715</v>
       </c>
       <c r="Q18" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>405</v>
-      </c>
-      <c r="S18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
@@ -2391,31 +2531,37 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>87.16</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.1426</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
-      <c r="AD18" s="2" t="n">
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE18" s="2" t="n">
+      <c r="AG18" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF18" s="2" t="n">
+      <c r="AH18" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr">
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2473,12 +2619,14 @@
         <v>715</v>
       </c>
       <c r="Q19" t="n">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>389</v>
-      </c>
-      <c r="S19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
@@ -2498,39 +2646,45 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>87.15000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.137</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
-      <c r="AD19" s="2" t="n">
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AE19" s="2" t="n">
+      <c r="AG19" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AF19" s="2" t="n">
+      <c r="AH19" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG19" s="2" t="n">
+      <c r="AI19" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AH19" s="2" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AI19" s="2" t="n">
+      <c r="AK19" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AJ19" s="2" t="n">
+      <c r="AL19" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AK19" t="inlineStr">
+      <c r="AM19" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2588,12 +2742,14 @@
         <v>715</v>
       </c>
       <c r="Q20" t="n">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>388</v>
-      </c>
-      <c r="S20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
@@ -2613,39 +2769,45 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>90.45999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.1418</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
-      <c r="AD20" s="2" t="n">
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2" t="n">
         <v>43545</v>
       </c>
-      <c r="AE20" s="2" t="n">
+      <c r="AG20" s="2" t="n">
         <v>45708</v>
       </c>
-      <c r="AF20" s="2" t="n">
+      <c r="AH20" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="AG20" s="2" t="n">
+      <c r="AI20" s="2" t="n">
         <v>44001</v>
       </c>
-      <c r="AH20" s="2" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>45184</v>
       </c>
-      <c r="AI20" s="2" t="n">
+      <c r="AK20" s="2" t="n">
         <v>44366</v>
       </c>
-      <c r="AJ20" s="2" t="n">
+      <c r="AL20" s="2" t="n">
         <v>44731</v>
       </c>
-      <c r="AK20" t="inlineStr">
+      <c r="AM20" t="inlineStr">
         <is>
           <t>Failed to establish connection.</t>
         </is>
@@ -2703,12 +2865,14 @@
         <v>715</v>
       </c>
       <c r="Q21" t="n">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>389</v>
-      </c>
-      <c r="S21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
@@ -2728,31 +2892,37 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>88.17</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.1386</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
-      <c r="AD21" s="2" t="n">
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE21" s="2" t="n">
+      <c r="AG21" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF21" s="2" t="n">
+      <c r="AH21" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr">
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2810,12 +2980,14 @@
         <v>715</v>
       </c>
       <c r="Q22" t="n">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>395</v>
-      </c>
-      <c r="S22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
@@ -2835,31 +3007,37 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>86.33</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.1378</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
-      <c r="AD22" s="2" t="n">
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE22" s="2" t="n">
+      <c r="AG22" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF22" s="2" t="n">
+      <c r="AH22" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr">
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -2917,12 +3095,14 @@
         <v>715</v>
       </c>
       <c r="Q23" t="n">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>387</v>
-      </c>
-      <c r="S23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
@@ -2942,31 +3122,37 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>88.37</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.1382</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
-      <c r="AD23" s="2" t="n">
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE23" s="2" t="n">
+      <c r="AG23" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF23" s="2" t="n">
+      <c r="AH23" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr">
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3024,12 +3210,14 @@
         <v>715</v>
       </c>
       <c r="Q24" t="n">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>389</v>
-      </c>
-      <c r="S24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
@@ -3049,31 +3237,37 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>88.17</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.1386</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
       </c>
-      <c r="AD24" s="2" t="n">
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE24" s="2" t="n">
+      <c r="AG24" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF24" s="2" t="n">
+      <c r="AH24" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr">
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3131,12 +3325,14 @@
         <v>715</v>
       </c>
       <c r="Q25" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>403</v>
-      </c>
-      <c r="S25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
@@ -3156,39 +3352,45 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>83.87</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.1366</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
       </c>
-      <c r="AD25" s="2" t="n">
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AE25" s="2" t="n">
+      <c r="AG25" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AF25" s="2" t="n">
+      <c r="AH25" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG25" s="2" t="n">
+      <c r="AI25" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AH25" s="2" t="n">
+      <c r="AJ25" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AI25" s="2" t="n">
+      <c r="AK25" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AJ25" s="2" t="n">
+      <c r="AL25" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AK25" t="inlineStr">
+      <c r="AM25" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3246,12 +3448,14 @@
         <v>715</v>
       </c>
       <c r="Q26" t="n">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>408</v>
-      </c>
-      <c r="S26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
@@ -3271,25 +3475,31 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>83.58</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.1378</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
       </c>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr">
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3347,12 +3557,14 @@
         <v>715</v>
       </c>
       <c r="Q27" t="n">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>401</v>
-      </c>
-      <c r="S27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
@@ -3372,31 +3584,37 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>82.79000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.1342</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
       </c>
-      <c r="AD27" s="2" t="n">
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE27" s="2" t="n">
+      <c r="AG27" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF27" s="2" t="n">
+      <c r="AH27" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr">
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3454,12 +3672,14 @@
         <v>715</v>
       </c>
       <c r="Q28" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>367</v>
-      </c>
-      <c r="S28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
@@ -3479,31 +3699,37 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>95.37</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.1414</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
       </c>
-      <c r="AD28" s="2" t="n">
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE28" s="2" t="n">
+      <c r="AG28" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF28" s="2" t="n">
+      <c r="AH28" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr">
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3561,12 +3787,14 @@
         <v>715</v>
       </c>
       <c r="Q29" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>383</v>
-      </c>
-      <c r="S29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
@@ -3586,31 +3814,37 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>88.77</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.1374</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
       </c>
-      <c r="AD29" s="2" t="n">
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE29" s="2" t="n">
+      <c r="AG29" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF29" s="2" t="n">
+      <c r="AH29" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr">
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3668,12 +3902,14 @@
         <v>715</v>
       </c>
       <c r="Q30" t="n">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>390</v>
-      </c>
-      <c r="S30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
@@ -3693,31 +3929,37 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>87.95</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.1386</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
       </c>
-      <c r="AD30" s="2" t="n">
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE30" s="2" t="n">
+      <c r="AG30" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF30" s="2" t="n">
+      <c r="AH30" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr">
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3775,12 +4017,14 @@
         <v>715</v>
       </c>
       <c r="Q31" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>383</v>
-      </c>
-      <c r="S31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
@@ -3800,31 +4044,37 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>88.77</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.1374</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
       </c>
-      <c r="AD31" s="2" t="n">
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE31" s="2" t="n">
+      <c r="AG31" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF31" s="2" t="n">
+      <c r="AH31" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr">
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3882,12 +4132,14 @@
         <v>715</v>
       </c>
       <c r="Q32" t="n">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>378</v>
-      </c>
-      <c r="S32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
@@ -3907,31 +4159,37 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>91.01000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.139</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
         <v>0</v>
       </c>
-      <c r="AD32" s="2" t="n">
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="2" t="n">
         <v>43718</v>
       </c>
-      <c r="AE32" s="2" t="n">
+      <c r="AG32" s="2" t="n">
         <v>44083</v>
       </c>
-      <c r="AF32" s="2" t="n">
+      <c r="AH32" s="2" t="n">
         <v>45930</v>
       </c>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr">
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -3989,12 +4247,14 @@
         <v>715</v>
       </c>
       <c r="Q33" t="n">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>388</v>
-      </c>
-      <c r="S33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
@@ -4014,31 +4274,37 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>88.66</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.139</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
       </c>
-      <c r="AD33" s="2" t="n">
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE33" s="2" t="n">
+      <c r="AG33" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF33" s="2" t="n">
+      <c r="AH33" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr">
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4096,12 +4362,14 @@
         <v>715</v>
       </c>
       <c r="Q34" t="n">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>394</v>
-      </c>
-      <c r="S34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
@@ -4121,31 +4389,37 @@
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>89.84999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.1431</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
         <v>0</v>
       </c>
-      <c r="AD34" s="2" t="n">
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE34" s="2" t="n">
+      <c r="AG34" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF34" s="2" t="n">
+      <c r="AH34" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr">
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4203,12 +4477,14 @@
         <v>715</v>
       </c>
       <c r="Q35" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>375</v>
-      </c>
-      <c r="S35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
@@ -4228,31 +4504,37 @@
         <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>90.67</v>
+        <v>0</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.1374</v>
+        <v>0</v>
       </c>
       <c r="AC35" t="n">
         <v>0</v>
       </c>
-      <c r="AD35" s="2" t="n">
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE35" s="2" t="n">
+      <c r="AG35" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF35" s="2" t="n">
+      <c r="AH35" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr">
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4310,12 +4592,14 @@
         <v>715</v>
       </c>
       <c r="Q36" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>386</v>
-      </c>
-      <c r="S36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
@@ -4335,39 +4619,45 @@
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>88.08</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.1374</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
         <v>0</v>
       </c>
-      <c r="AD36" s="2" t="n">
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AE36" s="2" t="n">
+      <c r="AG36" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AF36" s="2" t="n">
+      <c r="AH36" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG36" s="2" t="n">
+      <c r="AI36" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AH36" s="2" t="n">
+      <c r="AJ36" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AI36" s="2" t="n">
+      <c r="AK36" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AJ36" s="2" t="n">
+      <c r="AL36" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AK36" t="inlineStr">
+      <c r="AM36" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4425,12 +4715,14 @@
         <v>715</v>
       </c>
       <c r="Q37" t="n">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>376</v>
-      </c>
-      <c r="S37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
@@ -4450,39 +4742,45 @@
         <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>88.56</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.1346</v>
+        <v>0</v>
       </c>
       <c r="AC37" t="n">
         <v>0</v>
       </c>
-      <c r="AD37" s="2" t="n">
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AE37" s="2" t="n">
+      <c r="AG37" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AF37" s="2" t="n">
+      <c r="AH37" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG37" s="2" t="n">
+      <c r="AI37" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AH37" s="2" t="n">
+      <c r="AJ37" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AI37" s="2" t="n">
+      <c r="AK37" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AJ37" s="2" t="n">
+      <c r="AL37" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AK37" t="inlineStr">
+      <c r="AM37" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4540,12 +4838,14 @@
         <v>715</v>
       </c>
       <c r="Q38" t="n">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>389</v>
-      </c>
-      <c r="S38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
@@ -4565,39 +4865,45 @@
         <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>90.23</v>
+        <v>0</v>
       </c>
       <c r="AA38" t="n">
         <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.1418</v>
+        <v>0</v>
       </c>
       <c r="AC38" t="n">
         <v>0</v>
       </c>
-      <c r="AD38" s="2" t="n">
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AE38" s="2" t="n">
+      <c r="AG38" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AF38" s="2" t="n">
+      <c r="AH38" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG38" s="2" t="n">
+      <c r="AI38" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AH38" s="2" t="n">
+      <c r="AJ38" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AI38" s="2" t="n">
+      <c r="AK38" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AJ38" s="2" t="n">
+      <c r="AL38" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AK38" t="inlineStr">
+      <c r="AM38" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4655,12 +4961,14 @@
         <v>715</v>
       </c>
       <c r="Q39" t="n">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>405</v>
-      </c>
-      <c r="S39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
@@ -4680,31 +4988,37 @@
         <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>84.2</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.1378</v>
+        <v>0</v>
       </c>
       <c r="AC39" t="n">
         <v>0</v>
       </c>
-      <c r="AD39" s="2" t="n">
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE39" s="2" t="n">
+      <c r="AG39" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF39" s="2" t="n">
+      <c r="AH39" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr">
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4762,12 +5076,14 @@
         <v>715</v>
       </c>
       <c r="Q40" t="n">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>373</v>
-      </c>
-      <c r="S40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
@@ -4787,31 +5103,37 @@
         <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>93.3</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.1406</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="n">
         <v>0</v>
       </c>
-      <c r="AD40" s="2" t="n">
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE40" s="2" t="n">
+      <c r="AG40" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF40" s="2" t="n">
+      <c r="AH40" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr">
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4869,12 +5191,14 @@
         <v>715</v>
       </c>
       <c r="Q41" t="n">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>379</v>
-      </c>
-      <c r="S41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
@@ -4894,25 +5218,31 @@
         <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>89.97</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.1378</v>
+        <v>0</v>
       </c>
       <c r="AC41" t="n">
         <v>0</v>
       </c>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr">
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -4970,12 +5300,14 @@
         <v>715</v>
       </c>
       <c r="Q42" t="n">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>386</v>
-      </c>
-      <c r="S42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
@@ -4995,31 +5327,37 @@
         <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>91.19</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
         <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.1422</v>
+        <v>0</v>
       </c>
       <c r="AC42" t="n">
         <v>0</v>
       </c>
-      <c r="AD42" s="2" t="n">
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE42" s="2" t="n">
+      <c r="AG42" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF42" s="2" t="n">
+      <c r="AH42" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr">
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -5077,12 +5415,14 @@
         <v>715</v>
       </c>
       <c r="Q43" t="n">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>402</v>
-      </c>
-      <c r="S43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
@@ -5102,39 +5442,45 @@
         <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>88.31</v>
+        <v>0</v>
       </c>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.1435</v>
+        <v>0</v>
       </c>
       <c r="AC43" t="n">
         <v>0</v>
       </c>
-      <c r="AD43" s="2" t="n">
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AE43" s="2" t="n">
+      <c r="AG43" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AF43" s="2" t="n">
+      <c r="AH43" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG43" s="2" t="n">
+      <c r="AI43" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AH43" s="2" t="n">
+      <c r="AJ43" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AI43" s="2" t="n">
+      <c r="AK43" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AJ43" s="2" t="n">
+      <c r="AL43" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AK43" t="inlineStr">
+      <c r="AM43" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -5192,12 +5538,14 @@
         <v>715</v>
       </c>
       <c r="Q44" t="n">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>372</v>
-      </c>
-      <c r="S44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
@@ -5217,31 +5565,37 @@
         <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>93.28</v>
+        <v>0</v>
       </c>
       <c r="AA44" t="n">
         <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.1402</v>
+        <v>0</v>
       </c>
       <c r="AC44" t="n">
         <v>0</v>
       </c>
-      <c r="AD44" s="2" t="n">
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE44" s="2" t="n">
+      <c r="AG44" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF44" s="2" t="n">
+      <c r="AH44" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="inlineStr"/>
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr">
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -5299,12 +5653,14 @@
         <v>715</v>
       </c>
       <c r="Q45" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>387</v>
-      </c>
-      <c r="S45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
@@ -5324,31 +5680,37 @@
         <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>87.34</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
         <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.1366</v>
+        <v>0</v>
       </c>
       <c r="AC45" t="n">
         <v>0</v>
       </c>
-      <c r="AD45" s="2" t="n">
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="2" t="n">
         <v>44252</v>
       </c>
-      <c r="AE45" s="2" t="n">
+      <c r="AG45" s="2" t="n">
         <v>44617</v>
       </c>
-      <c r="AF45" s="2" t="n">
+      <c r="AH45" s="2" t="n">
         <v>46446</v>
       </c>
-      <c r="AG45" t="inlineStr"/>
-      <c r="AH45" t="inlineStr"/>
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="inlineStr">
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -5406,12 +5768,14 @@
         <v>715</v>
       </c>
       <c r="Q46" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>401</v>
-      </c>
-      <c r="S46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
@@ -5431,39 +5795,45 @@
         <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>82.04000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA46" t="n">
         <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.1329</v>
+        <v>0</v>
       </c>
       <c r="AC46" t="n">
         <v>0</v>
       </c>
-      <c r="AD46" s="2" t="n">
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AE46" s="2" t="n">
+      <c r="AG46" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AF46" s="2" t="n">
+      <c r="AH46" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG46" s="2" t="n">
+      <c r="AI46" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AH46" s="2" t="n">
+      <c r="AJ46" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AI46" s="2" t="n">
+      <c r="AK46" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AJ46" s="2" t="n">
+      <c r="AL46" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AK46" t="inlineStr">
+      <c r="AM46" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -5521,12 +5891,14 @@
         <v>715</v>
       </c>
       <c r="Q47" t="n">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>400</v>
-      </c>
-      <c r="S47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
       <c r="T47" t="n">
         <v>0</v>
       </c>
@@ -5546,31 +5918,37 @@
         <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>84.75</v>
+        <v>0</v>
       </c>
       <c r="AA47" t="n">
         <v>0</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.137</v>
+        <v>0</v>
       </c>
       <c r="AC47" t="n">
         <v>0</v>
       </c>
-      <c r="AD47" s="2" t="n">
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE47" s="2" t="n">
+      <c r="AG47" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF47" s="2" t="n">
+      <c r="AH47" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="inlineStr"/>
       <c r="AI47" t="inlineStr"/>
       <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="inlineStr">
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -5628,12 +6006,14 @@
         <v>715</v>
       </c>
       <c r="Q48" t="n">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>386</v>
-      </c>
-      <c r="S48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
       <c r="T48" t="n">
         <v>0</v>
       </c>
@@ -5653,39 +6033,45 @@
         <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>88.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
         <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.1382</v>
+        <v>0</v>
       </c>
       <c r="AC48" t="n">
         <v>0</v>
       </c>
-      <c r="AD48" s="2" t="n">
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AE48" s="2" t="n">
+      <c r="AG48" s="2" t="n">
         <v>45788</v>
       </c>
-      <c r="AF48" s="2" t="n">
+      <c r="AH48" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG48" s="2" t="n">
+      <c r="AI48" s="2" t="n">
         <v>45793</v>
       </c>
-      <c r="AH48" s="2" t="n">
+      <c r="AJ48" s="2" t="n">
         <v>45794</v>
       </c>
-      <c r="AI48" s="2" t="n">
+      <c r="AK48" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="AJ48" s="2" t="n">
+      <c r="AL48" s="2" t="n">
         <v>45792</v>
       </c>
-      <c r="AK48" t="inlineStr">
+      <c r="AM48" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>
@@ -5743,12 +6129,14 @@
         <v>715</v>
       </c>
       <c r="Q49" t="n">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>386</v>
-      </c>
-      <c r="S49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
       <c r="T49" t="n">
         <v>0</v>
       </c>
@@ -5768,31 +6156,37 @@
         <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>88.86</v>
+        <v>0</v>
       </c>
       <c r="AA49" t="n">
         <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.1386</v>
+        <v>0</v>
       </c>
       <c r="AC49" t="n">
         <v>0</v>
       </c>
-      <c r="AD49" s="2" t="n">
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="AE49" s="2" t="n">
+      <c r="AG49" s="2" t="n">
         <v>44782</v>
       </c>
-      <c r="AF49" s="2" t="n">
+      <c r="AH49" s="2" t="n">
         <v>46630</v>
       </c>
-      <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="inlineStr"/>
       <c r="AI49" t="inlineStr"/>
       <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="inlineStr">
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed to establish connection to 10.10.100.222. </t>
         </is>

--- a/FAST_BACKEND/device_report.xlsx
+++ b/FAST_BACKEND/device_report.xlsx
@@ -530,12 +530,16 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Energy Efficiency%(Pout/Pin)</t>
+          <t>Energy Efficiency%
+Col Q/Col R
+Note: Power Output/Power Input</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Power Consumption Ratio(Pin/DC)(W/MB)</t>
+          <t>Power Consumption Ratio(W/MB)
+Col  R / Col Z
+Note: Power used per input traffic.</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
@@ -570,22 +574,29 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Data Traffic Allocated (Mbs)</t>
+          <t>Data Traffic Allocated (MB)
+Σ {((Interface Bandwidth (in kbps) * 2(duplex)) /(8 * 1024(for kbps to MBps))} *3600(for MBps to MB)
+Note: Only for Full Duplex we multiply with 2.</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Data Traffic Energy Efficiency (MB/W) (DC/Pin)</t>
+          <t>Data Throughput per Watt (MB/W)
+Col Y / Col AA
+Note: Total data traffic handled per watt of power consumed.</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>DataTraffic Utilization%(DC/DA)</t>
+          <t>DataTraffic Utilization%
+Note: Y/AA Data Traffic Consumed/ Data Traffic Allocated</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Carbon Emission (kgCO₂)(Pin*0.4041)</t>
+          <t>Carbon Emission (kgCO₂)
+Note: Power Input(Col R) / 1000(for W to KW) * 0.4041(Carbon Emission Factor)
+Carbon Emission Factor is Region Specific i.e here UAE</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
@@ -682,13 +693,13 @@
         <v>715</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8163</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>9193</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>88.8</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>3.2987</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
@@ -787,13 +798,13 @@
         <v>715</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8125</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9275</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -826,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>3.2833</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
@@ -892,13 +903,13 @@
         <v>715</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>8126</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>9355</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>86.86</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -931,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>3.2837</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
@@ -997,13 +1008,13 @@
         <v>715</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8213</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>9211</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>89.17</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1036,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>3.3189</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
@@ -1106,13 +1117,13 @@
         <v>715</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>8101</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9258</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1145,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>3.2736</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF6" s="2" t="n">
         <v>43545</v>
@@ -1229,13 +1240,13 @@
         <v>715</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>8155</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>9227</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>88.38</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1268,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>3.2954</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF7" s="2" t="n">
         <v>45793</v>
@@ -1352,13 +1363,13 @@
         <v>715</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>8270</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>9251</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1391,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>3.3419</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF8" s="2" t="n">
         <v>44417</v>
@@ -1467,13 +1478,13 @@
         <v>715</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>8124</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>9232</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1506,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>3.2829</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF9" s="2" t="n">
         <v>44417</v>
@@ -1582,13 +1593,13 @@
         <v>715</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>8204</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>9349</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>87.75</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1621,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>3.3152</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF10" s="2" t="n">
         <v>45793</v>
@@ -1705,13 +1716,13 @@
         <v>715</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>8102</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>9286</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>87.25</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1744,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>3.274</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF11" s="2" t="n">
         <v>44417</v>
@@ -1820,13 +1831,13 @@
         <v>715</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>8104</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9146</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>88.61</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1859,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>3.2748</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF12" s="2" t="n">
         <v>44417</v>
@@ -1935,13 +1946,13 @@
         <v>715</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>8175</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>9220</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>88.67</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1974,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>3.3035</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF13" s="2" t="n">
         <v>44417</v>
@@ -2050,13 +2061,13 @@
         <v>715</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>8163</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>9336</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>87.44</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -2089,10 +2100,10 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>3.2987</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF14" s="2" t="n">
         <v>44417</v>
@@ -2165,13 +2176,13 @@
         <v>715</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>8149</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9188</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>88.69</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -2204,10 +2215,10 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>3.293</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF15" s="2" t="n">
         <v>44417</v>
@@ -2280,13 +2291,13 @@
         <v>715</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>8162</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9247</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>88.27</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -2319,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>3.2983</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF16" s="2" t="n">
         <v>43718</v>
@@ -2395,13 +2406,13 @@
         <v>715</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>8069</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>9195</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>87.75</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -2434,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>3.2607</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
@@ -2504,13 +2515,13 @@
         <v>715</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>8084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9311</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>86.81999999999999</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2543,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>3.2667</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF18" s="2" t="n">
         <v>44417</v>
@@ -2619,13 +2630,13 @@
         <v>715</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>8252</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9252</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>89.19</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2658,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>3.3346</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF19" s="2" t="n">
         <v>45793</v>
@@ -2742,13 +2753,13 @@
         <v>715</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>8145</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>9177</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>88.75</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2781,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>3.2914</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF20" s="2" t="n">
         <v>43545</v>
@@ -2865,13 +2876,13 @@
         <v>715</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>8140</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9236</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>88.13</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2904,10 +2915,10 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>3.2894</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF21" s="2" t="n">
         <v>44417</v>
@@ -2980,13 +2991,13 @@
         <v>715</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>8131</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9254</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>87.86</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -3019,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>3.2857</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF22" s="2" t="n">
         <v>44417</v>
@@ -3095,13 +3106,13 @@
         <v>715</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>8140</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>9272</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>87.79000000000001</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -3134,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>3.2894</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF23" s="2" t="n">
         <v>44417</v>
@@ -3210,13 +3221,13 @@
         <v>715</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>8159</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9297</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>87.76000000000001</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -3249,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>3.2971</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF24" s="2" t="n">
         <v>44417</v>
@@ -3325,13 +3336,13 @@
         <v>715</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>8108</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9201</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>88.12</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -3364,10 +3375,10 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>3.2764</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF25" s="2" t="n">
         <v>45793</v>
@@ -3448,13 +3459,13 @@
         <v>715</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>8170</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>9170</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>89.09</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -3487,10 +3498,10 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>3.3015</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
@@ -3557,13 +3568,13 @@
         <v>715</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>8187</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9254</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>88.47</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -3596,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>3.3084</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF27" s="2" t="n">
         <v>44417</v>
@@ -3672,13 +3683,13 @@
         <v>715</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>8131</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9214</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>88.25</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -3711,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>3.2857</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF28" s="2" t="n">
         <v>44417</v>
@@ -3787,13 +3798,13 @@
         <v>715</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>8170</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>9201</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -3826,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>3.3015</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF29" s="2" t="n">
         <v>44417</v>
@@ -3902,13 +3913,13 @@
         <v>715</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>8137</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9231</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>88.15000000000001</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -3941,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>3.2882</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF30" s="2" t="n">
         <v>44417</v>
@@ -4017,13 +4028,13 @@
         <v>715</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>8123</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9266</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>87.66</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -4056,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>3.2825</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF31" s="2" t="n">
         <v>44417</v>
@@ -4132,13 +4143,13 @@
         <v>715</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>8126</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>9238</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -4171,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>3.2837</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF32" s="2" t="n">
         <v>43718</v>
@@ -4247,13 +4258,13 @@
         <v>715</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>8116</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9182</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>88.39</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -4286,10 +4297,10 @@
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>3.2797</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF33" s="2" t="n">
         <v>44417</v>
@@ -4362,13 +4373,13 @@
         <v>715</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>8131</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9243</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>87.97</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -4401,10 +4412,10 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>3.2857</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF34" s="2" t="n">
         <v>44417</v>
@@ -4477,13 +4488,13 @@
         <v>715</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>8068</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>9233</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>87.38</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -4516,10 +4527,10 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>3.2603</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF35" s="2" t="n">
         <v>44417</v>
@@ -4592,13 +4603,13 @@
         <v>715</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>8121</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9203</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -4631,10 +4642,10 @@
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>3.2817</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF36" s="2" t="n">
         <v>45793</v>
@@ -4715,13 +4726,13 @@
         <v>715</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>8178</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9159</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -4754,10 +4765,10 @@
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>3.3047</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF37" s="2" t="n">
         <v>45793</v>
@@ -4838,13 +4849,13 @@
         <v>715</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>8123</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>9256</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>87.76000000000001</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -4877,10 +4888,10 @@
         <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>3.2825</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF38" s="2" t="n">
         <v>45793</v>
@@ -4961,13 +4972,13 @@
         <v>715</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>8218</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9250</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>88.84</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -5000,10 +5011,10 @@
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>3.3209</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF39" s="2" t="n">
         <v>44417</v>
@@ -5076,13 +5087,13 @@
         <v>715</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>8197</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9199</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>89.11</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -5115,10 +5126,10 @@
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>3.3124</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF40" s="2" t="n">
         <v>44417</v>
@@ -5191,13 +5202,13 @@
         <v>715</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>8138</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>9168</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>88.77</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -5230,10 +5241,10 @@
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>3.2886</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
@@ -5300,13 +5311,13 @@
         <v>715</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>8234</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9261</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>88.91</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -5339,10 +5350,10 @@
         <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>3.3274</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF42" s="2" t="n">
         <v>44417</v>
@@ -5415,13 +5426,13 @@
         <v>715</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>8110</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9130</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>88.83</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -5454,10 +5465,10 @@
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>3.2773</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF43" s="2" t="n">
         <v>45793</v>
@@ -5538,13 +5549,13 @@
         <v>715</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>8184</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>9292</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>88.08</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -5577,10 +5588,10 @@
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>3.3072</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF44" s="2" t="n">
         <v>44417</v>
@@ -5653,13 +5664,13 @@
         <v>715</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>8175</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9217</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>88.69</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -5692,10 +5703,10 @@
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>3.3035</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF45" s="2" t="n">
         <v>44252</v>
@@ -5768,13 +5779,13 @@
         <v>715</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>8183</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9225</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>88.7</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -5807,10 +5818,10 @@
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>3.3068</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF46" s="2" t="n">
         <v>45793</v>
@@ -5891,13 +5902,13 @@
         <v>715</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>8232</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>9251</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>88.98</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
@@ -5930,10 +5941,10 @@
         <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>3.3266</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF47" s="2" t="n">
         <v>44417</v>
@@ -6006,13 +6017,13 @@
         <v>715</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>8144</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>9283</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>87.73</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -6045,10 +6056,10 @@
         <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>3.291</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF48" s="2" t="n">
         <v>45793</v>
@@ -6129,13 +6140,13 @@
         <v>715</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>8196</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>9249</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>88.61</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -6168,10 +6179,10 @@
         <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>3.312</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="AF49" s="2" t="n">
         <v>44417</v>
